--- a/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
+++ b/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
@@ -2848,9 +2848,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2936,6 +2933,63 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2975,61 +3029,19 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3038,21 +3050,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3070,6 +3067,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3109,7 +3109,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +3154,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3204,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3249,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3299,7 +3299,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,7 +3344,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3394,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +3447,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3539,7 +3539,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3597,7 +3597,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3650,7 +3650,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3703,7 +3703,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3801,7 +3801,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3854,7 +3854,7 @@
         <xdr:cNvPr id="4" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3907,7 +3907,7 @@
         <xdr:cNvPr id="5" name="TekstSylinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4001,7 +4001,7 @@
         <xdr:cNvPr id="5" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4054,7 +4054,7 @@
         <xdr:cNvPr id="6" name="TekstSylinder 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4149,7 +4149,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4207,7 +4207,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000010C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4260,7 +4260,7 @@
         <xdr:cNvPr id="3074" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000020C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4313,7 +4313,7 @@
         <xdr:cNvPr id="3075" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000030C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000030C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4366,7 +4366,7 @@
         <xdr:cNvPr id="3076" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000040C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4419,7 +4419,7 @@
         <xdr:cNvPr id="3077" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000050C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000050C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,7 +4472,7 @@
         <xdr:cNvPr id="3078" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000060C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,7 +4525,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4852,7 +4852,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4868,16 +4868,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.9" customHeight="1" thickBot="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>594</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="46" t="s">
@@ -4889,7 +4889,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="41"/>
-      <c r="H2" s="92"/>
+      <c r="H2" s="91"/>
     </row>
     <row r="3" spans="1:8" ht="29.45" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
@@ -4898,10 +4898,10 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="69" t="s">
         <v>215</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -4910,7 +4910,7 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="82" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -4918,16 +4918,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>552</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="26" t="s">
         <v>554</v>
       </c>
@@ -4942,31 +4942,31 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="83" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="86" t="s">
         <v>557</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="86" t="s">
         <v>558</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="85" t="s">
         <v>556</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="87" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -4990,26 +4990,26 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="86" t="s">
         <v>574</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="86" t="s">
         <v>575</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="86" t="s">
         <v>576</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="85" t="s">
         <v>577</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="87" t="s">
         <v>578</v>
       </c>
     </row>
@@ -5038,26 +5038,26 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>542</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="84" t="s">
         <v>648</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87" t="s">
+      <c r="D9" s="85"/>
+      <c r="E9" s="86" t="s">
         <v>543</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="86" t="s">
         <v>544</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="85" t="s">
         <v>545</v>
       </c>
-      <c r="H9" s="88" t="s">
+      <c r="H9" s="87" t="s">
         <v>546</v>
       </c>
     </row>
@@ -5086,26 +5086,26 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="84">
         <v>9</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87" t="s">
+      <c r="D11" s="85"/>
+      <c r="E11" s="86" t="s">
         <v>375</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="86" t="s">
         <v>376</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="85" t="s">
         <v>390</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="87" t="s">
         <v>598</v>
       </c>
     </row>
@@ -5134,26 +5134,26 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="84">
         <v>9</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="86" t="s">
         <v>358</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="86" t="s">
         <v>359</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="85">
         <v>1654</v>
       </c>
-      <c r="H13" s="88" t="s">
+      <c r="H13" s="87" t="s">
         <v>603</v>
       </c>
     </row>
@@ -5182,26 +5182,26 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="84">
         <v>9</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87" t="s">
+      <c r="D15" s="85"/>
+      <c r="E15" s="86" t="s">
         <v>404</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="86" t="s">
         <v>405</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="85">
         <v>1152</v>
       </c>
-      <c r="H15" s="88" t="s">
+      <c r="H15" s="87" t="s">
         <v>610</v>
       </c>
     </row>
@@ -5230,26 +5230,26 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="84">
         <v>9</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87" t="s">
+      <c r="D17" s="85"/>
+      <c r="E17" s="86" t="s">
         <v>397</v>
       </c>
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="86" t="s">
         <v>398</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="85">
         <v>2096</v>
       </c>
-      <c r="H17" s="88" t="s">
+      <c r="H17" s="87" t="s">
         <v>634</v>
       </c>
     </row>
@@ -5278,26 +5278,26 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="84">
         <v>9</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87" t="s">
+      <c r="D19" s="85"/>
+      <c r="E19" s="86" t="s">
         <v>331</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="G19" s="86" t="s">
+      <c r="G19" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="H19" s="88" t="s">
+      <c r="H19" s="87" t="s">
         <v>602</v>
       </c>
     </row>
@@ -5326,31 +5326,31 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="50" customFormat="1">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="85">
+      <c r="C21" s="84">
         <v>9</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87" t="s">
+      <c r="D21" s="85"/>
+      <c r="E21" s="86" t="s">
         <v>352</v>
       </c>
-      <c r="F21" s="87" t="s">
+      <c r="F21" s="86" t="s">
         <v>353</v>
       </c>
-      <c r="G21" s="86" t="s">
+      <c r="G21" s="85" t="s">
         <v>354</v>
       </c>
-      <c r="H21" s="88" t="s">
+      <c r="H21" s="87" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="67" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="26" t="s">
@@ -5374,31 +5374,31 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="30">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="84">
         <v>9</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87" t="s">
+      <c r="D23" s="85"/>
+      <c r="E23" s="86" t="s">
         <v>533</v>
       </c>
-      <c r="F23" s="87" t="s">
+      <c r="F23" s="86" t="s">
         <v>534</v>
       </c>
-      <c r="G23" s="86" t="s">
+      <c r="G23" s="85" t="s">
         <v>535</v>
       </c>
-      <c r="H23" s="88" t="s">
+      <c r="H23" s="87" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -5422,31 +5422,31 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="30">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87" t="s">
+      <c r="D25" s="85"/>
+      <c r="E25" s="86" t="s">
         <v>369</v>
       </c>
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="86" t="s">
         <v>370</v>
       </c>
-      <c r="G25" s="86" t="s">
+      <c r="G25" s="85" t="s">
         <v>371</v>
       </c>
-      <c r="H25" s="88" t="s">
+      <c r="H25" s="87" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="67" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="26" t="s">
@@ -5470,26 +5470,26 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="30">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="85">
+      <c r="C27" s="84">
         <v>9</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87" t="s">
+      <c r="D27" s="85"/>
+      <c r="E27" s="86" t="s">
         <v>501</v>
       </c>
-      <c r="F27" s="87" t="s">
+      <c r="F27" s="86" t="s">
         <v>502</v>
       </c>
-      <c r="G27" s="86" t="s">
+      <c r="G27" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="87" t="s">
         <v>504</v>
       </c>
     </row>
@@ -5518,26 +5518,26 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="85">
+      <c r="C29" s="84">
         <v>9</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87" t="s">
+      <c r="D29" s="85"/>
+      <c r="E29" s="86" t="s">
         <v>497</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="86" t="s">
         <v>498</v>
       </c>
-      <c r="G29" s="86" t="s">
+      <c r="G29" s="85" t="s">
         <v>499</v>
       </c>
-      <c r="H29" s="88" t="s">
+      <c r="H29" s="87" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5566,26 +5566,26 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="85">
+      <c r="C31" s="84">
         <v>9</v>
       </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87" t="s">
+      <c r="D31" s="85"/>
+      <c r="E31" s="86" t="s">
         <v>523</v>
       </c>
-      <c r="F31" s="87" t="s">
+      <c r="F31" s="86" t="s">
         <v>524</v>
       </c>
-      <c r="G31" s="86" t="s">
+      <c r="G31" s="85" t="s">
         <v>525</v>
       </c>
-      <c r="H31" s="88" t="s">
+      <c r="H31" s="87" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       <c r="C32" s="64">
         <v>9</v>
       </c>
-      <c r="D32" s="80"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="26" t="s">
         <v>526</v>
       </c>
@@ -5614,26 +5614,26 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="85">
+      <c r="C33" s="84">
         <v>9</v>
       </c>
-      <c r="D33" s="90"/>
-      <c r="E33" s="87" t="s">
+      <c r="D33" s="89"/>
+      <c r="E33" s="86" t="s">
         <v>493</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F33" s="86" t="s">
         <v>494</v>
       </c>
-      <c r="G33" s="86" t="s">
+      <c r="G33" s="85" t="s">
         <v>495</v>
       </c>
-      <c r="H33" s="88" t="s">
+      <c r="H33" s="87" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5647,7 +5647,7 @@
       <c r="C34" s="64">
         <v>9</v>
       </c>
-      <c r="D34" s="80"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="26" t="s">
         <v>505</v>
       </c>
@@ -5662,26 +5662,26 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="30">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="85">
+      <c r="C35" s="84">
         <v>9</v>
       </c>
-      <c r="D35" s="90"/>
-      <c r="E35" s="87" t="s">
+      <c r="D35" s="89"/>
+      <c r="E35" s="86" t="s">
         <v>509</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="F35" s="86" t="s">
         <v>510</v>
       </c>
-      <c r="G35" s="86" t="s">
+      <c r="G35" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="H35" s="88" t="s">
+      <c r="H35" s="87" t="s">
         <v>511</v>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       <c r="C36" s="64">
         <v>9</v>
       </c>
-      <c r="D36" s="80"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="26" t="s">
         <v>516</v>
       </c>
@@ -5710,26 +5710,26 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="45">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="D37" s="90"/>
-      <c r="E37" s="87" t="s">
+      <c r="D37" s="89"/>
+      <c r="E37" s="86" t="s">
         <v>482</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="86" t="s">
         <v>483</v>
       </c>
-      <c r="G37" s="86" t="s">
+      <c r="G37" s="85" t="s">
         <v>484</v>
       </c>
-      <c r="H37" s="88" t="s">
+      <c r="H37" s="87" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5743,7 +5743,7 @@
       <c r="C38" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="D38" s="80"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="26" t="s">
         <v>435</v>
       </c>
@@ -5758,20 +5758,20 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="85">
+      <c r="C39" s="84">
         <v>3</v>
       </c>
-      <c r="D39" s="90"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="88"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="87"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="63" t="s">
@@ -5783,27 +5783,27 @@
       <c r="C40" s="64">
         <v>3</v>
       </c>
-      <c r="D40" s="80"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="65"/>
       <c r="H40" s="31"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="85">
+      <c r="C41" s="84">
         <v>3</v>
       </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="88"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="87"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="63" t="s">
@@ -5815,27 +5815,27 @@
       <c r="C42" s="64">
         <v>3</v>
       </c>
-      <c r="D42" s="80"/>
+      <c r="D42" s="79"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="65"/>
       <c r="H42" s="31"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="85">
+      <c r="C43" s="84">
         <v>3</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="88"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="87"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="63" t="s">
@@ -5847,27 +5847,27 @@
       <c r="C44" s="64">
         <v>3</v>
       </c>
-      <c r="D44" s="80"/>
+      <c r="D44" s="79"/>
       <c r="E44" s="66"/>
       <c r="F44" s="66"/>
       <c r="G44" s="65"/>
       <c r="H44" s="31"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="87" t="s">
+      <c r="B45" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="85">
+      <c r="C45" s="84">
         <v>3</v>
       </c>
-      <c r="D45" s="90"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="88"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="87"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="63" t="s">
@@ -5879,27 +5879,27 @@
       <c r="C46" s="64">
         <v>3</v>
       </c>
-      <c r="D46" s="80"/>
+      <c r="D46" s="79"/>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
       <c r="G46" s="65"/>
       <c r="H46" s="31"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="85">
+      <c r="C47" s="84">
         <v>3</v>
       </c>
-      <c r="D47" s="90"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="88"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="87"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="63" t="s">
@@ -5911,27 +5911,27 @@
       <c r="C48" s="64">
         <v>3</v>
       </c>
-      <c r="D48" s="80"/>
+      <c r="D48" s="79"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="65"/>
       <c r="H48" s="31"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="85">
+      <c r="C49" s="84">
         <v>3</v>
       </c>
-      <c r="D49" s="90"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="88"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="87"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="63" t="s">
@@ -5943,27 +5943,27 @@
       <c r="C50" s="64">
         <v>3</v>
       </c>
-      <c r="D50" s="80"/>
+      <c r="D50" s="79"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="65"/>
       <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="85">
+      <c r="C51" s="84">
         <v>3</v>
       </c>
-      <c r="D51" s="90"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="88"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="87"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="63" t="s">
@@ -5975,7 +5975,7 @@
       <c r="C52" s="64">
         <v>3</v>
       </c>
-      <c r="D52" s="80"/>
+      <c r="D52" s="79"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="65"/>
@@ -5984,20 +5984,20 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="85">
+      <c r="C53" s="84">
         <v>3</v>
       </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="88"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="87"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="63" t="s">
@@ -6009,27 +6009,27 @@
       <c r="C54" s="64">
         <v>3</v>
       </c>
-      <c r="D54" s="80"/>
+      <c r="D54" s="79"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="65"/>
       <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="85">
+      <c r="C55" s="84">
         <v>3</v>
       </c>
-      <c r="D55" s="90"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="88"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="87"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="63" t="s">
@@ -6041,27 +6041,27 @@
       <c r="C56" s="64">
         <v>3</v>
       </c>
-      <c r="D56" s="80"/>
+      <c r="D56" s="79"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="65"/>
       <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="89" t="s">
+      <c r="A57" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="87" t="s">
+      <c r="B57" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="85">
+      <c r="C57" s="84">
         <v>3</v>
       </c>
-      <c r="D57" s="90"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="88"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="87"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="63" t="s">
@@ -6073,7 +6073,7 @@
       <c r="C58" s="64">
         <v>6</v>
       </c>
-      <c r="D58" s="80"/>
+      <c r="D58" s="79"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="65"/>
@@ -6082,25 +6082,25 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="89" t="s">
+      <c r="A59" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="87" t="s">
+      <c r="B59" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="85">
+      <c r="C59" s="84">
         <v>6</v>
       </c>
-      <c r="D59" s="90"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="88" t="s">
+      <c r="D59" s="89"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="87" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="79" t="s">
+      <c r="A60" s="78" t="s">
         <v>139</v>
       </c>
       <c r="B60" s="26" t="s">
@@ -6109,7 +6109,7 @@
       <c r="C60" s="64">
         <v>1</v>
       </c>
-      <c r="D60" s="80"/>
+      <c r="D60" s="79"/>
       <c r="E60" s="66" t="s">
         <v>487</v>
       </c>
@@ -6124,26 +6124,26 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="24">
-      <c r="A61" s="89" t="s">
+      <c r="A61" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="87" t="s">
+      <c r="B61" s="86" t="s">
         <v>422</v>
       </c>
-      <c r="C61" s="85">
+      <c r="C61" s="84">
         <v>1</v>
       </c>
-      <c r="D61" s="90"/>
-      <c r="E61" s="87" t="s">
+      <c r="D61" s="89"/>
+      <c r="E61" s="86" t="s">
         <v>459</v>
       </c>
-      <c r="F61" s="87" t="s">
+      <c r="F61" s="86" t="s">
         <v>460</v>
       </c>
-      <c r="G61" s="86" t="s">
+      <c r="G61" s="85" t="s">
         <v>461</v>
       </c>
-      <c r="H61" s="88" t="s">
+      <c r="H61" s="87" t="s">
         <v>462</v>
       </c>
     </row>
@@ -6154,10 +6154,10 @@
       <c r="B62" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="C62" s="81">
+      <c r="C62" s="80">
         <v>1</v>
       </c>
-      <c r="D62" s="82"/>
+      <c r="D62" s="81"/>
       <c r="E62" s="26" t="s">
         <v>418</v>
       </c>
@@ -6172,26 +6172,26 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="24">
-      <c r="A63" s="89" t="s">
+      <c r="A63" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="87" t="s">
+      <c r="B63" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="C63" s="85">
+      <c r="C63" s="84">
         <v>1</v>
       </c>
-      <c r="D63" s="90"/>
-      <c r="E63" s="87" t="s">
+      <c r="D63" s="89"/>
+      <c r="E63" s="86" t="s">
         <v>409</v>
       </c>
-      <c r="F63" s="87" t="s">
+      <c r="F63" s="86" t="s">
         <v>410</v>
       </c>
-      <c r="G63" s="86" t="s">
+      <c r="G63" s="85" t="s">
         <v>411</v>
       </c>
-      <c r="H63" s="88" t="s">
+      <c r="H63" s="87" t="s">
         <v>618</v>
       </c>
     </row>
@@ -6205,33 +6205,33 @@
       <c r="C64" s="64">
         <v>1</v>
       </c>
-      <c r="D64" s="80"/>
+      <c r="D64" s="79"/>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
       <c r="G64" s="65"/>
       <c r="H64" s="31"/>
     </row>
     <row r="65" spans="1:8" ht="45">
-      <c r="A65" s="89" t="s">
+      <c r="A65" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="87" t="s">
+      <c r="B65" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="85">
+      <c r="C65" s="84">
         <v>4</v>
       </c>
-      <c r="D65" s="90"/>
-      <c r="E65" s="87" t="s">
+      <c r="D65" s="89"/>
+      <c r="E65" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="F65" s="87" t="s">
+      <c r="F65" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="G65" s="86" t="s">
+      <c r="G65" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="H65" s="88" t="s">
+      <c r="H65" s="87" t="s">
         <v>604</v>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       <c r="C66" s="64">
         <v>9</v>
       </c>
-      <c r="D66" s="80"/>
+      <c r="D66" s="79"/>
       <c r="E66" s="26" t="s">
         <v>465</v>
       </c>
@@ -6260,26 +6260,26 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="30">
-      <c r="A67" s="89" t="s">
+      <c r="A67" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="87" t="s">
+      <c r="B67" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="85">
+      <c r="C67" s="84">
         <v>5</v>
       </c>
-      <c r="D67" s="90"/>
-      <c r="E67" s="87" t="s">
+      <c r="D67" s="89"/>
+      <c r="E67" s="86" t="s">
         <v>468</v>
       </c>
-      <c r="F67" s="87" t="s">
+      <c r="F67" s="86" t="s">
         <v>469</v>
       </c>
-      <c r="G67" s="86" t="s">
+      <c r="G67" s="85" t="s">
         <v>470</v>
       </c>
-      <c r="H67" s="88" t="s">
+      <c r="H67" s="87" t="s">
         <v>463</v>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
       <c r="C68" s="64">
         <v>5</v>
       </c>
-      <c r="D68" s="80"/>
+      <c r="D68" s="79"/>
       <c r="E68" s="26" t="s">
         <v>456</v>
       </c>
@@ -6308,26 +6308,26 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="30">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="87" t="s">
+      <c r="B69" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="C69" s="85">
+      <c r="C69" s="84">
         <v>4</v>
       </c>
-      <c r="D69" s="90"/>
-      <c r="E69" s="87" t="s">
+      <c r="D69" s="89"/>
+      <c r="E69" s="86" t="s">
         <v>423</v>
       </c>
-      <c r="F69" s="87" t="s">
+      <c r="F69" s="86" t="s">
         <v>424</v>
       </c>
-      <c r="G69" s="86" t="s">
+      <c r="G69" s="85" t="s">
         <v>425</v>
       </c>
-      <c r="H69" s="88" t="s">
+      <c r="H69" s="87" t="s">
         <v>631</v>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       <c r="C70" s="64">
         <v>4</v>
       </c>
-      <c r="D70" s="80"/>
+      <c r="D70" s="79"/>
       <c r="E70" s="26" t="s">
         <v>426</v>
       </c>
@@ -6356,26 +6356,26 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="89" t="s">
+      <c r="A71" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="87" t="s">
+      <c r="B71" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="C71" s="85">
+      <c r="C71" s="84">
         <v>4</v>
       </c>
-      <c r="D71" s="90"/>
-      <c r="E71" s="87" t="s">
+      <c r="D71" s="89"/>
+      <c r="E71" s="86" t="s">
         <v>432</v>
       </c>
-      <c r="F71" s="87" t="s">
+      <c r="F71" s="86" t="s">
         <v>433</v>
       </c>
-      <c r="G71" s="86" t="s">
+      <c r="G71" s="85" t="s">
         <v>434</v>
       </c>
-      <c r="H71" s="88" t="s">
+      <c r="H71" s="87" t="s">
         <v>617</v>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
       <c r="C72" s="64">
         <v>4</v>
       </c>
-      <c r="D72" s="80"/>
+      <c r="D72" s="79"/>
       <c r="E72" s="26" t="s">
         <v>429</v>
       </c>
@@ -6404,26 +6404,26 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="30">
-      <c r="A73" s="89" t="s">
+      <c r="A73" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="87" t="s">
+      <c r="B73" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="C73" s="85">
+      <c r="C73" s="84">
         <v>12</v>
       </c>
-      <c r="D73" s="90"/>
-      <c r="E73" s="87" t="s">
+      <c r="D73" s="89"/>
+      <c r="E73" s="86" t="s">
         <v>588</v>
       </c>
-      <c r="F73" s="87" t="s">
+      <c r="F73" s="86" t="s">
         <v>589</v>
       </c>
-      <c r="G73" s="86" t="s">
+      <c r="G73" s="85" t="s">
         <v>441</v>
       </c>
-      <c r="H73" s="88" t="s">
+      <c r="H73" s="87" t="s">
         <v>590</v>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       <c r="C74" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="D74" s="80"/>
+      <c r="D74" s="79"/>
       <c r="E74" s="26" t="s">
         <v>583</v>
       </c>
@@ -6452,26 +6452,26 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="30">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="87" t="s">
+      <c r="B75" s="86" t="s">
         <v>291</v>
       </c>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="90"/>
-      <c r="E75" s="91" t="s">
+      <c r="D75" s="89"/>
+      <c r="E75" s="90" t="s">
         <v>471</v>
       </c>
-      <c r="F75" s="91" t="s">
+      <c r="F75" s="90" t="s">
         <v>472</v>
       </c>
-      <c r="G75" s="86" t="s">
+      <c r="G75" s="85" t="s">
         <v>473</v>
       </c>
-      <c r="H75" s="88" t="s">
+      <c r="H75" s="87" t="s">
         <v>638</v>
       </c>
     </row>
@@ -6485,7 +6485,7 @@
       <c r="C76" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="D76" s="80"/>
+      <c r="D76" s="79"/>
       <c r="E76" s="26" t="s">
         <v>474</v>
       </c>
@@ -6500,26 +6500,26 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="30">
-      <c r="A77" s="89" t="s">
+      <c r="A77" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="87" t="s">
+      <c r="B77" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="C77" s="85" t="s">
+      <c r="C77" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="D77" s="90"/>
-      <c r="E77" s="87" t="s">
+      <c r="D77" s="89"/>
+      <c r="E77" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="F77" s="87" t="s">
+      <c r="F77" s="86" t="s">
         <v>480</v>
       </c>
-      <c r="G77" s="86" t="s">
+      <c r="G77" s="85" t="s">
         <v>481</v>
       </c>
-      <c r="H77" s="88" t="s">
+      <c r="H77" s="87" t="s">
         <v>636</v>
       </c>
     </row>
@@ -6533,7 +6533,7 @@
       <c r="C78" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D78" s="80"/>
+      <c r="D78" s="79"/>
       <c r="E78" s="26" t="s">
         <v>299</v>
       </c>
@@ -6548,26 +6548,26 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="30">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="87" t="s">
+      <c r="B79" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="C79" s="85" t="s">
+      <c r="C79" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="D79" s="90"/>
-      <c r="E79" s="87" t="s">
+      <c r="D79" s="89"/>
+      <c r="E79" s="86" t="s">
         <v>318</v>
       </c>
-      <c r="F79" s="87" t="s">
+      <c r="F79" s="86" t="s">
         <v>319</v>
       </c>
-      <c r="G79" s="86" t="s">
+      <c r="G79" s="85" t="s">
         <v>320</v>
       </c>
-      <c r="H79" s="88" t="s">
+      <c r="H79" s="87" t="s">
         <v>605</v>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       <c r="C80" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D80" s="80"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="26" t="s">
         <v>313</v>
       </c>
@@ -6596,26 +6596,26 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="87" t="s">
+      <c r="B81" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="D81" s="90"/>
-      <c r="E81" s="87" t="s">
+      <c r="D81" s="89"/>
+      <c r="E81" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="F81" s="87" t="s">
+      <c r="F81" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="G81" s="86" t="s">
+      <c r="G81" s="85" t="s">
         <v>311</v>
       </c>
-      <c r="H81" s="88" t="s">
+      <c r="H81" s="87" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
       <c r="C82" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D82" s="80"/>
+      <c r="D82" s="79"/>
       <c r="E82" s="26" t="s">
         <v>315</v>
       </c>
@@ -6644,26 +6644,26 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="89" t="s">
+      <c r="A83" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="B83" s="87" t="s">
+      <c r="B83" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="C83" s="85" t="s">
+      <c r="C83" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="D83" s="90"/>
-      <c r="E83" s="87" t="s">
+      <c r="D83" s="89"/>
+      <c r="E83" s="86" t="s">
         <v>307</v>
       </c>
-      <c r="F83" s="87" t="s">
+      <c r="F83" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="G83" s="86" t="s">
+      <c r="G83" s="85" t="s">
         <v>312</v>
       </c>
-      <c r="H83" s="88" t="s">
+      <c r="H83" s="87" t="s">
         <v>623</v>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
       <c r="C84" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D84" s="80"/>
+      <c r="D84" s="79"/>
       <c r="E84" s="26" t="s">
         <v>322</v>
       </c>
@@ -6692,26 +6692,26 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="89" t="s">
+      <c r="A85" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="87" t="s">
+      <c r="B85" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="C85" s="85" t="s">
+      <c r="C85" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="D85" s="90"/>
-      <c r="E85" s="87" t="s">
+      <c r="D85" s="89"/>
+      <c r="E85" s="86" t="s">
         <v>325</v>
       </c>
-      <c r="F85" s="87" t="s">
+      <c r="F85" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="G85" s="86" t="s">
+      <c r="G85" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="H85" s="88" t="s">
+      <c r="H85" s="87" t="s">
         <v>647</v>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       <c r="C86" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="D86" s="80"/>
+      <c r="D86" s="79"/>
       <c r="E86" s="26" t="s">
         <v>328</v>
       </c>
@@ -6740,31 +6740,31 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="89" t="s">
+      <c r="A87" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="87" t="s">
+      <c r="B87" s="86" t="s">
         <v>334</v>
       </c>
-      <c r="C87" s="85" t="s">
+      <c r="C87" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="D87" s="90"/>
-      <c r="E87" s="87" t="s">
+      <c r="D87" s="89"/>
+      <c r="E87" s="86" t="s">
         <v>337</v>
       </c>
-      <c r="F87" s="87" t="s">
+      <c r="F87" s="86" t="s">
         <v>338</v>
       </c>
-      <c r="G87" s="86" t="s">
+      <c r="G87" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H87" s="88" t="s">
+      <c r="H87" s="87" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="79" t="s">
+      <c r="A88" s="78" t="s">
         <v>167</v>
       </c>
       <c r="B88" s="26" t="s">
@@ -6773,7 +6773,7 @@
       <c r="C88" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="D88" s="80"/>
+      <c r="D88" s="79"/>
       <c r="E88" s="26" t="s">
         <v>340</v>
       </c>
@@ -6788,26 +6788,26 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="24">
-      <c r="A89" s="89" t="s">
+      <c r="A89" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="87" t="s">
+      <c r="B89" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="C89" s="85" t="s">
+      <c r="C89" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="D89" s="90"/>
-      <c r="E89" s="87" t="s">
+      <c r="D89" s="89"/>
+      <c r="E89" s="86" t="s">
         <v>344</v>
       </c>
-      <c r="F89" s="87" t="s">
+      <c r="F89" s="86" t="s">
         <v>452</v>
       </c>
-      <c r="G89" s="86" t="s">
+      <c r="G89" s="85" t="s">
         <v>345</v>
       </c>
-      <c r="H89" s="88" t="s">
+      <c r="H89" s="87" t="s">
         <v>625</v>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       <c r="C90" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="D90" s="80"/>
+      <c r="D90" s="79"/>
       <c r="E90" s="26" t="s">
         <v>355</v>
       </c>
@@ -6836,26 +6836,26 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="30">
-      <c r="A91" s="89" t="s">
+      <c r="A91" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="B91" s="87" t="s">
+      <c r="B91" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="C91" s="85" t="s">
+      <c r="C91" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="D91" s="90"/>
-      <c r="E91" s="87" t="s">
+      <c r="D91" s="89"/>
+      <c r="E91" s="86" t="s">
         <v>366</v>
       </c>
-      <c r="F91" s="87" t="s">
+      <c r="F91" s="86" t="s">
         <v>367</v>
       </c>
-      <c r="G91" s="86" t="s">
+      <c r="G91" s="85" t="s">
         <v>368</v>
       </c>
-      <c r="H91" s="88" t="s">
+      <c r="H91" s="87" t="s">
         <v>613</v>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       <c r="C92" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="D92" s="80"/>
+      <c r="D92" s="79"/>
       <c r="E92" s="26" t="s">
         <v>380</v>
       </c>
@@ -6884,26 +6884,26 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="89" t="s">
+      <c r="A93" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B93" s="87" t="s">
+      <c r="B93" s="86" t="s">
         <v>383</v>
       </c>
-      <c r="C93" s="85" t="s">
+      <c r="C93" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="D93" s="90"/>
-      <c r="E93" s="87" t="s">
+      <c r="D93" s="89"/>
+      <c r="E93" s="86" t="s">
         <v>384</v>
       </c>
-      <c r="F93" s="87" t="s">
+      <c r="F93" s="86" t="s">
         <v>385</v>
       </c>
-      <c r="G93" s="86" t="s">
+      <c r="G93" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="H93" s="88" t="s">
+      <c r="H93" s="87" t="s">
         <v>600</v>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
       <c r="C94" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D94" s="80"/>
+      <c r="D94" s="79"/>
       <c r="E94" s="26" t="s">
         <v>387</v>
       </c>
@@ -6932,26 +6932,26 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="30">
-      <c r="A95" s="89" t="s">
+      <c r="A95" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="B95" s="87" t="s">
+      <c r="B95" s="86" t="s">
         <v>406</v>
       </c>
-      <c r="C95" s="85" t="s">
+      <c r="C95" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="D95" s="90"/>
-      <c r="E95" s="87" t="s">
+      <c r="D95" s="89"/>
+      <c r="E95" s="86" t="s">
         <v>404</v>
       </c>
-      <c r="F95" s="87" t="s">
+      <c r="F95" s="86" t="s">
         <v>407</v>
       </c>
-      <c r="G95" s="86">
+      <c r="G95" s="85">
         <v>1024</v>
       </c>
-      <c r="H95" s="88" t="s">
+      <c r="H95" s="87" t="s">
         <v>612</v>
       </c>
     </row>
@@ -6965,7 +6965,7 @@
       <c r="C96" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="D96" s="80"/>
+      <c r="D96" s="79"/>
       <c r="E96" s="26" t="s">
         <v>415</v>
       </c>
@@ -6980,26 +6980,26 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="30">
-      <c r="A97" s="89" t="s">
+      <c r="A97" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="B97" s="87" t="s">
+      <c r="B97" s="86" t="s">
         <v>438</v>
       </c>
-      <c r="C97" s="85" t="s">
+      <c r="C97" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="D97" s="90"/>
-      <c r="E97" s="87" t="s">
+      <c r="D97" s="89"/>
+      <c r="E97" s="86" t="s">
         <v>439</v>
       </c>
-      <c r="F97" s="87" t="s">
+      <c r="F97" s="86" t="s">
         <v>440</v>
       </c>
-      <c r="G97" s="86" t="s">
+      <c r="G97" s="85" t="s">
         <v>441</v>
       </c>
-      <c r="H97" s="88" t="s">
+      <c r="H97" s="87" t="s">
         <v>628</v>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       <c r="C98" s="64" t="s">
         <v>649</v>
       </c>
-      <c r="D98" s="80"/>
+      <c r="D98" s="79"/>
       <c r="E98" s="26" t="s">
         <v>586</v>
       </c>
@@ -7028,26 +7028,26 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="89" t="s">
+      <c r="A99" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="B99" s="87" t="s">
+      <c r="B99" s="86" t="s">
         <v>448</v>
       </c>
-      <c r="C99" s="85" t="s">
+      <c r="C99" s="84" t="s">
         <v>649</v>
       </c>
-      <c r="D99" s="90"/>
-      <c r="E99" s="87" t="s">
+      <c r="D99" s="89"/>
+      <c r="E99" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F99" s="87" t="s">
+      <c r="F99" s="86" t="s">
         <v>446</v>
       </c>
-      <c r="G99" s="86" t="s">
+      <c r="G99" s="85" t="s">
         <v>447</v>
       </c>
-      <c r="H99" s="88" t="s">
+      <c r="H99" s="87" t="s">
         <v>443</v>
       </c>
     </row>
@@ -7061,7 +7061,7 @@
       <c r="C100" s="64" t="s">
         <v>649</v>
       </c>
-      <c r="D100" s="80"/>
+      <c r="D100" s="79"/>
       <c r="E100" s="26" t="s">
         <v>449</v>
       </c>
@@ -7076,26 +7076,26 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="30">
-      <c r="A101" s="89" t="s">
+      <c r="A101" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="B101" s="87" t="s">
+      <c r="B101" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="C101" s="85" t="s">
+      <c r="C101" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="D101" s="90"/>
-      <c r="E101" s="87" t="s">
+      <c r="D101" s="89"/>
+      <c r="E101" s="86" t="s">
         <v>490</v>
       </c>
-      <c r="F101" s="87" t="s">
+      <c r="F101" s="86" t="s">
         <v>491</v>
       </c>
-      <c r="G101" s="86" t="s">
+      <c r="G101" s="85" t="s">
         <v>492</v>
       </c>
-      <c r="H101" s="88" t="s">
+      <c r="H101" s="87" t="s">
         <v>643</v>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
       <c r="C102" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="D102" s="80"/>
+      <c r="D102" s="79"/>
       <c r="E102" s="66" t="s">
         <v>512</v>
       </c>
@@ -7124,26 +7124,26 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="89" t="s">
+      <c r="A103" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="B103" s="87" t="s">
+      <c r="B103" s="86" t="s">
         <v>537</v>
       </c>
-      <c r="C103" s="85" t="s">
+      <c r="C103" s="84" t="s">
         <v>648</v>
       </c>
-      <c r="D103" s="90"/>
-      <c r="E103" s="91" t="s">
+      <c r="D103" s="89"/>
+      <c r="E103" s="90" t="s">
         <v>538</v>
       </c>
-      <c r="F103" s="91" t="s">
+      <c r="F103" s="90" t="s">
         <v>539</v>
       </c>
-      <c r="G103" s="86" t="s">
+      <c r="G103" s="85" t="s">
         <v>540</v>
       </c>
-      <c r="H103" s="88" t="s">
+      <c r="H103" s="87" t="s">
         <v>541</v>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
       <c r="C104" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D104" s="80"/>
+      <c r="D104" s="79"/>
       <c r="E104" s="66" t="s">
         <v>570</v>
       </c>
@@ -7172,26 +7172,26 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="89" t="s">
+      <c r="A105" s="88" t="s">
         <v>563</v>
       </c>
-      <c r="B105" s="87" t="s">
+      <c r="B105" s="86" t="s">
         <v>579</v>
       </c>
-      <c r="C105" s="85" t="s">
+      <c r="C105" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="D105" s="90"/>
-      <c r="E105" s="91" t="s">
+      <c r="D105" s="89"/>
+      <c r="E105" s="90" t="s">
         <v>580</v>
       </c>
-      <c r="F105" s="91" t="s">
+      <c r="F105" s="90" t="s">
         <v>581</v>
       </c>
-      <c r="G105" s="86" t="s">
+      <c r="G105" s="85" t="s">
         <v>577</v>
       </c>
-      <c r="H105" s="88" t="s">
+      <c r="H105" s="87" t="s">
         <v>644</v>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       <c r="C106" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D106" s="80"/>
+      <c r="D106" s="79"/>
       <c r="E106" s="66" t="s">
         <v>313</v>
       </c>
@@ -7220,16 +7220,16 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="89" t="s">
+      <c r="A107" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="B107" s="87"/>
-      <c r="C107" s="85"/>
-      <c r="D107" s="90"/>
-      <c r="E107" s="91"/>
-      <c r="F107" s="91"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="88"/>
+      <c r="B107" s="86"/>
+      <c r="C107" s="84"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="90"/>
+      <c r="F107" s="90"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="87"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="63" t="s">
@@ -7237,34 +7237,34 @@
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="64"/>
-      <c r="D108" s="80"/>
+      <c r="D108" s="79"/>
       <c r="E108" s="66"/>
       <c r="F108" s="66"/>
       <c r="G108" s="65"/>
       <c r="H108" s="31"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="89" t="s">
+      <c r="A109" s="88" t="s">
         <v>567</v>
       </c>
-      <c r="B109" s="87"/>
-      <c r="C109" s="85"/>
-      <c r="D109" s="90"/>
-      <c r="E109" s="91"/>
-      <c r="F109" s="91"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="88"/>
+      <c r="B109" s="86"/>
+      <c r="C109" s="84"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="90"/>
+      <c r="F109" s="90"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="87"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A110" s="75" t="s">
+      <c r="A110" s="74" t="s">
         <v>568</v>
       </c>
-      <c r="B110" s="76"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="93"/>
-      <c r="E110" s="94"/>
-      <c r="F110" s="94"/>
-      <c r="G110" s="78"/>
+      <c r="B110" s="75"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="93"/>
+      <c r="F110" s="93"/>
+      <c r="G110" s="77"/>
       <c r="H110" s="32"/>
     </row>
     <row r="111" spans="1:8">
@@ -9104,7 +9104,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
@@ -9144,34 +9144,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="101"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
@@ -9179,17 +9179,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="127"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="19" t="s">
@@ -9336,17 +9336,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
@@ -9361,15 +9361,15 @@
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="115" t="s">
+      <c r="F16" s="114"/>
+      <c r="G16" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="116"/>
-      <c r="I16" s="117"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="113"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
@@ -9378,11 +9378,11 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
       <c r="K17" t="s">
         <v>56</v>
       </c>
@@ -9394,11 +9394,11 @@
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7">
@@ -9407,11 +9407,11 @@
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="106"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7">
@@ -9420,11 +9420,11 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="106"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7">
@@ -9433,11 +9433,11 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="106"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7">
@@ -9446,11 +9446,11 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7">
@@ -9459,11 +9459,11 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="106"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7">
@@ -9472,11 +9472,11 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7">
@@ -9485,11 +9485,11 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="8">
@@ -9498,23 +9498,19 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -9529,11 +9525,15 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9562,50 +9562,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="101"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="102" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="103"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="127"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="19" t="s">
@@ -9667,15 +9667,15 @@
       <c r="I6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="135" t="s">
+      <c r="K6" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="9">
@@ -9705,15 +9705,15 @@
       <c r="I7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="135" t="s">
+      <c r="K7" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="9">
@@ -9821,17 +9821,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="19" t="s">
@@ -9846,15 +9846,15 @@
       <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="129" t="s">
+      <c r="E16" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129" t="s">
+      <c r="F16" s="133"/>
+      <c r="G16" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="134"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
@@ -9869,15 +9869,15 @@
       <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="131" t="s">
+      <c r="E17" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="132"/>
-      <c r="G17" s="131" t="s">
+      <c r="F17" s="130"/>
+      <c r="G17" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="133"/>
-      <c r="I17" s="134"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
     </row>
     <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="7">
@@ -9892,15 +9892,15 @@
       <c r="D18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="E18" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="132"/>
-      <c r="G18" s="131" t="s">
+      <c r="F18" s="130"/>
+      <c r="G18" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="133"/>
-      <c r="I18" s="134"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
     </row>
     <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="7">
@@ -9915,15 +9915,15 @@
       <c r="D19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="131" t="s">
+      <c r="E19" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="131" t="s">
+      <c r="F19" s="130"/>
+      <c r="G19" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="133"/>
-      <c r="I19" s="134"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
       <c r="K19" t="s">
         <v>56</v>
       </c>
@@ -9935,11 +9935,11 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="106"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7">
@@ -9948,11 +9948,11 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="106"/>
       <c r="K21" t="s">
         <v>81</v>
       </c>
@@ -9964,11 +9964,11 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7">
@@ -9977,11 +9977,11 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="106"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7">
@@ -9990,11 +9990,11 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7">
@@ -10003,11 +10003,11 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="8">
@@ -10016,14 +10016,28 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -10040,20 +10054,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10081,11 +10081,11 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="21" t="s">
@@ -10168,10 +10168,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="137"/>
+      <c r="C2" s="136"/>
       <c r="O2" t="s">
         <v>283</v>
       </c>
@@ -10411,56 +10411,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="136" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="135" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="135"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="138"/>
+      <c r="C5" s="137"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="138"/>
+      <c r="C6" s="137"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="137" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="138"/>
+      <c r="C7" s="137"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="137" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10493,11 +10493,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="138" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
       <c r="J2" t="s">
         <v>283</v>
       </c>

--- a/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
+++ b/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="670">
   <si>
     <t>NAME</t>
   </si>
@@ -2005,6 +2005,66 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>N36 31.300</t>
+  </si>
+  <si>
+    <t>E037 02.300</t>
+  </si>
+  <si>
+    <t>1614ft</t>
+  </si>
+  <si>
+    <t>N36 11.000</t>
+  </si>
+  <si>
+    <t>E037 13.500</t>
+  </si>
+  <si>
+    <t>1258ft</t>
+  </si>
+  <si>
+    <t>E037 35.000</t>
+  </si>
+  <si>
+    <t>1201ft</t>
+  </si>
+  <si>
+    <t>N36 06.000</t>
+  </si>
+  <si>
+    <t>E037 56.000</t>
+  </si>
+  <si>
+    <t>1155ft</t>
+  </si>
+  <si>
+    <t>N35 45.500</t>
+  </si>
+  <si>
+    <t>E038 34.000</t>
+  </si>
+  <si>
+    <t>1066ft</t>
+  </si>
+  <si>
+    <t>N35 44.000</t>
+  </si>
+  <si>
+    <t>E037 06.000</t>
+  </si>
+  <si>
+    <t>820ft</t>
+  </si>
+  <si>
+    <t>N35 58.000</t>
+  </si>
+  <si>
+    <t>E036 47.000</t>
+  </si>
+  <si>
+    <t>1020ft</t>
   </si>
 </sst>
 </file>
@@ -2933,6 +2993,81 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2957,99 +3092,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3067,9 +3130,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3109,7 +3169,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +3214,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3264,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3309,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3299,7 +3359,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,7 +3404,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3454,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +3507,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3539,7 +3599,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3597,7 +3657,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3650,7 +3710,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3703,7 +3763,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3801,7 +3861,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3854,7 +3914,7 @@
         <xdr:cNvPr id="4" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3907,7 +3967,7 @@
         <xdr:cNvPr id="5" name="TekstSylinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4001,7 +4061,7 @@
         <xdr:cNvPr id="5" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4054,7 +4114,7 @@
         <xdr:cNvPr id="6" name="TekstSylinder 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4149,7 +4209,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4207,7 +4267,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000010C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4260,7 +4320,7 @@
         <xdr:cNvPr id="3074" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000020C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4313,7 +4373,7 @@
         <xdr:cNvPr id="3075" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000030C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000030C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4366,7 +4426,7 @@
         <xdr:cNvPr id="3076" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000040C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4419,7 +4479,7 @@
         <xdr:cNvPr id="3077" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000050C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000050C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,7 +4532,7 @@
         <xdr:cNvPr id="3078" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000060C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,7 +4585,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4851,8 +4911,8 @@
   <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4877,7 +4937,7 @@
       <c r="E1" s="95"/>
       <c r="F1" s="95"/>
       <c r="G1" s="95"/>
-      <c r="H1" s="141"/>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="46" t="s">
@@ -5768,9 +5828,15 @@
         <v>3</v>
       </c>
       <c r="D39" s="89"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="85"/>
+      <c r="E39" s="86" t="s">
+        <v>650</v>
+      </c>
+      <c r="F39" s="86" t="s">
+        <v>651</v>
+      </c>
+      <c r="G39" s="85" t="s">
+        <v>652</v>
+      </c>
       <c r="H39" s="87"/>
     </row>
     <row r="40" spans="1:8">
@@ -5784,9 +5850,15 @@
         <v>3</v>
       </c>
       <c r="D40" s="79"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="65"/>
+      <c r="E40" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="G40" s="65" t="s">
+        <v>655</v>
+      </c>
       <c r="H40" s="31"/>
     </row>
     <row r="41" spans="1:8">
@@ -5800,9 +5872,15 @@
         <v>3</v>
       </c>
       <c r="D41" s="89"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="85"/>
+      <c r="E41" s="86" t="s">
+        <v>653</v>
+      </c>
+      <c r="F41" s="86" t="s">
+        <v>656</v>
+      </c>
+      <c r="G41" s="85" t="s">
+        <v>657</v>
+      </c>
       <c r="H41" s="87"/>
     </row>
     <row r="42" spans="1:8">
@@ -5816,9 +5894,15 @@
         <v>3</v>
       </c>
       <c r="D42" s="79"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="65"/>
+      <c r="E42" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>660</v>
+      </c>
       <c r="H42" s="31"/>
     </row>
     <row r="43" spans="1:8">
@@ -5832,9 +5916,15 @@
         <v>3</v>
       </c>
       <c r="D43" s="89"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="85"/>
+      <c r="E43" s="90" t="s">
+        <v>661</v>
+      </c>
+      <c r="F43" s="90" t="s">
+        <v>662</v>
+      </c>
+      <c r="G43" s="85" t="s">
+        <v>663</v>
+      </c>
       <c r="H43" s="87"/>
     </row>
     <row r="44" spans="1:8">
@@ -5848,9 +5938,15 @@
         <v>3</v>
       </c>
       <c r="D44" s="79"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="65"/>
+      <c r="E44" s="66" t="s">
+        <v>664</v>
+      </c>
+      <c r="F44" s="66" t="s">
+        <v>665</v>
+      </c>
+      <c r="G44" s="65" t="s">
+        <v>666</v>
+      </c>
       <c r="H44" s="31"/>
     </row>
     <row r="45" spans="1:8">
@@ -5864,9 +5960,15 @@
         <v>3</v>
       </c>
       <c r="D45" s="89"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="85"/>
+      <c r="E45" s="90" t="s">
+        <v>667</v>
+      </c>
+      <c r="F45" s="90" t="s">
+        <v>668</v>
+      </c>
+      <c r="G45" s="85" t="s">
+        <v>669</v>
+      </c>
       <c r="H45" s="87"/>
     </row>
     <row r="46" spans="1:8">
@@ -9144,34 +9246,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="117"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="121"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
@@ -9179,17 +9281,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="127"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="19" t="s">
@@ -9336,17 +9438,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="112"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
@@ -9361,15 +9463,15 @@
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="114"/>
-      <c r="G16" s="111" t="s">
+      <c r="F16" s="120"/>
+      <c r="G16" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="112"/>
-      <c r="I16" s="113"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="117"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
@@ -9378,11 +9480,11 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="106"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
       <c r="K17" t="s">
         <v>56</v>
       </c>
@@ -9394,11 +9496,11 @@
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="106"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7">
@@ -9407,11 +9509,11 @@
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="106"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7">
@@ -9420,11 +9522,11 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="106"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7">
@@ -9433,11 +9535,11 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="106"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7">
@@ -9446,11 +9548,11 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="106"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7">
@@ -9459,11 +9561,11 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="106"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7">
@@ -9472,11 +9574,11 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7">
@@ -9485,11 +9587,11 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="99"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="124"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="8">
@@ -9498,19 +9600,23 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -9525,15 +9631,11 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9562,50 +9664,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="117"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="120" t="s">
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="121"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="127"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="19" t="s">
@@ -9667,15 +9769,15 @@
       <c r="I6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="9">
@@ -9705,15 +9807,15 @@
       <c r="I7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="128" t="s">
+      <c r="K7" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="9">
@@ -9821,17 +9923,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="112"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="19" t="s">
@@ -9846,15 +9948,15 @@
       <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="133" t="s">
+      <c r="E16" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133" t="s">
+      <c r="F16" s="129"/>
+      <c r="G16" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="133"/>
-      <c r="I16" s="134"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
@@ -9869,15 +9971,15 @@
       <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="129" t="s">
+      <c r="E17" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="130"/>
-      <c r="G17" s="129" t="s">
+      <c r="F17" s="132"/>
+      <c r="G17" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="134"/>
     </row>
     <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="7">
@@ -9892,15 +9994,15 @@
       <c r="D18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="129" t="s">
+      <c r="E18" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="130"/>
-      <c r="G18" s="129" t="s">
+      <c r="F18" s="132"/>
+      <c r="G18" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
     </row>
     <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="7">
@@ -9915,15 +10017,15 @@
       <c r="D19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="129" t="s">
+      <c r="E19" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="130"/>
-      <c r="G19" s="129" t="s">
+      <c r="F19" s="132"/>
+      <c r="G19" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="134"/>
       <c r="K19" t="s">
         <v>56</v>
       </c>
@@ -9935,11 +10037,11 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="106"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7">
@@ -9948,11 +10050,11 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="106"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
       <c r="K21" t="s">
         <v>81</v>
       </c>
@@ -9964,11 +10066,11 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="106"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7">
@@ -9977,11 +10079,11 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="106"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7">
@@ -9990,11 +10092,11 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7">
@@ -10003,11 +10105,11 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="99"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="124"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="8">
@@ -10016,28 +10118,14 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -10054,6 +10142,20 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10081,11 +10183,11 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="21" t="s">
@@ -10168,10 +10270,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75">
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="136"/>
+      <c r="C2" s="137"/>
       <c r="O2" t="s">
         <v>283</v>
       </c>
@@ -10411,56 +10513,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="137" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="135"/>
+      <c r="C4" s="136"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="138" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="137"/>
+      <c r="C5" s="138"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="138" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="137"/>
+      <c r="C6" s="138"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="138" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="137"/>
+      <c r="C7" s="138"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="137"/>
+      <c r="C8" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10493,11 +10595,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
       <c r="J2" t="s">
         <v>283</v>
       </c>

--- a/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
+++ b/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49E07C6-EC1F-451E-AF44-47FD4DB71495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="15900" windowWidth="37125" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Target List" sheetId="1" r:id="rId1"/>
@@ -17,21 +18,11 @@
     <sheet name="Example_support" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="670">
   <si>
     <t>NAME</t>
   </si>
@@ -939,9 +930,6 @@
     <t>80th Air Division Headquarter</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>N34 36.000</t>
   </si>
   <si>
@@ -1137,18 +1125,6 @@
     <t>E036 42.400</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Power distribution</t>
   </si>
   <si>
@@ -1320,9 +1296,6 @@
     <t>1972ft</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Chemical Weapon research facility</t>
   </si>
   <si>
@@ -2001,12 +1974,6 @@
     <t>11nm NORTHWEST of Hama</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>N36 31.300</t>
   </si>
   <si>
@@ -2065,13 +2032,37 @@
   </si>
   <si>
     <t>1020ft</t>
+  </si>
+  <si>
+    <t>Possible staging-point or alternate for Enemy Air Assets</t>
+  </si>
+  <si>
+    <t>Hosts the 60th 601/602 SQNs (MiG29). Close to the FLOT</t>
+  </si>
+  <si>
+    <t>Hosts the70th 721/722 SQNs (MiG29) and 60th 622 SQN (MiG25)</t>
+  </si>
+  <si>
+    <t>Hosts the 70th 741 SQN (MiG21)</t>
+  </si>
+  <si>
+    <t>Hosts the 60th 611/612 SQN (MiG21). Close to the FLOT</t>
+  </si>
+  <si>
+    <t>Hosts the 60th 613 SQN (MiG21). Close to the FLOT</t>
+  </si>
+  <si>
+    <t>Hosts the 60th 603 SQN (MiG29) and 70th 763 SQN (SU24). Close to the FLOT</t>
+  </si>
+  <si>
+    <t>Hosts the70th 742 (MiG21) and 701/7022 SQNs (MiG23)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2718,7 +2709,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2923,9 +2914,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2987,6 +2975,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2996,6 +2987,63 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3035,61 +3083,19 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3098,21 +3104,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3131,9 +3122,18 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3169,7 +3169,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3214,7 +3214,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3264,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3309,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3359,7 +3359,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3404,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3454,7 +3454,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3507,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +3599,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3657,7 +3657,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3710,7 +3710,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,7 +3763,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3861,7 +3861,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3907,14 +3907,14 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3967,7 +3967,7 @@
         <xdr:cNvPr id="5" name="TekstSylinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4061,7 +4061,7 @@
         <xdr:cNvPr id="5" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4114,7 +4114,7 @@
         <xdr:cNvPr id="6" name="TekstSylinder 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4209,7 +4209,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4267,7 +4267,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000010C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4320,7 +4320,7 @@
         <xdr:cNvPr id="3074" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000020C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4373,7 +4373,7 @@
         <xdr:cNvPr id="3075" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000030C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000030C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4426,7 +4426,7 @@
         <xdr:cNvPr id="3076" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000040C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4479,7 +4479,7 @@
         <xdr:cNvPr id="3077" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000050C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000050C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4532,7 +4532,7 @@
         <xdr:cNvPr id="3078" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000060C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,7 +4585,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4624,7 +4624,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4666,7 +4666,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4698,9 +4698,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4732,6 +4750,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4907,15 +4943,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="48" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="48" customWidth="1"/>
@@ -4924,12 +4960,12 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="40" customWidth="1"/>
-    <col min="8" max="8" width="62.140625" customWidth="1"/>
+    <col min="8" max="8" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.9" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -4939,7 +4975,7 @@
       <c r="G1" s="95"/>
       <c r="H1" s="96"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>43</v>
       </c>
@@ -4949,9 +4985,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="41"/>
-      <c r="H2" s="91"/>
-    </row>
-    <row r="3" spans="1:8" ht="29.45" customHeight="1" thickBot="1">
+      <c r="H2" s="90"/>
+    </row>
+    <row r="3" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4970,158 +5006,170 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="81" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="71" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" s="142">
+        <v>2</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="C5" s="143">
+        <v>2</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" s="85" t="s">
         <v>552</v>
       </c>
-      <c r="C4" s="72" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>556</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86" t="s">
-        <v>557</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>558</v>
-      </c>
-      <c r="G5" s="85" t="s">
-        <v>556</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="84" t="s">
+        <v>550</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>559</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="65"/>
+        <v>553</v>
+      </c>
+      <c r="C6" s="144">
+        <v>5</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>104</v>
+      </c>
       <c r="E6" s="26" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="88" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="86" t="s">
-        <v>574</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
-        <v>575</v>
-      </c>
-      <c r="F7" s="86" t="s">
-        <v>576</v>
-      </c>
-      <c r="G7" s="85" t="s">
-        <v>577</v>
-      </c>
-      <c r="H7" s="87" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30">
+      <c r="B7" s="85" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="143">
+        <v>5</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>569</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>570</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>571</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>648</v>
-      </c>
-      <c r="D8" s="65"/>
+        <v>541</v>
+      </c>
+      <c r="C8" s="144">
+        <v>6</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="E8" s="26" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="88" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="86" t="s">
-        <v>542</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>648</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86" t="s">
-        <v>543</v>
-      </c>
-      <c r="F9" s="86" t="s">
-        <v>544</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>545</v>
-      </c>
-      <c r="H9" s="87" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B9" s="85" t="s">
+        <v>536</v>
+      </c>
+      <c r="C9" s="143">
+        <v>6</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>537</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>538</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>539</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>15</v>
       </c>
@@ -5131,45 +5179,49 @@
       <c r="C10" s="64">
         <v>9</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="E10" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="G10" s="65" t="s">
-        <v>348</v>
-      </c>
       <c r="H10" s="31" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="88" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="83">
         <v>9</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86" t="s">
-        <v>375</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="G11" s="85" t="s">
-        <v>390</v>
-      </c>
-      <c r="H11" s="87" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="D11" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="G11" s="84" t="s">
+        <v>385</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>17</v>
       </c>
@@ -5179,45 +5231,49 @@
       <c r="C12" s="64">
         <v>9</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="E12" s="26" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G12" s="65">
         <v>2484</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="88" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="83">
         <v>9</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="F13" s="86" t="s">
-        <v>359</v>
-      </c>
-      <c r="G13" s="85">
+      <c r="G13" s="84">
         <v>1654</v>
       </c>
-      <c r="H13" s="87" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="86" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>19</v>
       </c>
@@ -5227,45 +5283,49 @@
       <c r="C14" s="64">
         <v>9</v>
       </c>
-      <c r="D14" s="65"/>
+      <c r="D14" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="E14" s="26" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="88" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="83">
         <v>9</v>
       </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86" t="s">
-        <v>404</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="G15" s="85">
+      <c r="D15" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>400</v>
+      </c>
+      <c r="G15" s="84">
         <v>1152</v>
       </c>
-      <c r="H15" s="87" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="86" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>21</v>
       </c>
@@ -5275,45 +5335,49 @@
       <c r="C16" s="64">
         <v>9</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="E16" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="G16" s="65" t="s">
-        <v>351</v>
-      </c>
       <c r="H16" s="31" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="88" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="83">
         <v>9</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86" t="s">
-        <v>397</v>
-      </c>
-      <c r="F17" s="86" t="s">
-        <v>398</v>
-      </c>
-      <c r="G17" s="85">
+      <c r="D17" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>393</v>
+      </c>
+      <c r="G17" s="84">
         <v>2096</v>
       </c>
-      <c r="H17" s="87" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="86" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
         <v>23</v>
       </c>
@@ -5323,45 +5387,49 @@
       <c r="C18" s="64">
         <v>9</v>
       </c>
-      <c r="D18" s="65"/>
+      <c r="D18" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="E18" s="26" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="88" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="83">
         <v>9</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86" t="s">
+      <c r="D19" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="85" t="s">
         <v>331</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="G19" s="84" t="s">
         <v>332</v>
       </c>
-      <c r="G19" s="85" t="s">
-        <v>333</v>
-      </c>
-      <c r="H19" s="87" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="86" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>25</v>
       </c>
@@ -5371,45 +5439,49 @@
       <c r="C20" s="64">
         <v>9</v>
       </c>
-      <c r="D20" s="65"/>
+      <c r="D20" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="E20" s="26" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="50" customFormat="1">
-      <c r="A21" s="83" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="84">
+      <c r="C21" s="83">
         <v>9</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86" t="s">
+      <c r="D21" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" s="85" t="s">
         <v>352</v>
       </c>
-      <c r="F21" s="86" t="s">
+      <c r="G21" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="G21" s="85" t="s">
-        <v>354</v>
-      </c>
-      <c r="H21" s="87" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30">
+      <c r="H21" s="86" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
         <v>27</v>
       </c>
@@ -5419,45 +5491,49 @@
       <c r="C22" s="64">
         <v>9</v>
       </c>
-      <c r="D22" s="65"/>
+      <c r="D22" s="65" t="s">
+        <v>53</v>
+      </c>
       <c r="E22" s="26" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30">
-      <c r="A23" s="83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="83">
         <v>9</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86" t="s">
-        <v>533</v>
-      </c>
-      <c r="F23" s="86" t="s">
-        <v>534</v>
-      </c>
-      <c r="G23" s="85" t="s">
-        <v>535</v>
-      </c>
-      <c r="H23" s="87" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="D23" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>527</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>528</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>529</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
         <v>29</v>
       </c>
@@ -5467,45 +5543,49 @@
       <c r="C24" s="64">
         <v>9</v>
       </c>
-      <c r="D24" s="65"/>
+      <c r="D24" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="E24" s="26" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G24" s="65" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30">
-      <c r="A25" s="83" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86" t="s">
-        <v>369</v>
-      </c>
-      <c r="F25" s="86" t="s">
-        <v>370</v>
-      </c>
-      <c r="G25" s="85" t="s">
-        <v>371</v>
-      </c>
-      <c r="H25" s="87" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30">
+      <c r="D25" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>364</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="G25" s="84" t="s">
+        <v>366</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
         <v>31</v>
       </c>
@@ -5515,45 +5595,49 @@
       <c r="C26" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="E26" s="26" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G26" s="65">
         <v>1352</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30">
-      <c r="A27" s="88" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="83">
         <v>9</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86" t="s">
-        <v>501</v>
-      </c>
-      <c r="F27" s="86" t="s">
-        <v>502</v>
-      </c>
-      <c r="G27" s="85" t="s">
-        <v>503</v>
-      </c>
-      <c r="H27" s="87" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="D27" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>495</v>
+      </c>
+      <c r="F27" s="85" t="s">
+        <v>496</v>
+      </c>
+      <c r="G27" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
         <v>33</v>
       </c>
@@ -5563,45 +5647,49 @@
       <c r="C28" s="64">
         <v>9</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="E28" s="26" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="88" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="83">
         <v>9</v>
       </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86" t="s">
-        <v>497</v>
-      </c>
-      <c r="F29" s="86" t="s">
-        <v>498</v>
-      </c>
-      <c r="G29" s="85" t="s">
-        <v>499</v>
-      </c>
-      <c r="H29" s="87" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="D29" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="85" t="s">
+        <v>491</v>
+      </c>
+      <c r="F29" s="85" t="s">
+        <v>492</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>493</v>
+      </c>
+      <c r="H29" s="86" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
         <v>35</v>
       </c>
@@ -5611,45 +5699,49 @@
       <c r="C30" s="64">
         <v>9</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="E30" s="26" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G30" s="65">
         <v>2644</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="88" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="83">
         <v>9</v>
       </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86" t="s">
+      <c r="D31" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="85" t="s">
+        <v>517</v>
+      </c>
+      <c r="F31" s="85" t="s">
+        <v>518</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>519</v>
+      </c>
+      <c r="H31" s="86" t="s">
         <v>523</v>
       </c>
-      <c r="F31" s="86" t="s">
-        <v>524</v>
-      </c>
-      <c r="G31" s="85" t="s">
-        <v>525</v>
-      </c>
-      <c r="H31" s="87" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="s">
         <v>111</v>
       </c>
@@ -5659,45 +5751,49 @@
       <c r="C32" s="64">
         <v>9</v>
       </c>
-      <c r="D32" s="79"/>
+      <c r="D32" s="78" t="s">
+        <v>107</v>
+      </c>
       <c r="E32" s="26" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="88" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="83">
         <v>9</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="86" t="s">
-        <v>493</v>
-      </c>
-      <c r="F33" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="G33" s="85" t="s">
-        <v>495</v>
-      </c>
-      <c r="H33" s="87" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30">
+      <c r="D33" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="85" t="s">
+        <v>487</v>
+      </c>
+      <c r="F33" s="85" t="s">
+        <v>488</v>
+      </c>
+      <c r="G33" s="84" t="s">
+        <v>489</v>
+      </c>
+      <c r="H33" s="86" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
         <v>113</v>
       </c>
@@ -5707,93 +5803,101 @@
       <c r="C34" s="64">
         <v>9</v>
       </c>
-      <c r="D34" s="79"/>
+      <c r="D34" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E34" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>501</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="83">
+        <v>9</v>
+      </c>
+      <c r="D35" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="F35" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="H35" s="86" t="s">
         <v>505</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="G34" s="65" t="s">
-        <v>507</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30">
-      <c r="A35" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="84">
-        <v>9</v>
-      </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="86" t="s">
-        <v>509</v>
-      </c>
-      <c r="F35" s="86" t="s">
-        <v>510</v>
-      </c>
-      <c r="G35" s="85" t="s">
-        <v>503</v>
-      </c>
-      <c r="H35" s="87" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45">
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
         <v>115</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C36" s="64">
         <v>9</v>
       </c>
-      <c r="D36" s="79"/>
+      <c r="D36" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E36" s="26" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G36" s="65" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="45">
-      <c r="A37" s="88" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="86" t="s">
-        <v>482</v>
-      </c>
-      <c r="F37" s="86" t="s">
-        <v>483</v>
-      </c>
-      <c r="G37" s="85" t="s">
-        <v>484</v>
-      </c>
-      <c r="H37" s="87" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="45">
+      <c r="D37" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="85" t="s">
+        <v>476</v>
+      </c>
+      <c r="F37" s="85" t="s">
+        <v>477</v>
+      </c>
+      <c r="G37" s="84" t="s">
+        <v>478</v>
+      </c>
+      <c r="H37" s="86" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
         <v>117</v>
       </c>
@@ -5803,43 +5907,49 @@
       <c r="C38" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="D38" s="79"/>
+      <c r="D38" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="E38" s="26" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G38" s="65" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="88" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="84">
+      <c r="C39" s="83">
         <v>3</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="86" t="s">
-        <v>650</v>
-      </c>
-      <c r="F39" s="86" t="s">
-        <v>651</v>
-      </c>
-      <c r="G39" s="85" t="s">
-        <v>652</v>
-      </c>
-      <c r="H39" s="87"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="D39" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="85" t="s">
+        <v>642</v>
+      </c>
+      <c r="F39" s="85" t="s">
+        <v>643</v>
+      </c>
+      <c r="G39" s="84" t="s">
+        <v>644</v>
+      </c>
+      <c r="H39" s="86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="63" t="s">
         <v>119</v>
       </c>
@@ -5849,41 +5959,49 @@
       <c r="C40" s="64">
         <v>3</v>
       </c>
-      <c r="D40" s="79"/>
+      <c r="D40" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E40" s="26" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G40" s="65" t="s">
-        <v>655</v>
-      </c>
-      <c r="H40" s="31"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="88" t="s">
+        <v>647</v>
+      </c>
+      <c r="H40" s="86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C41" s="83">
         <v>3</v>
       </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="86" t="s">
-        <v>653</v>
-      </c>
-      <c r="F41" s="86" t="s">
-        <v>656</v>
-      </c>
-      <c r="G41" s="85" t="s">
-        <v>657</v>
-      </c>
-      <c r="H41" s="87"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="D41" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="85" t="s">
+        <v>645</v>
+      </c>
+      <c r="F41" s="85" t="s">
+        <v>648</v>
+      </c>
+      <c r="G41" s="84" t="s">
+        <v>649</v>
+      </c>
+      <c r="H41" s="86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="s">
         <v>121</v>
       </c>
@@ -5893,41 +6011,47 @@
       <c r="C42" s="64">
         <v>3</v>
       </c>
-      <c r="D42" s="79"/>
+      <c r="D42" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="E42" s="26" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>660</v>
-      </c>
-      <c r="H42" s="31"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="88" t="s">
+        <v>652</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="84">
+      <c r="C43" s="83">
         <v>3</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="90" t="s">
-        <v>661</v>
-      </c>
-      <c r="F43" s="90" t="s">
-        <v>662</v>
-      </c>
-      <c r="G43" s="85" t="s">
-        <v>663</v>
-      </c>
-      <c r="H43" s="87"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="D43" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="89" t="s">
+        <v>653</v>
+      </c>
+      <c r="F43" s="89" t="s">
+        <v>654</v>
+      </c>
+      <c r="G43" s="84" t="s">
+        <v>655</v>
+      </c>
+      <c r="H43" s="86"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
         <v>123</v>
       </c>
@@ -5937,41 +6061,49 @@
       <c r="C44" s="64">
         <v>3</v>
       </c>
-      <c r="D44" s="79"/>
+      <c r="D44" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="E44" s="66" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="F44" s="66" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="G44" s="65" t="s">
-        <v>666</v>
-      </c>
-      <c r="H44" s="31"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="88" t="s">
+        <v>658</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="84">
+      <c r="C45" s="83">
         <v>3</v>
       </c>
-      <c r="D45" s="89"/>
-      <c r="E45" s="90" t="s">
-        <v>667</v>
-      </c>
-      <c r="F45" s="90" t="s">
-        <v>668</v>
-      </c>
-      <c r="G45" s="85" t="s">
-        <v>669</v>
-      </c>
-      <c r="H45" s="87"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="D45" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="89" t="s">
+        <v>659</v>
+      </c>
+      <c r="F45" s="89" t="s">
+        <v>660</v>
+      </c>
+      <c r="G45" s="84" t="s">
+        <v>661</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="s">
         <v>125</v>
       </c>
@@ -5981,29 +6113,37 @@
       <c r="C46" s="64">
         <v>3</v>
       </c>
-      <c r="D46" s="79"/>
+      <c r="D46" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
       <c r="G46" s="65"/>
-      <c r="H46" s="31"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="88" t="s">
+      <c r="H46" s="86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="84">
+      <c r="C47" s="83">
         <v>3</v>
       </c>
-      <c r="D47" s="89"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="87"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="D47" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="31" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="s">
         <v>127</v>
       </c>
@@ -6013,29 +6153,37 @@
       <c r="C48" s="64">
         <v>3</v>
       </c>
-      <c r="D48" s="79"/>
+      <c r="D48" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="65"/>
-      <c r="H48" s="31"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="88" t="s">
+      <c r="H48" s="86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="84">
+      <c r="C49" s="83">
         <v>3</v>
       </c>
-      <c r="D49" s="89"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="87"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="D49" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="31" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="63" t="s">
         <v>129</v>
       </c>
@@ -6045,29 +6193,37 @@
       <c r="C50" s="64">
         <v>3</v>
       </c>
-      <c r="D50" s="79"/>
+      <c r="D50" s="78" t="s">
+        <v>52</v>
+      </c>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="65"/>
-      <c r="H50" s="31"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="88" t="s">
+      <c r="H50" s="31" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="84">
+      <c r="C51" s="83">
         <v>3</v>
       </c>
-      <c r="D51" s="89"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="87"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="D51" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
         <v>131</v>
       </c>
@@ -6077,7 +6233,9 @@
       <c r="C52" s="64">
         <v>3</v>
       </c>
-      <c r="D52" s="79"/>
+      <c r="D52" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="65"/>
@@ -6085,23 +6243,27 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="88" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="84">
+      <c r="C53" s="83">
         <v>3</v>
       </c>
-      <c r="D53" s="89"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="87"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="D53" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="63" t="s">
         <v>133</v>
       </c>
@@ -6111,29 +6273,37 @@
       <c r="C54" s="64">
         <v>3</v>
       </c>
-      <c r="D54" s="79"/>
+      <c r="D54" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="65"/>
-      <c r="H54" s="31"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="88" t="s">
+      <c r="H54" s="86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="85" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="84">
+      <c r="C55" s="83">
         <v>3</v>
       </c>
-      <c r="D55" s="89"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="87"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="D55" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="63" t="s">
         <v>135</v>
       </c>
@@ -6143,29 +6313,37 @@
       <c r="C56" s="64">
         <v>3</v>
       </c>
-      <c r="D56" s="79"/>
+      <c r="D56" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="65"/>
-      <c r="H56" s="31"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="88" t="s">
+      <c r="H56" s="31" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="84">
+      <c r="C57" s="83">
         <v>3</v>
       </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="87"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="D57" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="31" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="63" t="s">
         <v>137</v>
       </c>
@@ -6175,129 +6353,141 @@
       <c r="C58" s="64">
         <v>6</v>
       </c>
-      <c r="D58" s="79"/>
+      <c r="D58" s="78" t="s">
+        <v>52</v>
+      </c>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="65"/>
       <c r="H58" s="31" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="88" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="84">
+      <c r="C59" s="83">
         <v>6</v>
       </c>
-      <c r="D59" s="89"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="87" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="78" t="s">
+      <c r="D59" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="86" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="77" t="s">
         <v>139</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
       </c>
-      <c r="D60" s="79"/>
+      <c r="D60" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="E60" s="66" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F60" s="66" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G60" s="65" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="24">
-      <c r="A61" s="88" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A61" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="86" t="s">
-        <v>422</v>
-      </c>
-      <c r="C61" s="84">
+      <c r="B61" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="C61" s="83">
         <v>1</v>
       </c>
-      <c r="D61" s="89"/>
-      <c r="E61" s="86" t="s">
-        <v>459</v>
-      </c>
-      <c r="F61" s="86" t="s">
-        <v>460</v>
-      </c>
-      <c r="G61" s="85" t="s">
-        <v>461</v>
-      </c>
-      <c r="H61" s="87" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="24">
+      <c r="D61" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="85" t="s">
+        <v>453</v>
+      </c>
+      <c r="F61" s="85" t="s">
+        <v>454</v>
+      </c>
+      <c r="G61" s="84" t="s">
+        <v>455</v>
+      </c>
+      <c r="H61" s="86" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A62" s="63" t="s">
         <v>141</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="C62" s="80">
+        <v>416</v>
+      </c>
+      <c r="C62" s="79">
         <v>1</v>
       </c>
-      <c r="D62" s="81"/>
+      <c r="D62" s="80" t="s">
+        <v>52</v>
+      </c>
       <c r="E62" s="26" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G62" s="65" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="24">
-      <c r="A63" s="88" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A63" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="86" t="s">
-        <v>408</v>
-      </c>
-      <c r="C63" s="84">
+      <c r="B63" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C63" s="83">
         <v>1</v>
       </c>
-      <c r="D63" s="89"/>
-      <c r="E63" s="86" t="s">
-        <v>409</v>
-      </c>
-      <c r="F63" s="86" t="s">
-        <v>410</v>
-      </c>
-      <c r="G63" s="85" t="s">
-        <v>411</v>
-      </c>
-      <c r="H63" s="87" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="D63" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="85" t="s">
+        <v>404</v>
+      </c>
+      <c r="F63" s="85" t="s">
+        <v>405</v>
+      </c>
+      <c r="G63" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="H63" s="86" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="63" t="s">
         <v>143</v>
       </c>
@@ -6307,37 +6497,41 @@
       <c r="C64" s="64">
         <v>1</v>
       </c>
-      <c r="D64" s="79"/>
+      <c r="D64" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
       <c r="G64" s="65"/>
       <c r="H64" s="31"/>
     </row>
-    <row r="65" spans="1:8" ht="45">
-      <c r="A65" s="88" t="s">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="86" t="s">
+      <c r="B65" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="84">
+      <c r="C65" s="83">
         <v>4</v>
       </c>
-      <c r="D65" s="89"/>
-      <c r="E65" s="86" t="s">
+      <c r="D65" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="85" t="s">
+        <v>294</v>
+      </c>
+      <c r="F65" s="85" t="s">
         <v>295</v>
       </c>
-      <c r="F65" s="86" t="s">
+      <c r="G65" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="G65" s="85" t="s">
-        <v>297</v>
-      </c>
-      <c r="H65" s="87" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30">
+      <c r="H65" s="86" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="63" t="s">
         <v>145</v>
       </c>
@@ -6347,45 +6541,49 @@
       <c r="C66" s="64">
         <v>9</v>
       </c>
-      <c r="D66" s="79"/>
+      <c r="D66" s="78" t="s">
+        <v>107</v>
+      </c>
       <c r="E66" s="26" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G66" s="65" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H66" s="31" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="83">
+        <v>5</v>
+      </c>
+      <c r="D67" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="85" t="s">
+        <v>462</v>
+      </c>
+      <c r="F67" s="85" t="s">
+        <v>463</v>
+      </c>
+      <c r="G67" s="84" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="30">
-      <c r="A67" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="86" t="s">
-        <v>209</v>
-      </c>
-      <c r="C67" s="84">
-        <v>5</v>
-      </c>
-      <c r="D67" s="89"/>
-      <c r="E67" s="86" t="s">
-        <v>468</v>
-      </c>
-      <c r="F67" s="86" t="s">
-        <v>469</v>
-      </c>
-      <c r="G67" s="85" t="s">
-        <v>470</v>
-      </c>
-      <c r="H67" s="87" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="H67" s="86" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="63" t="s">
         <v>147</v>
       </c>
@@ -6395,45 +6593,49 @@
       <c r="C68" s="64">
         <v>5</v>
       </c>
-      <c r="D68" s="79"/>
+      <c r="D68" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E68" s="26" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G68" s="65" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H68" s="31" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30">
-      <c r="A69" s="88" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="86" t="s">
+      <c r="B69" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="C69" s="84">
+      <c r="C69" s="83">
         <v>4</v>
       </c>
-      <c r="D69" s="89"/>
-      <c r="E69" s="86" t="s">
-        <v>423</v>
-      </c>
-      <c r="F69" s="86" t="s">
-        <v>424</v>
-      </c>
-      <c r="G69" s="85" t="s">
-        <v>425</v>
-      </c>
-      <c r="H69" s="87" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30">
+      <c r="D69" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="F69" s="85" t="s">
+        <v>418</v>
+      </c>
+      <c r="G69" s="84" t="s">
+        <v>419</v>
+      </c>
+      <c r="H69" s="86" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="63" t="s">
         <v>149</v>
       </c>
@@ -6443,45 +6645,49 @@
       <c r="C70" s="64">
         <v>4</v>
       </c>
-      <c r="D70" s="79"/>
+      <c r="D70" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="E70" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="G70" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="83">
+        <v>4</v>
+      </c>
+      <c r="D71" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="85" t="s">
         <v>426</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F71" s="85" t="s">
         <v>427</v>
       </c>
-      <c r="G70" s="65" t="s">
+      <c r="G71" s="84" t="s">
         <v>428</v>
       </c>
-      <c r="H70" s="31" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" s="84">
-        <v>4</v>
-      </c>
-      <c r="D71" s="89"/>
-      <c r="E71" s="86" t="s">
-        <v>432</v>
-      </c>
-      <c r="F71" s="86" t="s">
-        <v>433</v>
-      </c>
-      <c r="G71" s="85" t="s">
-        <v>434</v>
-      </c>
-      <c r="H71" s="87" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30">
+      <c r="H71" s="86" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="63" t="s">
         <v>151</v>
       </c>
@@ -6491,983 +6697,1053 @@
       <c r="C72" s="64">
         <v>4</v>
       </c>
-      <c r="D72" s="79"/>
+      <c r="D72" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="E72" s="26" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G72" s="65" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30">
-      <c r="A73" s="88" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="86" t="s">
+      <c r="B73" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="C73" s="84">
+      <c r="C73" s="83">
         <v>12</v>
       </c>
-      <c r="D73" s="89"/>
-      <c r="E73" s="86" t="s">
-        <v>588</v>
-      </c>
-      <c r="F73" s="86" t="s">
-        <v>589</v>
-      </c>
-      <c r="G73" s="85" t="s">
-        <v>441</v>
-      </c>
-      <c r="H73" s="87" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30">
+      <c r="D73" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="85" t="s">
+        <v>582</v>
+      </c>
+      <c r="F73" s="85" t="s">
+        <v>583</v>
+      </c>
+      <c r="G73" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="H73" s="86" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="63" t="s">
         <v>153</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="C74" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" s="79"/>
+        <v>579</v>
+      </c>
+      <c r="C74" s="144">
+        <v>2</v>
+      </c>
+      <c r="D74" s="78" t="s">
+        <v>52</v>
+      </c>
       <c r="E74" s="26" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G74" s="65" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H74" s="31" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30">
-      <c r="A75" s="88" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="86" t="s">
+      <c r="B75" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="C75" s="84" t="s">
-        <v>294</v>
-      </c>
-      <c r="D75" s="89"/>
-      <c r="E75" s="90" t="s">
-        <v>471</v>
-      </c>
-      <c r="F75" s="90" t="s">
-        <v>472</v>
-      </c>
-      <c r="G75" s="85" t="s">
-        <v>473</v>
-      </c>
-      <c r="H75" s="87" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30">
+      <c r="C75" s="143">
+        <v>2</v>
+      </c>
+      <c r="D75" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="89" t="s">
+        <v>465</v>
+      </c>
+      <c r="F75" s="89" t="s">
+        <v>466</v>
+      </c>
+      <c r="G75" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="H75" s="86" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="63" t="s">
         <v>155</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="D76" s="79"/>
+      <c r="C76" s="144">
+        <v>2</v>
+      </c>
+      <c r="D76" s="78" t="s">
+        <v>52</v>
+      </c>
       <c r="E76" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="G76" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="85" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" s="143">
+        <v>2</v>
+      </c>
+      <c r="D77" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="85" t="s">
+        <v>473</v>
+      </c>
+      <c r="F77" s="85" t="s">
         <v>474</v>
       </c>
-      <c r="F76" s="26" t="s">
+      <c r="G77" s="84" t="s">
         <v>475</v>
       </c>
-      <c r="G76" s="65" t="s">
-        <v>476</v>
-      </c>
-      <c r="H76" s="31" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30">
-      <c r="A77" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" s="86" t="s">
-        <v>293</v>
-      </c>
-      <c r="C77" s="84" t="s">
-        <v>294</v>
-      </c>
-      <c r="D77" s="89"/>
-      <c r="E77" s="86" t="s">
-        <v>479</v>
-      </c>
-      <c r="F77" s="86" t="s">
-        <v>480</v>
-      </c>
-      <c r="G77" s="85" t="s">
-        <v>481</v>
-      </c>
-      <c r="H77" s="87" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="H77" s="86" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="63" t="s">
         <v>157</v>
       </c>
       <c r="B78" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" s="144">
+        <v>5</v>
+      </c>
+      <c r="D78" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="C78" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D78" s="79"/>
-      <c r="E78" s="26" t="s">
+      <c r="F78" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="F78" s="26" t="s">
+      <c r="G78" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="G78" s="65" t="s">
+      <c r="H78" s="31" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="H78" s="31" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="30">
-      <c r="A79" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="B79" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="C79" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="D79" s="89"/>
-      <c r="E79" s="86" t="s">
+      <c r="C79" s="143">
+        <v>5</v>
+      </c>
+      <c r="D79" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="85" t="s">
+        <v>317</v>
+      </c>
+      <c r="F79" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="F79" s="86" t="s">
+      <c r="G79" s="84" t="s">
         <v>319</v>
       </c>
-      <c r="G79" s="85" t="s">
-        <v>320</v>
-      </c>
-      <c r="H79" s="87" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="H79" s="86" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="63" t="s">
         <v>159</v>
       </c>
       <c r="B80" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="144">
+        <v>5</v>
+      </c>
+      <c r="D80" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="G80" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="C80" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D80" s="79"/>
-      <c r="E80" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="F80" s="26" t="s">
+      <c r="C81" s="143">
+        <v>5</v>
+      </c>
+      <c r="D81" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="85" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81" s="85" t="s">
+        <v>309</v>
+      </c>
+      <c r="G81" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="G80" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="H80" s="31" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="C81" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="D81" s="89"/>
-      <c r="E81" s="86" t="s">
-        <v>309</v>
-      </c>
-      <c r="F81" s="86" t="s">
-        <v>310</v>
-      </c>
-      <c r="G81" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="H81" s="87" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="H81" s="86" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="63" t="s">
         <v>161</v>
       </c>
       <c r="B82" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C82" s="144">
+        <v>5</v>
+      </c>
+      <c r="D82" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="G82" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="C82" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D82" s="79"/>
-      <c r="E82" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="F82" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="G82" s="65" t="s">
-        <v>317</v>
-      </c>
-      <c r="H82" s="31" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" s="86" t="s">
+      <c r="C83" s="143">
+        <v>9</v>
+      </c>
+      <c r="D83" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="85" t="s">
         <v>306</v>
       </c>
-      <c r="C83" s="84" t="s">
-        <v>361</v>
-      </c>
-      <c r="D83" s="89"/>
-      <c r="E83" s="86" t="s">
+      <c r="F83" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="F83" s="86" t="s">
-        <v>308</v>
-      </c>
-      <c r="G83" s="85" t="s">
-        <v>312</v>
-      </c>
-      <c r="H83" s="87" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="G83" s="84" t="s">
+        <v>311</v>
+      </c>
+      <c r="H83" s="86" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="63" t="s">
         <v>163</v>
       </c>
       <c r="B84" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C84" s="144">
+        <v>5</v>
+      </c>
+      <c r="D84" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="C84" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D84" s="79"/>
-      <c r="E84" s="26" t="s">
+      <c r="F84" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="F84" s="26" t="s">
+      <c r="G84" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="G84" s="65" t="s">
+      <c r="H84" s="31" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="85" t="s">
+        <v>334</v>
+      </c>
+      <c r="C85" s="143">
+        <v>8</v>
+      </c>
+      <c r="D85" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="H84" s="31" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="B85" s="86" t="s">
-        <v>335</v>
-      </c>
-      <c r="C85" s="84" t="s">
-        <v>363</v>
-      </c>
-      <c r="D85" s="89"/>
-      <c r="E85" s="86" t="s">
+      <c r="F85" s="85" t="s">
         <v>325</v>
       </c>
-      <c r="F85" s="86" t="s">
+      <c r="G85" s="84" t="s">
         <v>326</v>
       </c>
-      <c r="G85" s="85" t="s">
-        <v>327</v>
-      </c>
-      <c r="H85" s="87" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="H85" s="86" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="63" t="s">
         <v>165</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="C86" s="64" t="s">
-        <v>363</v>
-      </c>
-      <c r="D86" s="79"/>
+        <v>359</v>
+      </c>
+      <c r="C86" s="144">
+        <v>8</v>
+      </c>
+      <c r="D86" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E86" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="F86" s="26" t="s">
+      <c r="G86" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="G86" s="65" t="s">
-        <v>330</v>
-      </c>
       <c r="H86" s="31" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="88" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="86" t="s">
-        <v>334</v>
-      </c>
-      <c r="C87" s="84" t="s">
-        <v>363</v>
-      </c>
-      <c r="D87" s="89"/>
-      <c r="E87" s="86" t="s">
+      <c r="B87" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="143">
+        <v>8</v>
+      </c>
+      <c r="D87" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="F87" s="85" t="s">
         <v>337</v>
       </c>
-      <c r="F87" s="86" t="s">
+      <c r="G87" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="G87" s="85" t="s">
+      <c r="H87" s="86" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C88" s="144">
+        <v>7</v>
+      </c>
+      <c r="D88" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="H87" s="87" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="C88" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="D88" s="79"/>
-      <c r="E88" s="26" t="s">
+      <c r="F88" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="F88" s="26" t="s">
+      <c r="G88" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="G88" s="65" t="s">
+      <c r="H88" s="31" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A89" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="H88" s="31" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="24">
-      <c r="A89" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="B89" s="86" t="s">
+      <c r="C89" s="143">
+        <v>2</v>
+      </c>
+      <c r="D89" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="85" t="s">
         <v>343</v>
       </c>
-      <c r="C89" s="84" t="s">
-        <v>294</v>
-      </c>
-      <c r="D89" s="89"/>
-      <c r="E89" s="86" t="s">
+      <c r="F89" s="85" t="s">
+        <v>446</v>
+      </c>
+      <c r="G89" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="F89" s="86" t="s">
-        <v>452</v>
-      </c>
-      <c r="G89" s="85" t="s">
-        <v>345</v>
-      </c>
-      <c r="H89" s="87" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="H89" s="86" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="63" t="s">
         <v>169</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="C90" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="144">
+        <v>7</v>
+      </c>
+      <c r="D90" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G90" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="H90" s="31" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="C91" s="143">
+        <v>5</v>
+      </c>
+      <c r="D91" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="85" t="s">
+        <v>361</v>
+      </c>
+      <c r="F91" s="85" t="s">
         <v>362</v>
       </c>
-      <c r="D90" s="79"/>
-      <c r="E90" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="F90" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="G90" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="H90" s="31" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="30">
-      <c r="A91" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="B91" s="86" t="s">
-        <v>365</v>
-      </c>
-      <c r="C91" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="D91" s="89"/>
-      <c r="E91" s="86" t="s">
-        <v>366</v>
-      </c>
-      <c r="F91" s="86" t="s">
-        <v>367</v>
-      </c>
-      <c r="G91" s="85" t="s">
-        <v>368</v>
-      </c>
-      <c r="H91" s="87" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="30">
+      <c r="G91" s="84" t="s">
+        <v>363</v>
+      </c>
+      <c r="H91" s="86" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="C92" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="D92" s="79"/>
+        <v>335</v>
+      </c>
+      <c r="C92" s="144">
+        <v>7</v>
+      </c>
+      <c r="D92" s="78" t="s">
+        <v>52</v>
+      </c>
       <c r="E92" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="G92" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="C93" s="143">
+        <v>8</v>
+      </c>
+      <c r="D93" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E93" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="F93" s="85" t="s">
         <v>380</v>
       </c>
-      <c r="F92" s="26" t="s">
+      <c r="G93" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G92" s="65" t="s">
-        <v>382</v>
-      </c>
-      <c r="H92" s="31" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B93" s="86" t="s">
-        <v>383</v>
-      </c>
-      <c r="C93" s="84" t="s">
-        <v>363</v>
-      </c>
-      <c r="D93" s="89"/>
-      <c r="E93" s="86" t="s">
-        <v>384</v>
-      </c>
-      <c r="F93" s="86" t="s">
-        <v>385</v>
-      </c>
-      <c r="G93" s="85" t="s">
-        <v>386</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="30">
+      <c r="H93" s="86" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="63" t="s">
         <v>173</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C94" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="D94" s="79"/>
+      <c r="C94" s="144">
+        <v>5</v>
+      </c>
+      <c r="D94" s="78" t="s">
+        <v>52</v>
+      </c>
       <c r="E94" s="26" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G94" s="65" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H94" s="31" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="30">
-      <c r="A95" s="88" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="B95" s="86" t="s">
-        <v>406</v>
-      </c>
-      <c r="C95" s="84" t="s">
-        <v>363</v>
-      </c>
-      <c r="D95" s="89"/>
-      <c r="E95" s="86" t="s">
-        <v>404</v>
-      </c>
-      <c r="F95" s="86" t="s">
-        <v>407</v>
-      </c>
-      <c r="G95" s="85">
+      <c r="B95" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="C95" s="143">
+        <v>8</v>
+      </c>
+      <c r="D95" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="F95" s="85" t="s">
+        <v>402</v>
+      </c>
+      <c r="G95" s="84">
         <v>1024</v>
       </c>
-      <c r="H95" s="87" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="30">
+      <c r="H95" s="86" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="63" t="s">
         <v>175</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="C96" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="D96" s="79"/>
+        <v>409</v>
+      </c>
+      <c r="C96" s="144">
+        <v>10</v>
+      </c>
+      <c r="D96" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E96" s="26" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G96" s="65" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H96" s="31" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="30">
-      <c r="A97" s="88" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B97" s="86" t="s">
-        <v>438</v>
-      </c>
-      <c r="C97" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="D97" s="89"/>
-      <c r="E97" s="86" t="s">
-        <v>439</v>
-      </c>
-      <c r="F97" s="86" t="s">
-        <v>440</v>
-      </c>
-      <c r="G97" s="85" t="s">
-        <v>441</v>
-      </c>
-      <c r="H97" s="87" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="B97" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="C97" s="143">
+        <v>5</v>
+      </c>
+      <c r="D97" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" s="85" t="s">
+        <v>433</v>
+      </c>
+      <c r="F97" s="85" t="s">
+        <v>434</v>
+      </c>
+      <c r="G97" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="H97" s="86" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="63" t="s">
         <v>177</v>
       </c>
       <c r="B98" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C98" s="144">
+        <v>11</v>
+      </c>
+      <c r="D98" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="G98" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="H98" s="31" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="85" t="s">
         <v>442</v>
       </c>
-      <c r="C98" s="64" t="s">
-        <v>649</v>
-      </c>
-      <c r="D98" s="79"/>
-      <c r="E98" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="F98" s="26" t="s">
-        <v>587</v>
-      </c>
-      <c r="G98" s="65" t="s">
+      <c r="C99" s="143">
+        <v>11</v>
+      </c>
+      <c r="D99" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" s="85" t="s">
+        <v>439</v>
+      </c>
+      <c r="F99" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="G99" s="84" t="s">
+        <v>441</v>
+      </c>
+      <c r="H99" s="86" t="s">
         <v>437</v>
       </c>
-      <c r="H98" s="31" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="B99" s="86" t="s">
-        <v>448</v>
-      </c>
-      <c r="C99" s="84" t="s">
-        <v>649</v>
-      </c>
-      <c r="D99" s="89"/>
-      <c r="E99" s="86" t="s">
-        <v>445</v>
-      </c>
-      <c r="F99" s="86" t="s">
-        <v>446</v>
-      </c>
-      <c r="G99" s="85" t="s">
-        <v>447</v>
-      </c>
-      <c r="H99" s="87" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="63" t="s">
         <v>179</v>
       </c>
       <c r="B100" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="C100" s="144">
+        <v>11</v>
+      </c>
+      <c r="D100" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>444</v>
       </c>
-      <c r="C100" s="64" t="s">
-        <v>649</v>
-      </c>
-      <c r="D100" s="79"/>
-      <c r="E100" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>450</v>
-      </c>
       <c r="G100" s="65" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H100" s="31" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="30">
-      <c r="A101" s="88" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="B101" s="86" t="s">
-        <v>306</v>
-      </c>
-      <c r="C101" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="D101" s="89"/>
-      <c r="E101" s="86" t="s">
-        <v>490</v>
-      </c>
-      <c r="F101" s="86" t="s">
-        <v>491</v>
-      </c>
-      <c r="G101" s="85" t="s">
-        <v>492</v>
-      </c>
-      <c r="H101" s="87" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="B101" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="C101" s="143">
+        <v>5</v>
+      </c>
+      <c r="D101" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="85" t="s">
+        <v>484</v>
+      </c>
+      <c r="F101" s="85" t="s">
+        <v>485</v>
+      </c>
+      <c r="G101" s="84" t="s">
+        <v>486</v>
+      </c>
+      <c r="H101" s="86" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="63" t="s">
         <v>181</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="C102" s="64" t="s">
-        <v>363</v>
-      </c>
-      <c r="D102" s="79"/>
+        <v>401</v>
+      </c>
+      <c r="C102" s="144">
+        <v>8</v>
+      </c>
+      <c r="D102" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E102" s="66" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F102" s="66" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G102" s="65" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H102" s="31" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="88" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="B103" s="86" t="s">
-        <v>537</v>
-      </c>
-      <c r="C103" s="84" t="s">
-        <v>648</v>
-      </c>
-      <c r="D103" s="89"/>
-      <c r="E103" s="90" t="s">
-        <v>538</v>
-      </c>
-      <c r="F103" s="90" t="s">
-        <v>539</v>
-      </c>
-      <c r="G103" s="85" t="s">
-        <v>540</v>
-      </c>
-      <c r="H103" s="87" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="30">
+      <c r="B103" s="85" t="s">
+        <v>531</v>
+      </c>
+      <c r="C103" s="143">
+        <v>6</v>
+      </c>
+      <c r="D103" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E103" s="89" t="s">
+        <v>532</v>
+      </c>
+      <c r="F103" s="89" t="s">
+        <v>533</v>
+      </c>
+      <c r="G103" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="H103" s="86" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="C104" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D104" s="79"/>
+        <v>563</v>
+      </c>
+      <c r="C104" s="144">
+        <v>5</v>
+      </c>
+      <c r="D104" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="E104" s="66" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F104" s="66" t="s">
+        <v>565</v>
+      </c>
+      <c r="G104" s="65" t="s">
+        <v>566</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="87" t="s">
+        <v>557</v>
+      </c>
+      <c r="B105" s="85" t="s">
+        <v>573</v>
+      </c>
+      <c r="C105" s="143">
+        <v>5</v>
+      </c>
+      <c r="D105" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105" s="89" t="s">
+        <v>574</v>
+      </c>
+      <c r="F105" s="89" t="s">
+        <v>575</v>
+      </c>
+      <c r="G105" s="84" t="s">
         <v>571</v>
       </c>
-      <c r="G104" s="65" t="s">
-        <v>572</v>
-      </c>
-      <c r="H104" s="31" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="B105" s="86" t="s">
-        <v>579</v>
-      </c>
-      <c r="C105" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="D105" s="89"/>
-      <c r="E105" s="90" t="s">
-        <v>580</v>
-      </c>
-      <c r="F105" s="90" t="s">
-        <v>581</v>
-      </c>
-      <c r="G105" s="85" t="s">
-        <v>577</v>
-      </c>
-      <c r="H105" s="87" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="30">
+      <c r="H105" s="86" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="63" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B106" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C106" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="D106" s="79"/>
+      <c r="C106" s="144">
+        <v>5</v>
+      </c>
+      <c r="D106" s="78" t="s">
+        <v>52</v>
+      </c>
       <c r="E106" s="66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F106" s="66" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G106" s="65" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H106" s="31" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="88" t="s">
-        <v>565</v>
-      </c>
-      <c r="B107" s="86"/>
-      <c r="C107" s="84"/>
-      <c r="D107" s="89"/>
-      <c r="E107" s="90"/>
-      <c r="F107" s="90"/>
-      <c r="G107" s="85"/>
-      <c r="H107" s="87"/>
-    </row>
-    <row r="108" spans="1:8">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="87" t="s">
+        <v>559</v>
+      </c>
+      <c r="B107" s="85"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="88"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="89"/>
+      <c r="G107" s="84"/>
+      <c r="H107" s="86"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="63" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="64"/>
-      <c r="D108" s="79"/>
+      <c r="D108" s="78"/>
       <c r="E108" s="66"/>
       <c r="F108" s="66"/>
       <c r="G108" s="65"/>
       <c r="H108" s="31"/>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="B109" s="86"/>
-      <c r="C109" s="84"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="90"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="85"/>
-      <c r="H109" s="87"/>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A110" s="74" t="s">
-        <v>568</v>
-      </c>
-      <c r="B110" s="75"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="92"/>
-      <c r="E110" s="93"/>
-      <c r="F110" s="93"/>
-      <c r="G110" s="77"/>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="87" t="s">
+        <v>561</v>
+      </c>
+      <c r="B109" s="85"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="89"/>
+      <c r="G109" s="84"/>
+      <c r="H109" s="86"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="B110" s="74"/>
+      <c r="C110" s="75"/>
+      <c r="D110" s="91"/>
+      <c r="E110" s="92"/>
+      <c r="F110" s="92"/>
+      <c r="G110" s="76"/>
       <c r="H110" s="32"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
       <c r="B125" s="47"/>
       <c r="C125" s="44"/>
@@ -7476,7 +7752,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="42"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
       <c r="B126" s="47"/>
       <c r="C126" s="44"/>
@@ -7485,7 +7761,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="42"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
       <c r="B127" s="47"/>
       <c r="C127" s="44"/>
@@ -7494,7 +7770,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="42"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
       <c r="B128" s="47"/>
       <c r="C128" s="44"/>
@@ -7503,7 +7779,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="42"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
       <c r="B129" s="47"/>
       <c r="C129" s="44"/>
@@ -7512,7 +7788,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="42"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="47"/>
       <c r="B130" s="47"/>
       <c r="C130" s="44"/>
@@ -7521,7 +7797,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="42"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="47"/>
       <c r="B131" s="47"/>
       <c r="C131" s="44"/>
@@ -7530,7 +7806,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="42"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="47"/>
       <c r="B132" s="47"/>
       <c r="C132" s="44"/>
@@ -7539,7 +7815,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="42"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="47"/>
       <c r="B133" s="47"/>
       <c r="C133" s="44"/>
@@ -7548,7 +7824,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="42"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="47"/>
       <c r="B134" s="47"/>
       <c r="C134" s="44"/>
@@ -7557,7 +7833,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="42"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="47"/>
       <c r="B135" s="47"/>
       <c r="C135" s="44"/>
@@ -7566,7 +7842,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="42"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="47"/>
       <c r="B136" s="47"/>
       <c r="C136" s="44"/>
@@ -7575,7 +7851,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="42"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="47"/>
       <c r="B137" s="47"/>
       <c r="C137" s="44"/>
@@ -7584,7 +7860,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="42"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="47"/>
       <c r="B138" s="47"/>
       <c r="C138" s="44"/>
@@ -7593,7 +7869,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="42"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="47"/>
       <c r="B139" s="47"/>
       <c r="C139" s="44"/>
@@ -7602,7 +7878,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="42"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="47"/>
       <c r="B140" s="47"/>
       <c r="C140" s="44"/>
@@ -7611,7 +7887,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="42"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="47"/>
       <c r="B141" s="47"/>
       <c r="C141" s="44"/>
@@ -7620,7 +7896,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="42"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="47"/>
       <c r="B142" s="47"/>
       <c r="C142" s="44"/>
@@ -7629,7 +7905,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="42"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="47"/>
       <c r="B143" s="47"/>
       <c r="C143" s="44"/>
@@ -7638,7 +7914,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="42"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="47"/>
       <c r="B144" s="47"/>
       <c r="C144" s="44"/>
@@ -7647,7 +7923,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="42"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="47"/>
       <c r="B145" s="47"/>
       <c r="C145" s="44"/>
@@ -7656,7 +7932,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="42"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="47"/>
       <c r="B146" s="47"/>
       <c r="C146" s="44"/>
@@ -7665,7 +7941,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="42"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="47"/>
       <c r="B147" s="47"/>
       <c r="C147" s="44"/>
@@ -7674,7 +7950,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="42"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="47"/>
       <c r="B148" s="47"/>
       <c r="C148" s="44"/>
@@ -7683,7 +7959,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="42"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="47"/>
       <c r="B149" s="47"/>
       <c r="C149" s="44"/>
@@ -7692,7 +7968,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="42"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="47"/>
       <c r="B150" s="47"/>
       <c r="C150" s="44"/>
@@ -7701,7 +7977,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="42"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="47"/>
       <c r="B151" s="47"/>
       <c r="C151" s="44"/>
@@ -7710,7 +7986,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="42"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="47"/>
       <c r="B152" s="47"/>
       <c r="C152" s="44"/>
@@ -7719,7 +7995,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="42"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="47"/>
       <c r="B153" s="47"/>
       <c r="C153" s="44"/>
@@ -7728,7 +8004,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="42"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="47"/>
       <c r="B154" s="47"/>
       <c r="C154" s="44"/>
@@ -7737,7 +8013,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="42"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="47"/>
       <c r="B155" s="47"/>
       <c r="C155" s="44"/>
@@ -7746,7 +8022,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="42"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="47"/>
       <c r="B156" s="47"/>
       <c r="C156" s="44"/>
@@ -7755,7 +8031,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="42"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="47"/>
       <c r="B157" s="47"/>
       <c r="C157" s="44"/>
@@ -7764,7 +8040,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="42"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="47"/>
       <c r="B158" s="47"/>
       <c r="C158" s="44"/>
@@ -7773,7 +8049,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="42"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="47"/>
       <c r="B159" s="47"/>
       <c r="C159" s="44"/>
@@ -7782,7 +8058,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="42"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="47"/>
       <c r="B160" s="47"/>
       <c r="C160" s="44"/>
@@ -7791,7 +8067,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="42"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="47"/>
       <c r="B161" s="47"/>
       <c r="C161" s="44"/>
@@ -7800,7 +8076,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="42"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="47"/>
       <c r="B162" s="47"/>
       <c r="C162" s="44"/>
@@ -7809,7 +8085,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="42"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="47"/>
       <c r="B163" s="47"/>
       <c r="C163" s="44"/>
@@ -7818,7 +8094,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="42"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="47"/>
       <c r="B164" s="47"/>
       <c r="C164" s="44"/>
@@ -7827,7 +8103,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="42"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="47"/>
       <c r="B165" s="47"/>
       <c r="C165" s="44"/>
@@ -7836,7 +8112,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="42"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="47"/>
       <c r="B166" s="47"/>
       <c r="C166" s="44"/>
@@ -7845,7 +8121,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="42"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="47"/>
       <c r="B167" s="47"/>
       <c r="C167" s="44"/>
@@ -7854,7 +8130,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="42"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="47"/>
       <c r="B168" s="47"/>
       <c r="C168" s="44"/>
@@ -7863,7 +8139,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="42"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="47"/>
       <c r="B169" s="47"/>
       <c r="C169" s="44"/>
@@ -7872,7 +8148,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="42"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="47"/>
       <c r="B170" s="47"/>
       <c r="C170" s="44"/>
@@ -7881,7 +8157,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="42"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="47"/>
       <c r="B171" s="47"/>
       <c r="C171" s="44"/>
@@ -7890,7 +8166,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="42"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="47"/>
       <c r="B172" s="47"/>
       <c r="C172" s="44"/>
@@ -7899,7 +8175,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="42"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="47"/>
       <c r="B173" s="47"/>
       <c r="C173" s="44"/>
@@ -7908,7 +8184,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="42"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="47"/>
       <c r="B174" s="47"/>
       <c r="C174" s="44"/>
@@ -7917,7 +8193,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="42"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="47"/>
       <c r="B175" s="47"/>
       <c r="C175" s="44"/>
@@ -7926,7 +8202,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="42"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="47"/>
       <c r="B176" s="47"/>
       <c r="C176" s="44"/>
@@ -7935,7 +8211,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="42"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="47"/>
       <c r="B177" s="47"/>
       <c r="C177" s="44"/>
@@ -7944,7 +8220,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="42"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="47"/>
       <c r="B178" s="47"/>
       <c r="C178" s="44"/>
@@ -7953,7 +8229,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="42"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="47"/>
       <c r="B179" s="47"/>
       <c r="C179" s="44"/>
@@ -7962,7 +8238,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="42"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="47"/>
       <c r="B180" s="47"/>
       <c r="C180" s="44"/>
@@ -7971,7 +8247,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="42"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="47"/>
       <c r="B181" s="47"/>
       <c r="C181" s="44"/>
@@ -7980,7 +8256,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="42"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="47"/>
       <c r="B182" s="47"/>
       <c r="C182" s="44"/>
@@ -7989,7 +8265,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="42"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="47"/>
       <c r="B183" s="47"/>
       <c r="C183" s="44"/>
@@ -7998,7 +8274,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="42"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="47"/>
       <c r="B184" s="47"/>
       <c r="C184" s="44"/>
@@ -8007,7 +8283,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="42"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="47"/>
       <c r="B185" s="47"/>
       <c r="C185" s="44"/>
@@ -8016,7 +8292,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="42"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="47"/>
       <c r="B186" s="47"/>
       <c r="C186" s="44"/>
@@ -8025,7 +8301,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="42"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="47"/>
       <c r="B187" s="47"/>
       <c r="C187" s="44"/>
@@ -8034,7 +8310,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="42"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="47"/>
       <c r="B188" s="47"/>
       <c r="C188" s="44"/>
@@ -8043,7 +8319,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="42"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="47"/>
       <c r="B189" s="47"/>
       <c r="C189" s="44"/>
@@ -8052,7 +8328,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="42"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="47"/>
       <c r="B190" s="47"/>
       <c r="C190" s="44"/>
@@ -8061,7 +8337,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="42"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="47"/>
       <c r="B191" s="47"/>
       <c r="C191" s="44"/>
@@ -8070,7 +8346,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="42"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="47"/>
       <c r="B192" s="47"/>
       <c r="C192" s="44"/>
@@ -8079,7 +8355,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="42"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="47"/>
       <c r="B193" s="47"/>
       <c r="C193" s="44"/>
@@ -8088,7 +8364,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="42"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="47"/>
       <c r="B194" s="47"/>
       <c r="C194" s="44"/>
@@ -8097,7 +8373,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="42"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="47"/>
       <c r="B195" s="47"/>
       <c r="C195" s="44"/>
@@ -8106,7 +8382,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="42"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="47"/>
       <c r="B196" s="47"/>
       <c r="C196" s="44"/>
@@ -8115,7 +8391,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="42"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="47"/>
       <c r="B197" s="47"/>
       <c r="C197" s="44"/>
@@ -8124,7 +8400,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="42"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="47"/>
       <c r="B198" s="47"/>
       <c r="C198" s="44"/>
@@ -8133,7 +8409,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="42"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="47"/>
       <c r="B199" s="47"/>
       <c r="C199" s="44"/>
@@ -8142,7 +8418,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="42"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="47"/>
       <c r="B200" s="47"/>
       <c r="C200" s="44"/>
@@ -8151,7 +8427,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="42"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="47"/>
       <c r="B201" s="47"/>
       <c r="C201" s="44"/>
@@ -8160,7 +8436,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="42"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="47"/>
       <c r="B202" s="47"/>
       <c r="C202" s="44"/>
@@ -8169,7 +8445,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="42"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="47"/>
       <c r="B203" s="47"/>
       <c r="C203" s="44"/>
@@ -8178,7 +8454,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="42"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="47"/>
       <c r="B204" s="47"/>
       <c r="C204" s="44"/>
@@ -8187,7 +8463,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="42"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="47"/>
       <c r="B205" s="47"/>
       <c r="C205" s="44"/>
@@ -8196,7 +8472,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="42"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="47"/>
       <c r="B206" s="47"/>
       <c r="C206" s="44"/>
@@ -8205,7 +8481,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="42"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="47"/>
       <c r="B207" s="47"/>
       <c r="C207" s="44"/>
@@ -8214,7 +8490,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="42"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="47"/>
       <c r="B208" s="47"/>
       <c r="C208" s="44"/>
@@ -8223,7 +8499,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="42"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="47"/>
       <c r="B209" s="47"/>
       <c r="C209" s="44"/>
@@ -8232,7 +8508,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="42"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="47"/>
       <c r="B210" s="47"/>
       <c r="C210" s="44"/>
@@ -8241,7 +8517,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="42"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="47"/>
       <c r="B211" s="47"/>
       <c r="C211" s="44"/>
@@ -8250,7 +8526,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="42"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="47"/>
       <c r="B212" s="47"/>
       <c r="C212" s="44"/>
@@ -8259,7 +8535,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="42"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="47"/>
       <c r="B213" s="47"/>
       <c r="C213" s="44"/>
@@ -8268,7 +8544,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="42"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="47"/>
       <c r="B214" s="47"/>
       <c r="C214" s="44"/>
@@ -8277,7 +8553,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="42"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="47"/>
       <c r="B215" s="47"/>
       <c r="C215" s="44"/>
@@ -8286,7 +8562,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="42"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="47"/>
       <c r="B216" s="47"/>
       <c r="C216" s="44"/>
@@ -8295,7 +8571,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="42"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="47"/>
       <c r="B217" s="47"/>
       <c r="C217" s="44"/>
@@ -8304,7 +8580,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="42"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="47"/>
       <c r="B218" s="47"/>
       <c r="C218" s="44"/>
@@ -8313,7 +8589,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="42"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="47"/>
       <c r="B219" s="47"/>
       <c r="C219" s="44"/>
@@ -8322,7 +8598,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="42"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="47"/>
       <c r="B220" s="47"/>
       <c r="C220" s="44"/>
@@ -8331,7 +8607,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="42"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="47"/>
       <c r="B221" s="47"/>
       <c r="C221" s="44"/>
@@ -8340,7 +8616,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="42"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="47"/>
       <c r="B222" s="47"/>
       <c r="C222" s="44"/>
@@ -8349,7 +8625,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="42"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="47"/>
       <c r="B223" s="47"/>
       <c r="C223" s="44"/>
@@ -8358,7 +8634,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="42"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="47"/>
       <c r="B224" s="47"/>
       <c r="C224" s="44"/>
@@ -8367,7 +8643,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="42"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="47"/>
       <c r="B225" s="47"/>
       <c r="C225" s="44"/>
@@ -8376,7 +8652,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="42"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="47"/>
       <c r="B226" s="47"/>
       <c r="C226" s="44"/>
@@ -8385,7 +8661,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="42"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="47"/>
       <c r="B227" s="47"/>
       <c r="C227" s="44"/>
@@ -8394,7 +8670,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="42"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="47"/>
       <c r="B228" s="47"/>
       <c r="C228" s="44"/>
@@ -8403,7 +8679,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="42"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="47"/>
       <c r="B229" s="47"/>
       <c r="C229" s="44"/>
@@ -8412,7 +8688,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="42"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="47"/>
       <c r="B230" s="47"/>
       <c r="C230" s="44"/>
@@ -8421,7 +8697,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="42"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="47"/>
       <c r="B231" s="47"/>
       <c r="C231" s="44"/>
@@ -8430,7 +8706,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="42"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="47"/>
       <c r="B232" s="47"/>
       <c r="C232" s="44"/>
@@ -8439,7 +8715,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="42"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="47"/>
       <c r="B233" s="47"/>
       <c r="C233" s="44"/>
@@ -8448,7 +8724,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="42"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="47"/>
       <c r="B234" s="47"/>
       <c r="C234" s="44"/>
@@ -8457,7 +8733,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="42"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="47"/>
       <c r="B235" s="47"/>
       <c r="C235" s="44"/>
@@ -8466,7 +8742,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="42"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="47"/>
       <c r="B236" s="47"/>
       <c r="C236" s="44"/>
@@ -8475,7 +8751,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="42"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="47"/>
       <c r="B237" s="47"/>
       <c r="C237" s="44"/>
@@ -8484,7 +8760,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="42"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="47"/>
       <c r="B238" s="47"/>
       <c r="C238" s="44"/>
@@ -8493,7 +8769,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="42"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="47"/>
       <c r="B239" s="47"/>
       <c r="C239" s="44"/>
@@ -8502,7 +8778,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="42"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="47"/>
       <c r="B240" s="47"/>
       <c r="C240" s="44"/>
@@ -8511,7 +8787,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="42"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="47"/>
       <c r="B241" s="47"/>
       <c r="C241" s="44"/>
@@ -8520,7 +8796,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="42"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="47"/>
       <c r="B242" s="47"/>
       <c r="C242" s="44"/>
@@ -8529,7 +8805,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="42"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="47"/>
       <c r="B243" s="47"/>
       <c r="C243" s="44"/>
@@ -8538,7 +8814,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="42"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="47"/>
       <c r="B244" s="47"/>
       <c r="C244" s="44"/>
@@ -8547,7 +8823,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="42"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="47"/>
       <c r="B245" s="47"/>
       <c r="C245" s="44"/>
@@ -8556,7 +8832,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="42"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="47"/>
       <c r="B246" s="47"/>
       <c r="C246" s="44"/>
@@ -8565,7 +8841,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="42"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="47"/>
       <c r="B247" s="47"/>
       <c r="C247" s="44"/>
@@ -8574,7 +8850,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="42"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="47"/>
       <c r="B248" s="47"/>
       <c r="C248" s="44"/>
@@ -8583,7 +8859,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="42"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="47"/>
       <c r="B249" s="47"/>
       <c r="C249" s="44"/>
@@ -8592,7 +8868,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="42"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="47"/>
       <c r="B250" s="47"/>
       <c r="C250" s="44"/>
@@ -8601,7 +8877,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="42"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="47"/>
       <c r="B251" s="47"/>
       <c r="C251" s="44"/>
@@ -8610,7 +8886,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="42"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="47"/>
       <c r="B252" s="47"/>
       <c r="C252" s="44"/>
@@ -8619,7 +8895,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="42"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="47"/>
       <c r="B253" s="47"/>
       <c r="C253" s="44"/>
@@ -8628,7 +8904,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="42"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="47"/>
       <c r="B254" s="47"/>
       <c r="C254" s="44"/>
@@ -8637,7 +8913,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="42"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="47"/>
       <c r="B255" s="47"/>
       <c r="C255" s="44"/>
@@ -8646,7 +8922,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="42"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="47"/>
       <c r="B256" s="47"/>
       <c r="C256" s="44"/>
@@ -8655,7 +8931,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="42"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="47"/>
       <c r="B257" s="47"/>
       <c r="C257" s="44"/>
@@ -8664,7 +8940,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="42"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="47"/>
       <c r="B258" s="47"/>
       <c r="C258" s="44"/>
@@ -8673,7 +8949,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="42"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="47"/>
       <c r="B259" s="47"/>
       <c r="C259" s="44"/>
@@ -8682,7 +8958,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="42"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="47"/>
       <c r="B260" s="47"/>
       <c r="C260" s="44"/>
@@ -8691,7 +8967,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="42"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="47"/>
       <c r="B261" s="47"/>
       <c r="C261" s="44"/>
@@ -8700,7 +8976,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="42"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="47"/>
       <c r="B262" s="47"/>
       <c r="C262" s="44"/>
@@ -8709,7 +8985,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="42"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="47"/>
       <c r="B263" s="47"/>
       <c r="C263" s="44"/>
@@ -8718,7 +8994,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="42"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="47"/>
       <c r="B264" s="47"/>
       <c r="C264" s="44"/>
@@ -8727,7 +9003,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="42"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="47"/>
       <c r="B265" s="47"/>
       <c r="C265" s="44"/>
@@ -8736,7 +9012,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="42"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="47"/>
       <c r="B266" s="47"/>
       <c r="C266" s="44"/>
@@ -8745,7 +9021,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="42"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="47"/>
       <c r="B267" s="47"/>
       <c r="C267" s="44"/>
@@ -8754,7 +9030,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="42"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="47"/>
       <c r="B268" s="47"/>
       <c r="C268" s="44"/>
@@ -8763,7 +9039,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="42"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="47"/>
       <c r="B269" s="47"/>
       <c r="C269" s="44"/>
@@ -8772,7 +9048,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="42"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="47"/>
       <c r="B270" s="47"/>
       <c r="C270" s="44"/>
@@ -8781,7 +9057,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="42"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="47"/>
       <c r="B271" s="47"/>
       <c r="C271" s="44"/>
@@ -8790,7 +9066,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="42"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="47"/>
       <c r="B272" s="47"/>
       <c r="C272" s="44"/>
@@ -8799,7 +9075,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="42"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="47"/>
       <c r="B273" s="47"/>
       <c r="C273" s="44"/>
@@ -8808,7 +9084,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="42"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="47"/>
       <c r="B274" s="47"/>
       <c r="C274" s="44"/>
@@ -8817,7 +9093,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="42"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="47"/>
       <c r="B275" s="47"/>
       <c r="C275" s="44"/>
@@ -8826,7 +9102,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="42"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="47"/>
       <c r="B276" s="47"/>
       <c r="C276" s="44"/>
@@ -8835,7 +9111,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="42"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="47"/>
       <c r="B277" s="47"/>
       <c r="C277" s="44"/>
@@ -8844,7 +9120,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="42"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="47"/>
       <c r="B278" s="47"/>
       <c r="C278" s="44"/>
@@ -8853,7 +9129,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="42"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="47"/>
       <c r="B279" s="47"/>
       <c r="C279" s="44"/>
@@ -8862,7 +9138,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="42"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="47"/>
       <c r="B280" s="47"/>
       <c r="C280" s="44"/>
@@ -8871,7 +9147,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="42"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="47"/>
       <c r="B281" s="47"/>
       <c r="C281" s="44"/>
@@ -8880,7 +9156,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="42"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="47"/>
       <c r="B282" s="47"/>
       <c r="C282" s="44"/>
@@ -8889,7 +9165,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="42"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="47"/>
       <c r="B283" s="47"/>
       <c r="C283" s="44"/>
@@ -8898,7 +9174,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="42"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="47"/>
       <c r="B284" s="47"/>
       <c r="C284" s="44"/>
@@ -8907,7 +9183,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="42"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="47"/>
       <c r="B285" s="47"/>
       <c r="C285" s="44"/>
@@ -8916,7 +9192,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="42"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="47"/>
       <c r="B286" s="47"/>
       <c r="C286" s="44"/>
@@ -8925,7 +9201,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="42"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="47"/>
       <c r="B287" s="47"/>
       <c r="C287" s="44"/>
@@ -8934,7 +9210,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="42"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="47"/>
       <c r="B288" s="47"/>
       <c r="C288" s="44"/>
@@ -8943,7 +9219,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="42"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="47"/>
       <c r="B289" s="47"/>
       <c r="C289" s="44"/>
@@ -8952,7 +9228,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="42"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="47"/>
       <c r="B290" s="47"/>
       <c r="C290" s="44"/>
@@ -8961,7 +9237,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="42"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="47"/>
       <c r="B291" s="47"/>
       <c r="C291" s="44"/>
@@ -8970,7 +9246,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="42"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="47"/>
       <c r="B292" s="47"/>
       <c r="C292" s="44"/>
@@ -8979,7 +9255,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="42"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="47"/>
       <c r="B293" s="47"/>
       <c r="C293" s="44"/>
@@ -8988,7 +9264,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="42"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="47"/>
       <c r="B294" s="47"/>
       <c r="C294" s="44"/>
@@ -8997,7 +9273,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="42"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="47"/>
       <c r="B295" s="47"/>
       <c r="C295" s="44"/>
@@ -9006,7 +9282,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="42"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="47"/>
       <c r="B296" s="47"/>
       <c r="C296" s="44"/>
@@ -9015,7 +9291,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="42"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="47"/>
       <c r="B297" s="47"/>
       <c r="C297" s="44"/>
@@ -9024,7 +9300,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="42"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="47"/>
       <c r="B298" s="47"/>
       <c r="C298" s="44"/>
@@ -9033,7 +9309,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="42"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="47"/>
       <c r="B299" s="47"/>
       <c r="C299" s="44"/>
@@ -9042,7 +9318,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="42"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="47"/>
       <c r="B300" s="47"/>
       <c r="C300" s="44"/>
@@ -9051,7 +9327,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="42"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="47"/>
       <c r="B301" s="47"/>
       <c r="C301" s="44"/>
@@ -9060,7 +9336,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="42"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="47"/>
       <c r="B302" s="47"/>
       <c r="C302" s="44"/>
@@ -9069,7 +9345,7 @@
       <c r="F302" s="1"/>
       <c r="G302" s="42"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="47"/>
       <c r="B303" s="47"/>
       <c r="C303" s="44"/>
@@ -9078,7 +9354,7 @@
       <c r="F303" s="1"/>
       <c r="G303" s="42"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="47"/>
       <c r="B304" s="47"/>
       <c r="C304" s="44"/>
@@ -9087,7 +9363,7 @@
       <c r="F304" s="1"/>
       <c r="G304" s="42"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="47"/>
       <c r="B305" s="47"/>
       <c r="C305" s="44"/>
@@ -9096,7 +9372,7 @@
       <c r="F305" s="1"/>
       <c r="G305" s="42"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="47"/>
       <c r="B306" s="47"/>
       <c r="C306" s="44"/>
@@ -9105,7 +9381,7 @@
       <c r="F306" s="1"/>
       <c r="G306" s="42"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="47"/>
       <c r="B307" s="47"/>
       <c r="C307" s="44"/>
@@ -9114,7 +9390,7 @@
       <c r="F307" s="1"/>
       <c r="G307" s="42"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="47"/>
       <c r="B308" s="47"/>
       <c r="C308" s="44"/>
@@ -9123,7 +9399,7 @@
       <c r="F308" s="1"/>
       <c r="G308" s="42"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="47"/>
       <c r="B309" s="47"/>
       <c r="C309" s="44"/>
@@ -9132,7 +9408,7 @@
       <c r="F309" s="1"/>
       <c r="G309" s="42"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="47"/>
       <c r="B310" s="47"/>
       <c r="C310" s="44"/>
@@ -9141,7 +9417,7 @@
       <c r="F310" s="1"/>
       <c r="G310" s="42"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="47"/>
       <c r="B311" s="47"/>
       <c r="C311" s="44"/>
@@ -9150,7 +9426,7 @@
       <c r="F311" s="1"/>
       <c r="G311" s="42"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="47"/>
       <c r="B312" s="47"/>
       <c r="C312" s="44"/>
@@ -9159,7 +9435,7 @@
       <c r="F312" s="1"/>
       <c r="G312" s="42"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="47"/>
       <c r="B313" s="47"/>
       <c r="C313" s="44"/>
@@ -9168,7 +9444,7 @@
       <c r="F313" s="1"/>
       <c r="G313" s="42"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="47"/>
       <c r="B314" s="47"/>
       <c r="C314" s="44"/>
@@ -9177,7 +9453,7 @@
       <c r="F314" s="1"/>
       <c r="G314" s="42"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="47"/>
       <c r="B315" s="47"/>
       <c r="C315" s="44"/>
@@ -9186,7 +9462,7 @@
       <c r="F315" s="1"/>
       <c r="G315" s="42"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="47"/>
       <c r="B316" s="47"/>
       <c r="C316" s="44"/>
@@ -9195,7 +9471,7 @@
       <c r="F316" s="1"/>
       <c r="G316" s="42"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="47"/>
       <c r="B317" s="47"/>
       <c r="C317" s="44"/>
@@ -9209,15 +9485,15 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A21" r:id="rId4"/>
-    <hyperlink ref="A22" r:id="rId5"/>
-    <hyperlink ref="A23" r:id="rId6"/>
-    <hyperlink ref="A24" r:id="rId7"/>
-    <hyperlink ref="A25" r:id="rId8"/>
-    <hyperlink ref="A26" r:id="rId9"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId10"/>
@@ -9226,14 +9502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -9245,55 +9521,55 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="101"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="122"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="107" t="s">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>44</v>
       </c>
@@ -9322,7 +9598,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -9335,7 +9611,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -9348,7 +9624,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -9361,7 +9637,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -9374,7 +9650,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -9387,7 +9663,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -9400,7 +9676,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -9413,7 +9689,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -9426,7 +9702,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9437,20 +9713,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="110" t="s">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="111"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
@@ -9463,160 +9739,156 @@
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="115" t="s">
+      <c r="F16" s="115"/>
+      <c r="G16" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="116"/>
-      <c r="I16" s="117"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="H16" s="113"/>
+      <c r="I16" s="114"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="107"/>
       <c r="K17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="E18" s="105"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="107"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>3</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="E19" s="105"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="107"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>4</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="E20" s="105"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="107"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="E21" s="105"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>6</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="E22" s="105"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="107"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>7</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="E23" s="105"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="107"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>8</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="E24" s="105"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>9</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E25" s="97"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="100"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>10</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -9631,11 +9903,15 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9644,14 +9920,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -9663,53 +9939,53 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="101"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="102" t="s">
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="103"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="107" t="s">
+      <c r="I2" s="122"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>44</v>
       </c>
@@ -9741,7 +10017,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="34.5">
+    <row r="6" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -9769,17 +10045,17 @@
       <c r="I6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="135" t="s">
+      <c r="K6" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -9807,17 +10083,17 @@
       <c r="I7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="135" t="s">
+      <c r="K7" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -9846,7 +10122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -9859,7 +10135,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -9872,7 +10148,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -9885,7 +10161,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -9898,7 +10174,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -9911,7 +10187,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9922,20 +10198,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="110" t="s">
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="111"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>44</v>
       </c>
@@ -9948,17 +10224,17 @@
       <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="129" t="s">
+      <c r="E16" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129" t="s">
+      <c r="F16" s="134"/>
+      <c r="G16" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="H16" s="134"/>
+      <c r="I16" s="135"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1</v>
       </c>
@@ -9971,17 +10247,17 @@
       <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="131" t="s">
+      <c r="E17" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="132"/>
-      <c r="G17" s="131" t="s">
+      <c r="F17" s="131"/>
+      <c r="G17" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="133"/>
-      <c r="I17" s="134"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.25">
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
+    </row>
+    <row r="18" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2</v>
       </c>
@@ -9994,17 +10270,17 @@
       <c r="D18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="E18" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="132"/>
-      <c r="G18" s="131" t="s">
+      <c r="F18" s="131"/>
+      <c r="G18" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="133"/>
-      <c r="I18" s="134"/>
-    </row>
-    <row r="19" spans="1:11" ht="34.5">
+      <c r="H18" s="132"/>
+      <c r="I18" s="133"/>
+    </row>
+    <row r="19" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>3</v>
       </c>
@@ -10017,115 +10293,129 @@
       <c r="D19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="131" t="s">
+      <c r="E19" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="131" t="s">
+      <c r="F19" s="131"/>
+      <c r="G19" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="133"/>
-      <c r="I19" s="134"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
       <c r="K19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>4</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="E20" s="105"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="107"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
       <c r="K21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>6</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="E22" s="105"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="107"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>7</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="E23" s="105"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="107"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>8</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="E24" s="105"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>9</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E25" s="97"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="100"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>10</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -10142,20 +10432,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10164,32 +10440,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="136" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="136"/>
       <c r="C5" s="136"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>54</v>
       </c>
@@ -10200,7 +10476,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>76</v>
       </c>
@@ -10211,7 +10487,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="60">
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>69</v>
       </c>
@@ -10222,7 +10498,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1">
+    <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>61</v>
       </c>
@@ -10233,7 +10509,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>89</v>
       </c>
@@ -10244,7 +10520,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A5:C5"/>
@@ -10255,21 +10531,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="58.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75">
+    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="137" t="s">
         <v>103</v>
       </c>
@@ -10278,7 +10554,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>225</v>
       </c>
@@ -10286,7 +10562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" customHeight="1">
+    <row r="4" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="39">
         <v>1</v>
       </c>
@@ -10297,7 +10573,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="39">
         <v>2</v>
       </c>
@@ -10308,7 +10584,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="39">
         <v>3</v>
       </c>
@@ -10319,7 +10595,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="39">
         <v>4</v>
       </c>
@@ -10330,7 +10606,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="39">
         <v>5</v>
       </c>
@@ -10341,7 +10617,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="39">
         <v>6</v>
       </c>
@@ -10352,7 +10628,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="39">
         <v>7</v>
       </c>
@@ -10363,7 +10639,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15.75" customHeight="1">
+    <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39">
         <v>8</v>
       </c>
@@ -10374,7 +10650,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
         <v>9</v>
       </c>
@@ -10385,7 +10661,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="39">
         <v>10</v>
       </c>
@@ -10396,7 +10672,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="39">
         <v>11</v>
       </c>
@@ -10407,7 +10683,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="39">
         <v>12</v>
       </c>
@@ -10418,7 +10694,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="39">
         <v>13</v>
       </c>
@@ -10429,7 +10705,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="39">
         <v>14</v>
       </c>
@@ -10440,46 +10716,46 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
       <c r="C18" s="24"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="24"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="39"/>
       <c r="C21" s="24"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="24"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
       <c r="C23" s="24"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="24"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
       <c r="C25" s="24"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="39"/>
       <c r="C26" s="24"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="40"/>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>229</v>
       </c>
@@ -10494,32 +10770,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="137" t="s">
         <v>216</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="137"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
@@ -10528,7 +10804,7 @@
       </c>
       <c r="C4" s="136"/>
     </row>
-    <row r="5" spans="1:10" ht="96" customHeight="1">
+    <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>104</v>
       </c>
@@ -10537,7 +10813,7 @@
       </c>
       <c r="C5" s="138"/>
     </row>
-    <row r="6" spans="1:10" ht="64.5" customHeight="1">
+    <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>52</v>
       </c>
@@ -10546,7 +10822,7 @@
       </c>
       <c r="C6" s="138"/>
     </row>
-    <row r="7" spans="1:10" ht="67.5" customHeight="1">
+    <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>53</v>
       </c>
@@ -10555,7 +10831,7 @@
       </c>
       <c r="C7" s="138"/>
     </row>
-    <row r="8" spans="1:10" ht="72.75" customHeight="1">
+    <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>107</v>
       </c>
@@ -10564,8 +10840,213 @@
       </c>
       <c r="C8" s="138"/>
     </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="137"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="39">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="39">
+        <v>2</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="39">
+        <v>3</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="39">
+        <v>4</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="39">
+        <v>5</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="39">
+        <v>6</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="39">
+        <v>7</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="39">
+        <v>8</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="39">
+        <v>9</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="39">
+        <v>10</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="39">
+        <v>11</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="39">
+        <v>12</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="39">
+        <v>13</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="39">
+        <v>14</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="39"/>
+      <c r="C29" s="24"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="39"/>
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="39"/>
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="39"/>
+      <c r="C32" s="24"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="39"/>
+      <c r="C33" s="24"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="39"/>
+      <c r="C34" s="24"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="39"/>
+      <c r="C35" s="24"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="39"/>
+      <c r="C36" s="24"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="39"/>
+      <c r="C37" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -10579,22 +11060,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="64.28515625" customWidth="1"/>
     <col min="4" max="4" width="52.42578125" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:10" ht="15.75">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="139" t="s">
         <v>226</v>
       </c>
@@ -10604,7 +11085,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="55" t="s">
         <v>227</v>
       </c>
@@ -10615,7 +11096,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="90">
+    <row r="4" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="57" t="s">
         <v>253</v>
       </c>
@@ -10626,7 +11107,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="75">
+    <row r="5" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
         <v>256</v>
       </c>
@@ -10637,7 +11118,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="42" customHeight="1">
+    <row r="6" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="57" t="s">
         <v>258</v>
       </c>
@@ -10648,7 +11129,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="75">
+    <row r="7" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
         <v>254</v>
       </c>
@@ -10659,7 +11140,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="75">
+    <row r="8" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
         <v>252</v>
       </c>
@@ -10670,7 +11151,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="84" customHeight="1">
+    <row r="9" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="57" t="s">
         <v>255</v>
       </c>
@@ -10681,7 +11162,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="75">
+    <row r="10" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="60" t="s">
         <v>257</v>
       </c>
@@ -10692,7 +11173,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
+    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="61" t="s">
         <v>265</v>
       </c>
@@ -10703,7 +11184,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
@@ -10715,24 +11196,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -10740,8 +11221,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
-    <row r="5" spans="2:3">
+    <row r="4" spans="2:3" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -10751,8 +11232,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>

--- a/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
+++ b/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49E07C6-EC1F-451E-AF44-47FD4DB71495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15900" windowWidth="37125" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15900" windowWidth="29040" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Target List" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="698">
   <si>
     <t>NAME</t>
   </si>
@@ -2057,12 +2056,96 @@
   <si>
     <t>Hosts the70th 742 (MiG21) and 701/7022 SQNs (MiG23)</t>
   </si>
+  <si>
+    <t>N35 24.000</t>
+  </si>
+  <si>
+    <t>E035 37.000</t>
+  </si>
+  <si>
+    <t>92ft</t>
+  </si>
+  <si>
+    <t>N35 07.000</t>
+  </si>
+  <si>
+    <t>E036 43.000</t>
+  </si>
+  <si>
+    <t>981ft</t>
+  </si>
+  <si>
+    <t>N34 33.500</t>
+  </si>
+  <si>
+    <t>E038 19.000</t>
+  </si>
+  <si>
+    <t>1293ft</t>
+  </si>
+  <si>
+    <t>N33 55.000</t>
+  </si>
+  <si>
+    <t>E036 52.000</t>
+  </si>
+  <si>
+    <t>2723ft</t>
+  </si>
+  <si>
+    <t>N33 36.500</t>
+  </si>
+  <si>
+    <t>N33 30.000</t>
+  </si>
+  <si>
+    <t>E036 28.000</t>
+  </si>
+  <si>
+    <t>E036 31.000</t>
+  </si>
+  <si>
+    <t>N3 3 28.500</t>
+  </si>
+  <si>
+    <t>E036 13.000</t>
+  </si>
+  <si>
+    <t>2379ft</t>
+  </si>
+  <si>
+    <t>N33 04.000</t>
+  </si>
+  <si>
+    <t>2159ft</t>
+  </si>
+  <si>
+    <t>E036 34.000</t>
+  </si>
+  <si>
+    <t>2365ft</t>
+  </si>
+  <si>
+    <t>N35 30.700</t>
+  </si>
+  <si>
+    <t>E035 46.100</t>
+  </si>
+  <si>
+    <t>10ft</t>
+  </si>
+  <si>
+    <t>N34 54.100</t>
+  </si>
+  <si>
+    <t>E035 52.300</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2978,6 +3061,15 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2987,6 +3079,78 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3011,99 +3175,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3122,18 +3214,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3169,7 +3252,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3214,7 +3297,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3347,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3392,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3359,7 +3442,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3487,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3454,7 +3537,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3590,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +3682,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3657,7 +3740,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3710,7 +3793,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,7 +3846,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3861,7 +3944,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3914,7 +3997,7 @@
         <xdr:cNvPr id="4" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3967,7 +4050,7 @@
         <xdr:cNvPr id="5" name="TekstSylinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4061,7 +4144,7 @@
         <xdr:cNvPr id="5" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4114,7 +4197,7 @@
         <xdr:cNvPr id="6" name="TekstSylinder 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4209,7 +4292,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4267,7 +4350,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000010C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4320,7 +4403,7 @@
         <xdr:cNvPr id="3074" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000020C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4373,7 +4456,7 @@
         <xdr:cNvPr id="3075" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000030C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000030C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4426,7 +4509,7 @@
         <xdr:cNvPr id="3076" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000040C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4479,7 +4562,7 @@
         <xdr:cNvPr id="3077" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000050C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000050C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4532,7 +4615,7 @@
         <xdr:cNvPr id="3078" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000060C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,7 +4668,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4624,7 +4707,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4666,7 +4749,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4698,27 +4781,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4750,24 +4815,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4943,15 +4990,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="48" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="48" customWidth="1"/>
@@ -4963,19 +5010,19 @@
     <col min="8" max="8" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:8" ht="49.9" customHeight="1" thickBot="1">
+      <c r="A1" s="97" t="s">
         <v>588</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="46" t="s">
         <v>43</v>
       </c>
@@ -4987,7 +5034,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="29.45" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -5013,14 +5060,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="70" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="71" t="s">
         <v>546</v>
       </c>
-      <c r="C4" s="142">
+      <c r="C4" s="94">
         <v>2</v>
       </c>
       <c r="D4" s="72" t="s">
@@ -5039,14 +5086,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="82" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="C5" s="143">
+      <c r="C5" s="95">
         <v>2</v>
       </c>
       <c r="D5" s="84" t="s">
@@ -5065,14 +5112,14 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="67" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="96">
         <v>5</v>
       </c>
       <c r="D6" s="65" t="s">
@@ -5091,14 +5138,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="87" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="85" t="s">
         <v>568</v>
       </c>
-      <c r="C7" s="143">
+      <c r="C7" s="95">
         <v>5</v>
       </c>
       <c r="D7" s="84" t="s">
@@ -5117,14 +5164,14 @@
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="C8" s="144">
+      <c r="C8" s="96">
         <v>6</v>
       </c>
       <c r="D8" s="65" t="s">
@@ -5143,14 +5190,14 @@
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="87" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="C9" s="143">
+      <c r="C9" s="95">
         <v>6</v>
       </c>
       <c r="D9" s="84" t="s">
@@ -5169,7 +5216,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="63" t="s">
         <v>15</v>
       </c>
@@ -5195,7 +5242,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="87" t="s">
         <v>16</v>
       </c>
@@ -5221,7 +5268,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="63" t="s">
         <v>17</v>
       </c>
@@ -5247,7 +5294,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="87" t="s">
         <v>18</v>
       </c>
@@ -5273,7 +5320,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="63" t="s">
         <v>19</v>
       </c>
@@ -5299,7 +5346,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="87" t="s">
         <v>20</v>
       </c>
@@ -5325,7 +5372,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="63" t="s">
         <v>21</v>
       </c>
@@ -5351,7 +5398,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="87" t="s">
         <v>22</v>
       </c>
@@ -5377,7 +5424,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="63" t="s">
         <v>23</v>
       </c>
@@ -5403,7 +5450,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="87" t="s">
         <v>24</v>
       </c>
@@ -5429,7 +5476,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="63" t="s">
         <v>25</v>
       </c>
@@ -5455,7 +5502,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="50" customFormat="1">
       <c r="A21" s="82" t="s">
         <v>26</v>
       </c>
@@ -5481,7 +5528,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" s="67" t="s">
         <v>27</v>
       </c>
@@ -5507,7 +5554,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30">
       <c r="A23" s="82" t="s">
         <v>28</v>
       </c>
@@ -5533,7 +5580,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="67" t="s">
         <v>29</v>
       </c>
@@ -5559,7 +5606,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="82" t="s">
         <v>30</v>
       </c>
@@ -5585,7 +5632,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30">
       <c r="A26" s="67" t="s">
         <v>31</v>
       </c>
@@ -5611,7 +5658,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="87" t="s">
         <v>32</v>
       </c>
@@ -5637,7 +5684,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="63" t="s">
         <v>33</v>
       </c>
@@ -5663,7 +5710,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="87" t="s">
         <v>34</v>
       </c>
@@ -5689,7 +5736,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="63" t="s">
         <v>35</v>
       </c>
@@ -5715,7 +5762,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="87" t="s">
         <v>36</v>
       </c>
@@ -5741,7 +5788,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="63" t="s">
         <v>111</v>
       </c>
@@ -5767,7 +5814,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="87" t="s">
         <v>112</v>
       </c>
@@ -5793,7 +5840,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="30">
       <c r="A34" s="63" t="s">
         <v>113</v>
       </c>
@@ -5819,7 +5866,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="87" t="s">
         <v>114</v>
       </c>
@@ -5845,7 +5892,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="45">
       <c r="A36" s="63" t="s">
         <v>115</v>
       </c>
@@ -5871,7 +5918,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="45">
       <c r="A37" s="87" t="s">
         <v>116</v>
       </c>
@@ -5897,7 +5944,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="45">
       <c r="A38" s="63" t="s">
         <v>117</v>
       </c>
@@ -5923,7 +5970,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="87" t="s">
         <v>118</v>
       </c>
@@ -5949,7 +5996,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="63" t="s">
         <v>119</v>
       </c>
@@ -5975,7 +6022,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="87" t="s">
         <v>120</v>
       </c>
@@ -6001,7 +6048,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="63" t="s">
         <v>121</v>
       </c>
@@ -6027,7 +6074,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="87" t="s">
         <v>122</v>
       </c>
@@ -6051,7 +6098,7 @@
       </c>
       <c r="H43" s="86"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="63" t="s">
         <v>123</v>
       </c>
@@ -6077,7 +6124,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="87" t="s">
         <v>124</v>
       </c>
@@ -6103,7 +6150,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="63" t="s">
         <v>125</v>
       </c>
@@ -6116,14 +6163,20 @@
       <c r="D46" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="65"/>
+      <c r="E46" s="66" t="s">
+        <v>670</v>
+      </c>
+      <c r="F46" s="66" t="s">
+        <v>671</v>
+      </c>
+      <c r="G46" s="65" t="s">
+        <v>672</v>
+      </c>
       <c r="H46" s="86" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="87" t="s">
         <v>126</v>
       </c>
@@ -6136,14 +6189,20 @@
       <c r="D47" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="84"/>
+      <c r="E47" s="89" t="s">
+        <v>673</v>
+      </c>
+      <c r="F47" s="89" t="s">
+        <v>674</v>
+      </c>
+      <c r="G47" s="84" t="s">
+        <v>675</v>
+      </c>
       <c r="H47" s="31" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="63" t="s">
         <v>127</v>
       </c>
@@ -6156,14 +6215,20 @@
       <c r="D48" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="65"/>
+      <c r="E48" s="66" t="s">
+        <v>676</v>
+      </c>
+      <c r="F48" s="66" t="s">
+        <v>677</v>
+      </c>
+      <c r="G48" s="65" t="s">
+        <v>678</v>
+      </c>
       <c r="H48" s="86" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="87" t="s">
         <v>128</v>
       </c>
@@ -6176,14 +6241,20 @@
       <c r="D49" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="84"/>
+      <c r="E49" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="F49" s="89" t="s">
+        <v>680</v>
+      </c>
+      <c r="G49" s="84" t="s">
+        <v>681</v>
+      </c>
       <c r="H49" s="31" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="63" t="s">
         <v>129</v>
       </c>
@@ -6196,14 +6267,20 @@
       <c r="D50" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="65"/>
+      <c r="E50" s="66" t="s">
+        <v>682</v>
+      </c>
+      <c r="F50" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" s="65" t="s">
+        <v>422</v>
+      </c>
       <c r="H50" s="31" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="87" t="s">
         <v>130</v>
       </c>
@@ -6216,14 +6293,20 @@
       <c r="D51" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="84"/>
+      <c r="E51" s="89" t="s">
+        <v>683</v>
+      </c>
+      <c r="F51" s="89" t="s">
+        <v>684</v>
+      </c>
+      <c r="G51" s="84" t="s">
+        <v>475</v>
+      </c>
       <c r="H51" s="86" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="63" t="s">
         <v>131</v>
       </c>
@@ -6243,7 +6326,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="87" t="s">
         <v>132</v>
       </c>
@@ -6256,14 +6339,20 @@
       <c r="D53" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="84"/>
+      <c r="E53" s="89" t="s">
+        <v>564</v>
+      </c>
+      <c r="F53" s="89" t="s">
+        <v>685</v>
+      </c>
+      <c r="G53" s="84" t="s">
+        <v>475</v>
+      </c>
       <c r="H53" s="86" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="63" t="s">
         <v>133</v>
       </c>
@@ -6276,14 +6365,20 @@
       <c r="D54" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="65"/>
+      <c r="E54" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="G54" s="65" t="s">
+        <v>472</v>
+      </c>
       <c r="H54" s="86" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="87" t="s">
         <v>134</v>
       </c>
@@ -6296,14 +6391,20 @@
       <c r="D55" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="84"/>
+      <c r="E55" s="89" t="s">
+        <v>686</v>
+      </c>
+      <c r="F55" s="89" t="s">
+        <v>687</v>
+      </c>
+      <c r="G55" s="84" t="s">
+        <v>688</v>
+      </c>
       <c r="H55" s="86" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="63" t="s">
         <v>135</v>
       </c>
@@ -6316,14 +6417,20 @@
       <c r="D56" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="65"/>
+      <c r="E56" s="66" t="s">
+        <v>689</v>
+      </c>
+      <c r="F56" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="G56" s="65" t="s">
+        <v>690</v>
+      </c>
       <c r="H56" s="31" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15" customHeight="1">
       <c r="A57" s="87" t="s">
         <v>136</v>
       </c>
@@ -6336,14 +6443,20 @@
       <c r="D57" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="84"/>
+      <c r="E57" s="89" t="s">
+        <v>689</v>
+      </c>
+      <c r="F57" s="89" t="s">
+        <v>691</v>
+      </c>
+      <c r="G57" s="84" t="s">
+        <v>692</v>
+      </c>
       <c r="H57" s="31" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="63" t="s">
         <v>137</v>
       </c>
@@ -6356,14 +6469,20 @@
       <c r="D58" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="65"/>
+      <c r="E58" s="66" t="s">
+        <v>693</v>
+      </c>
+      <c r="F58" s="66" t="s">
+        <v>694</v>
+      </c>
+      <c r="G58" s="65" t="s">
+        <v>695</v>
+      </c>
       <c r="H58" s="31" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="87" t="s">
         <v>138</v>
       </c>
@@ -6376,14 +6495,20 @@
       <c r="D59" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="84"/>
+      <c r="E59" s="89" t="s">
+        <v>696</v>
+      </c>
+      <c r="F59" s="89" t="s">
+        <v>697</v>
+      </c>
+      <c r="G59" s="84" t="s">
+        <v>695</v>
+      </c>
       <c r="H59" s="86" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="77" t="s">
         <v>139</v>
       </c>
@@ -6409,7 +6534,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="24">
       <c r="A61" s="87" t="s">
         <v>140</v>
       </c>
@@ -6435,7 +6560,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="24">
       <c r="A62" s="63" t="s">
         <v>141</v>
       </c>
@@ -6461,7 +6586,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="24">
       <c r="A63" s="87" t="s">
         <v>142</v>
       </c>
@@ -6487,7 +6612,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="63" t="s">
         <v>143</v>
       </c>
@@ -6505,7 +6630,7 @@
       <c r="G64" s="65"/>
       <c r="H64" s="31"/>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="45">
       <c r="A65" s="87" t="s">
         <v>144</v>
       </c>
@@ -6531,7 +6656,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="30">
       <c r="A66" s="63" t="s">
         <v>145</v>
       </c>
@@ -6557,7 +6682,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="87" t="s">
         <v>146</v>
       </c>
@@ -6583,7 +6708,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="63" t="s">
         <v>147</v>
       </c>
@@ -6609,7 +6734,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="30">
       <c r="A69" s="87" t="s">
         <v>148</v>
       </c>
@@ -6635,7 +6760,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="30">
       <c r="A70" s="63" t="s">
         <v>149</v>
       </c>
@@ -6661,7 +6786,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="30">
       <c r="A71" s="87" t="s">
         <v>150</v>
       </c>
@@ -6687,7 +6812,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="30">
       <c r="A72" s="63" t="s">
         <v>151</v>
       </c>
@@ -6713,7 +6838,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="30">
       <c r="A73" s="87" t="s">
         <v>152</v>
       </c>
@@ -6739,14 +6864,14 @@
         <v>584</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="30">
       <c r="A74" s="63" t="s">
         <v>153</v>
       </c>
       <c r="B74" s="26" t="s">
         <v>579</v>
       </c>
-      <c r="C74" s="144">
+      <c r="C74" s="96">
         <v>2</v>
       </c>
       <c r="D74" s="78" t="s">
@@ -6765,14 +6890,14 @@
         <v>627</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="30">
       <c r="A75" s="87" t="s">
         <v>154</v>
       </c>
       <c r="B75" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="C75" s="143">
+      <c r="C75" s="95">
         <v>2</v>
       </c>
       <c r="D75" s="88" t="s">
@@ -6791,14 +6916,14 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="63" t="s">
         <v>155</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="144">
+      <c r="C76" s="96">
         <v>2</v>
       </c>
       <c r="D76" s="78" t="s">
@@ -6817,14 +6942,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="30">
       <c r="A77" s="87" t="s">
         <v>156</v>
       </c>
       <c r="B77" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="C77" s="143">
+      <c r="C77" s="95">
         <v>2</v>
       </c>
       <c r="D77" s="88" t="s">
@@ -6843,14 +6968,14 @@
         <v>630</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="63" t="s">
         <v>157</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="C78" s="144">
+      <c r="C78" s="96">
         <v>5</v>
       </c>
       <c r="D78" s="78" t="s">
@@ -6869,14 +6994,14 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="30">
       <c r="A79" s="87" t="s">
         <v>158</v>
       </c>
       <c r="B79" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="C79" s="143">
+      <c r="C79" s="95">
         <v>5</v>
       </c>
       <c r="D79" s="88" t="s">
@@ -6895,14 +7020,14 @@
         <v>599</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="63" t="s">
         <v>159</v>
       </c>
       <c r="B80" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="C80" s="144">
+      <c r="C80" s="96">
         <v>5</v>
       </c>
       <c r="D80" s="78" t="s">
@@ -6921,14 +7046,14 @@
         <v>618</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="87" t="s">
         <v>160</v>
       </c>
       <c r="B81" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="C81" s="143">
+      <c r="C81" s="95">
         <v>5</v>
       </c>
       <c r="D81" s="88" t="s">
@@ -6947,14 +7072,14 @@
         <v>620</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="63" t="s">
         <v>161</v>
       </c>
       <c r="B82" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C82" s="144">
+      <c r="C82" s="96">
         <v>5</v>
       </c>
       <c r="D82" s="78" t="s">
@@ -6973,14 +7098,14 @@
         <v>613</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="87" t="s">
         <v>162</v>
       </c>
       <c r="B83" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="C83" s="143">
+      <c r="C83" s="95">
         <v>9</v>
       </c>
       <c r="D83" s="88" t="s">
@@ -6999,14 +7124,14 @@
         <v>617</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="63" t="s">
         <v>163</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="C84" s="144">
+      <c r="C84" s="96">
         <v>5</v>
       </c>
       <c r="D84" s="78" t="s">
@@ -7025,14 +7150,14 @@
         <v>602</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="87" t="s">
         <v>164</v>
       </c>
       <c r="B85" s="85" t="s">
         <v>334</v>
       </c>
-      <c r="C85" s="143">
+      <c r="C85" s="95">
         <v>8</v>
       </c>
       <c r="D85" s="88" t="s">
@@ -7051,14 +7176,14 @@
         <v>641</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="63" t="s">
         <v>165</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C86" s="144">
+      <c r="C86" s="96">
         <v>8</v>
       </c>
       <c r="D86" s="78" t="s">
@@ -7077,14 +7202,14 @@
         <v>610</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="87" t="s">
         <v>166</v>
       </c>
       <c r="B87" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="C87" s="143">
+      <c r="C87" s="95">
         <v>8</v>
       </c>
       <c r="D87" s="88" t="s">
@@ -7103,14 +7228,14 @@
         <v>595</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="77" t="s">
         <v>167</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C88" s="144">
+      <c r="C88" s="96">
         <v>7</v>
       </c>
       <c r="D88" s="78" t="s">
@@ -7129,14 +7254,14 @@
         <v>595</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="24">
       <c r="A89" s="87" t="s">
         <v>168</v>
       </c>
       <c r="B89" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="C89" s="143">
+      <c r="C89" s="95">
         <v>2</v>
       </c>
       <c r="D89" s="88" t="s">
@@ -7155,14 +7280,14 @@
         <v>619</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="63" t="s">
         <v>169</v>
       </c>
       <c r="B90" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C90" s="144">
+      <c r="C90" s="96">
         <v>7</v>
       </c>
       <c r="D90" s="78" t="s">
@@ -7181,14 +7306,14 @@
         <v>525</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="30">
       <c r="A91" s="87" t="s">
         <v>170</v>
       </c>
       <c r="B91" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="C91" s="143">
+      <c r="C91" s="95">
         <v>5</v>
       </c>
       <c r="D91" s="88" t="s">
@@ -7207,14 +7332,14 @@
         <v>607</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="30">
       <c r="A92" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B92" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C92" s="144">
+      <c r="C92" s="96">
         <v>7</v>
       </c>
       <c r="D92" s="78" t="s">
@@ -7233,14 +7358,14 @@
         <v>589</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="87" t="s">
         <v>172</v>
       </c>
       <c r="B93" s="85" t="s">
         <v>378</v>
       </c>
-      <c r="C93" s="143">
+      <c r="C93" s="95">
         <v>8</v>
       </c>
       <c r="D93" s="88" t="s">
@@ -7259,14 +7384,14 @@
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="30">
       <c r="A94" s="63" t="s">
         <v>173</v>
       </c>
       <c r="B94" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C94" s="144">
+      <c r="C94" s="96">
         <v>5</v>
       </c>
       <c r="D94" s="78" t="s">
@@ -7285,14 +7410,14 @@
         <v>593</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="87" t="s">
         <v>174</v>
       </c>
       <c r="B95" s="85" t="s">
         <v>401</v>
       </c>
-      <c r="C95" s="143">
+      <c r="C95" s="95">
         <v>8</v>
       </c>
       <c r="D95" s="88" t="s">
@@ -7311,14 +7436,14 @@
         <v>606</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="30">
       <c r="A96" s="63" t="s">
         <v>175</v>
       </c>
       <c r="B96" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="C96" s="144">
+      <c r="C96" s="96">
         <v>10</v>
       </c>
       <c r="D96" s="78" t="s">
@@ -7337,14 +7462,14 @@
         <v>629</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="30">
       <c r="A97" s="87" t="s">
         <v>176</v>
       </c>
       <c r="B97" s="85" t="s">
         <v>432</v>
       </c>
-      <c r="C97" s="143">
+      <c r="C97" s="95">
         <v>5</v>
       </c>
       <c r="D97" s="88" t="s">
@@ -7363,14 +7488,14 @@
         <v>622</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="63" t="s">
         <v>177</v>
       </c>
       <c r="B98" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="C98" s="144">
+      <c r="C98" s="96">
         <v>11</v>
       </c>
       <c r="D98" s="78" t="s">
@@ -7389,14 +7514,14 @@
         <v>623</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="87" t="s">
         <v>178</v>
       </c>
       <c r="B99" s="85" t="s">
         <v>442</v>
       </c>
-      <c r="C99" s="143">
+      <c r="C99" s="95">
         <v>11</v>
       </c>
       <c r="D99" s="88" t="s">
@@ -7415,14 +7540,14 @@
         <v>437</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="63" t="s">
         <v>179</v>
       </c>
       <c r="B100" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="C100" s="144">
+      <c r="C100" s="96">
         <v>11</v>
       </c>
       <c r="D100" s="78" t="s">
@@ -7441,14 +7566,14 @@
         <v>623</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="30">
       <c r="A101" s="87" t="s">
         <v>180</v>
       </c>
       <c r="B101" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="C101" s="143">
+      <c r="C101" s="95">
         <v>5</v>
       </c>
       <c r="D101" s="88" t="s">
@@ -7467,14 +7592,14 @@
         <v>637</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="63" t="s">
         <v>181</v>
       </c>
       <c r="B102" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="C102" s="144">
+      <c r="C102" s="96">
         <v>8</v>
       </c>
       <c r="D102" s="78" t="s">
@@ -7493,14 +7618,14 @@
         <v>635</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="87" t="s">
         <v>182</v>
       </c>
       <c r="B103" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="C103" s="143">
+      <c r="C103" s="95">
         <v>6</v>
       </c>
       <c r="D103" s="88" t="s">
@@ -7519,14 +7644,14 @@
         <v>535</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="30">
       <c r="A104" s="63" t="s">
         <v>556</v>
       </c>
       <c r="B104" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="C104" s="144">
+      <c r="C104" s="96">
         <v>5</v>
       </c>
       <c r="D104" s="78" t="s">
@@ -7545,14 +7670,14 @@
         <v>567</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="87" t="s">
         <v>557</v>
       </c>
       <c r="B105" s="85" t="s">
         <v>573</v>
       </c>
-      <c r="C105" s="143">
+      <c r="C105" s="95">
         <v>5</v>
       </c>
       <c r="D105" s="88" t="s">
@@ -7571,14 +7696,14 @@
         <v>638</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="30">
       <c r="A106" s="63" t="s">
         <v>558</v>
       </c>
       <c r="B106" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C106" s="144">
+      <c r="C106" s="96">
         <v>5</v>
       </c>
       <c r="D106" s="78" t="s">
@@ -7597,7 +7722,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="87" t="s">
         <v>559</v>
       </c>
@@ -7609,7 +7734,7 @@
       <c r="G107" s="84"/>
       <c r="H107" s="86"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="63" t="s">
         <v>560</v>
       </c>
@@ -7621,7 +7746,7 @@
       <c r="G108" s="65"/>
       <c r="H108" s="31"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="87" t="s">
         <v>561</v>
       </c>
@@ -7633,7 +7758,7 @@
       <c r="G109" s="84"/>
       <c r="H109" s="86"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15.75" thickBot="1">
       <c r="A110" s="73" t="s">
         <v>562</v>
       </c>
@@ -7645,105 +7770,105 @@
       <c r="G110" s="76"/>
       <c r="H110" s="32"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="47"/>
       <c r="B125" s="47"/>
       <c r="C125" s="44"/>
@@ -7752,7 +7877,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="42"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="47"/>
       <c r="B126" s="47"/>
       <c r="C126" s="44"/>
@@ -7761,7 +7886,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="42"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="47"/>
       <c r="B127" s="47"/>
       <c r="C127" s="44"/>
@@ -7770,7 +7895,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="42"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="47"/>
       <c r="B128" s="47"/>
       <c r="C128" s="44"/>
@@ -7779,7 +7904,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="42"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="47"/>
       <c r="B129" s="47"/>
       <c r="C129" s="44"/>
@@ -7788,7 +7913,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="42"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="47"/>
       <c r="B130" s="47"/>
       <c r="C130" s="44"/>
@@ -7797,7 +7922,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="42"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="47"/>
       <c r="B131" s="47"/>
       <c r="C131" s="44"/>
@@ -7806,7 +7931,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="42"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="47"/>
       <c r="B132" s="47"/>
       <c r="C132" s="44"/>
@@ -7815,7 +7940,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="42"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="47"/>
       <c r="B133" s="47"/>
       <c r="C133" s="44"/>
@@ -7824,7 +7949,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="42"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="47"/>
       <c r="B134" s="47"/>
       <c r="C134" s="44"/>
@@ -7833,7 +7958,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="42"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="47"/>
       <c r="B135" s="47"/>
       <c r="C135" s="44"/>
@@ -7842,7 +7967,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="42"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="47"/>
       <c r="B136" s="47"/>
       <c r="C136" s="44"/>
@@ -7851,7 +7976,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="42"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="47"/>
       <c r="B137" s="47"/>
       <c r="C137" s="44"/>
@@ -7860,7 +7985,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="42"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="47"/>
       <c r="B138" s="47"/>
       <c r="C138" s="44"/>
@@ -7869,7 +7994,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="42"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="47"/>
       <c r="B139" s="47"/>
       <c r="C139" s="44"/>
@@ -7878,7 +8003,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="42"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="47"/>
       <c r="B140" s="47"/>
       <c r="C140" s="44"/>
@@ -7887,7 +8012,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="42"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="47"/>
       <c r="B141" s="47"/>
       <c r="C141" s="44"/>
@@ -7896,7 +8021,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="42"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="47"/>
       <c r="B142" s="47"/>
       <c r="C142" s="44"/>
@@ -7905,7 +8030,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="42"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="47"/>
       <c r="B143" s="47"/>
       <c r="C143" s="44"/>
@@ -7914,7 +8039,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="42"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="47"/>
       <c r="B144" s="47"/>
       <c r="C144" s="44"/>
@@ -7923,7 +8048,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="42"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="47"/>
       <c r="B145" s="47"/>
       <c r="C145" s="44"/>
@@ -7932,7 +8057,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="42"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="47"/>
       <c r="B146" s="47"/>
       <c r="C146" s="44"/>
@@ -7941,7 +8066,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="42"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="47"/>
       <c r="B147" s="47"/>
       <c r="C147" s="44"/>
@@ -7950,7 +8075,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="42"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="47"/>
       <c r="B148" s="47"/>
       <c r="C148" s="44"/>
@@ -7959,7 +8084,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="42"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="47"/>
       <c r="B149" s="47"/>
       <c r="C149" s="44"/>
@@ -7968,7 +8093,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="42"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="47"/>
       <c r="B150" s="47"/>
       <c r="C150" s="44"/>
@@ -7977,7 +8102,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="42"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="47"/>
       <c r="B151" s="47"/>
       <c r="C151" s="44"/>
@@ -7986,7 +8111,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="42"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="47"/>
       <c r="B152" s="47"/>
       <c r="C152" s="44"/>
@@ -7995,7 +8120,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="42"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="47"/>
       <c r="B153" s="47"/>
       <c r="C153" s="44"/>
@@ -8004,7 +8129,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="42"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="47"/>
       <c r="B154" s="47"/>
       <c r="C154" s="44"/>
@@ -8013,7 +8138,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="42"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="47"/>
       <c r="B155" s="47"/>
       <c r="C155" s="44"/>
@@ -8022,7 +8147,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="42"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="47"/>
       <c r="B156" s="47"/>
       <c r="C156" s="44"/>
@@ -8031,7 +8156,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="42"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="47"/>
       <c r="B157" s="47"/>
       <c r="C157" s="44"/>
@@ -8040,7 +8165,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="42"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="47"/>
       <c r="B158" s="47"/>
       <c r="C158" s="44"/>
@@ -8049,7 +8174,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="42"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="47"/>
       <c r="B159" s="47"/>
       <c r="C159" s="44"/>
@@ -8058,7 +8183,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="42"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="47"/>
       <c r="B160" s="47"/>
       <c r="C160" s="44"/>
@@ -8067,7 +8192,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="42"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="47"/>
       <c r="B161" s="47"/>
       <c r="C161" s="44"/>
@@ -8076,7 +8201,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="42"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="47"/>
       <c r="B162" s="47"/>
       <c r="C162" s="44"/>
@@ -8085,7 +8210,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="42"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="47"/>
       <c r="B163" s="47"/>
       <c r="C163" s="44"/>
@@ -8094,7 +8219,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="42"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="47"/>
       <c r="B164" s="47"/>
       <c r="C164" s="44"/>
@@ -8103,7 +8228,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="42"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="47"/>
       <c r="B165" s="47"/>
       <c r="C165" s="44"/>
@@ -8112,7 +8237,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="42"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="47"/>
       <c r="B166" s="47"/>
       <c r="C166" s="44"/>
@@ -8121,7 +8246,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="42"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="47"/>
       <c r="B167" s="47"/>
       <c r="C167" s="44"/>
@@ -8130,7 +8255,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="42"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="47"/>
       <c r="B168" s="47"/>
       <c r="C168" s="44"/>
@@ -8139,7 +8264,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="42"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="47"/>
       <c r="B169" s="47"/>
       <c r="C169" s="44"/>
@@ -8148,7 +8273,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="42"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="47"/>
       <c r="B170" s="47"/>
       <c r="C170" s="44"/>
@@ -8157,7 +8282,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="42"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="47"/>
       <c r="B171" s="47"/>
       <c r="C171" s="44"/>
@@ -8166,7 +8291,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="42"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="47"/>
       <c r="B172" s="47"/>
       <c r="C172" s="44"/>
@@ -8175,7 +8300,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="42"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="47"/>
       <c r="B173" s="47"/>
       <c r="C173" s="44"/>
@@ -8184,7 +8309,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="42"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="47"/>
       <c r="B174" s="47"/>
       <c r="C174" s="44"/>
@@ -8193,7 +8318,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="42"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="47"/>
       <c r="B175" s="47"/>
       <c r="C175" s="44"/>
@@ -8202,7 +8327,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="42"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="47"/>
       <c r="B176" s="47"/>
       <c r="C176" s="44"/>
@@ -8211,7 +8336,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="42"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="47"/>
       <c r="B177" s="47"/>
       <c r="C177" s="44"/>
@@ -8220,7 +8345,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="42"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="47"/>
       <c r="B178" s="47"/>
       <c r="C178" s="44"/>
@@ -8229,7 +8354,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="42"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="47"/>
       <c r="B179" s="47"/>
       <c r="C179" s="44"/>
@@ -8238,7 +8363,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="42"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="47"/>
       <c r="B180" s="47"/>
       <c r="C180" s="44"/>
@@ -8247,7 +8372,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="42"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="47"/>
       <c r="B181" s="47"/>
       <c r="C181" s="44"/>
@@ -8256,7 +8381,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="42"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="47"/>
       <c r="B182" s="47"/>
       <c r="C182" s="44"/>
@@ -8265,7 +8390,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="42"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="47"/>
       <c r="B183" s="47"/>
       <c r="C183" s="44"/>
@@ -8274,7 +8399,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="42"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="47"/>
       <c r="B184" s="47"/>
       <c r="C184" s="44"/>
@@ -8283,7 +8408,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="42"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="47"/>
       <c r="B185" s="47"/>
       <c r="C185" s="44"/>
@@ -8292,7 +8417,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="42"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="47"/>
       <c r="B186" s="47"/>
       <c r="C186" s="44"/>
@@ -8301,7 +8426,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="42"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="47"/>
       <c r="B187" s="47"/>
       <c r="C187" s="44"/>
@@ -8310,7 +8435,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="42"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="47"/>
       <c r="B188" s="47"/>
       <c r="C188" s="44"/>
@@ -8319,7 +8444,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="42"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="47"/>
       <c r="B189" s="47"/>
       <c r="C189" s="44"/>
@@ -8328,7 +8453,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="42"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="47"/>
       <c r="B190" s="47"/>
       <c r="C190" s="44"/>
@@ -8337,7 +8462,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="42"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="47"/>
       <c r="B191" s="47"/>
       <c r="C191" s="44"/>
@@ -8346,7 +8471,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="42"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="47"/>
       <c r="B192" s="47"/>
       <c r="C192" s="44"/>
@@ -8355,7 +8480,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="42"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="47"/>
       <c r="B193" s="47"/>
       <c r="C193" s="44"/>
@@ -8364,7 +8489,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="42"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="47"/>
       <c r="B194" s="47"/>
       <c r="C194" s="44"/>
@@ -8373,7 +8498,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="42"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="47"/>
       <c r="B195" s="47"/>
       <c r="C195" s="44"/>
@@ -8382,7 +8507,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="42"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="47"/>
       <c r="B196" s="47"/>
       <c r="C196" s="44"/>
@@ -8391,7 +8516,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="42"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="47"/>
       <c r="B197" s="47"/>
       <c r="C197" s="44"/>
@@ -8400,7 +8525,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="42"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="47"/>
       <c r="B198" s="47"/>
       <c r="C198" s="44"/>
@@ -8409,7 +8534,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="42"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="47"/>
       <c r="B199" s="47"/>
       <c r="C199" s="44"/>
@@ -8418,7 +8543,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="42"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="47"/>
       <c r="B200" s="47"/>
       <c r="C200" s="44"/>
@@ -8427,7 +8552,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="42"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="47"/>
       <c r="B201" s="47"/>
       <c r="C201" s="44"/>
@@ -8436,7 +8561,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="42"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="47"/>
       <c r="B202" s="47"/>
       <c r="C202" s="44"/>
@@ -8445,7 +8570,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="42"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="47"/>
       <c r="B203" s="47"/>
       <c r="C203" s="44"/>
@@ -8454,7 +8579,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="42"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="47"/>
       <c r="B204" s="47"/>
       <c r="C204" s="44"/>
@@ -8463,7 +8588,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="42"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="47"/>
       <c r="B205" s="47"/>
       <c r="C205" s="44"/>
@@ -8472,7 +8597,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="42"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="47"/>
       <c r="B206" s="47"/>
       <c r="C206" s="44"/>
@@ -8481,7 +8606,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="42"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="47"/>
       <c r="B207" s="47"/>
       <c r="C207" s="44"/>
@@ -8490,7 +8615,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="42"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="47"/>
       <c r="B208" s="47"/>
       <c r="C208" s="44"/>
@@ -8499,7 +8624,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="42"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="47"/>
       <c r="B209" s="47"/>
       <c r="C209" s="44"/>
@@ -8508,7 +8633,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="42"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="47"/>
       <c r="B210" s="47"/>
       <c r="C210" s="44"/>
@@ -8517,7 +8642,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="42"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="47"/>
       <c r="B211" s="47"/>
       <c r="C211" s="44"/>
@@ -8526,7 +8651,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="42"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="47"/>
       <c r="B212" s="47"/>
       <c r="C212" s="44"/>
@@ -8535,7 +8660,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="42"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="47"/>
       <c r="B213" s="47"/>
       <c r="C213" s="44"/>
@@ -8544,7 +8669,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="42"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="47"/>
       <c r="B214" s="47"/>
       <c r="C214" s="44"/>
@@ -8553,7 +8678,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="42"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="47"/>
       <c r="B215" s="47"/>
       <c r="C215" s="44"/>
@@ -8562,7 +8687,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="42"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="47"/>
       <c r="B216" s="47"/>
       <c r="C216" s="44"/>
@@ -8571,7 +8696,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="42"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="47"/>
       <c r="B217" s="47"/>
       <c r="C217" s="44"/>
@@ -8580,7 +8705,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="42"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="47"/>
       <c r="B218" s="47"/>
       <c r="C218" s="44"/>
@@ -8589,7 +8714,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="42"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="47"/>
       <c r="B219" s="47"/>
       <c r="C219" s="44"/>
@@ -8598,7 +8723,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="42"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="47"/>
       <c r="B220" s="47"/>
       <c r="C220" s="44"/>
@@ -8607,7 +8732,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="42"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="47"/>
       <c r="B221" s="47"/>
       <c r="C221" s="44"/>
@@ -8616,7 +8741,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="42"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="47"/>
       <c r="B222" s="47"/>
       <c r="C222" s="44"/>
@@ -8625,7 +8750,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="42"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="47"/>
       <c r="B223" s="47"/>
       <c r="C223" s="44"/>
@@ -8634,7 +8759,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="42"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="47"/>
       <c r="B224" s="47"/>
       <c r="C224" s="44"/>
@@ -8643,7 +8768,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="42"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="47"/>
       <c r="B225" s="47"/>
       <c r="C225" s="44"/>
@@ -8652,7 +8777,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="42"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="47"/>
       <c r="B226" s="47"/>
       <c r="C226" s="44"/>
@@ -8661,7 +8786,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="42"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="47"/>
       <c r="B227" s="47"/>
       <c r="C227" s="44"/>
@@ -8670,7 +8795,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="42"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="47"/>
       <c r="B228" s="47"/>
       <c r="C228" s="44"/>
@@ -8679,7 +8804,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="42"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="47"/>
       <c r="B229" s="47"/>
       <c r="C229" s="44"/>
@@ -8688,7 +8813,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="42"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="47"/>
       <c r="B230" s="47"/>
       <c r="C230" s="44"/>
@@ -8697,7 +8822,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="42"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="47"/>
       <c r="B231" s="47"/>
       <c r="C231" s="44"/>
@@ -8706,7 +8831,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="42"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="47"/>
       <c r="B232" s="47"/>
       <c r="C232" s="44"/>
@@ -8715,7 +8840,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="42"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="47"/>
       <c r="B233" s="47"/>
       <c r="C233" s="44"/>
@@ -8724,7 +8849,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="42"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="47"/>
       <c r="B234" s="47"/>
       <c r="C234" s="44"/>
@@ -8733,7 +8858,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="42"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="47"/>
       <c r="B235" s="47"/>
       <c r="C235" s="44"/>
@@ -8742,7 +8867,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="42"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="47"/>
       <c r="B236" s="47"/>
       <c r="C236" s="44"/>
@@ -8751,7 +8876,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="42"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="47"/>
       <c r="B237" s="47"/>
       <c r="C237" s="44"/>
@@ -8760,7 +8885,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="42"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="47"/>
       <c r="B238" s="47"/>
       <c r="C238" s="44"/>
@@ -8769,7 +8894,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="42"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="47"/>
       <c r="B239" s="47"/>
       <c r="C239" s="44"/>
@@ -8778,7 +8903,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="42"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="47"/>
       <c r="B240" s="47"/>
       <c r="C240" s="44"/>
@@ -8787,7 +8912,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="42"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="47"/>
       <c r="B241" s="47"/>
       <c r="C241" s="44"/>
@@ -8796,7 +8921,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="42"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="47"/>
       <c r="B242" s="47"/>
       <c r="C242" s="44"/>
@@ -8805,7 +8930,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="42"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="47"/>
       <c r="B243" s="47"/>
       <c r="C243" s="44"/>
@@ -8814,7 +8939,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="42"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="47"/>
       <c r="B244" s="47"/>
       <c r="C244" s="44"/>
@@ -8823,7 +8948,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="42"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="47"/>
       <c r="B245" s="47"/>
       <c r="C245" s="44"/>
@@ -8832,7 +8957,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="42"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="47"/>
       <c r="B246" s="47"/>
       <c r="C246" s="44"/>
@@ -8841,7 +8966,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="42"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="47"/>
       <c r="B247" s="47"/>
       <c r="C247" s="44"/>
@@ -8850,7 +8975,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="42"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="47"/>
       <c r="B248" s="47"/>
       <c r="C248" s="44"/>
@@ -8859,7 +8984,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="42"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="47"/>
       <c r="B249" s="47"/>
       <c r="C249" s="44"/>
@@ -8868,7 +8993,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="42"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="47"/>
       <c r="B250" s="47"/>
       <c r="C250" s="44"/>
@@ -8877,7 +9002,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="42"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="47"/>
       <c r="B251" s="47"/>
       <c r="C251" s="44"/>
@@ -8886,7 +9011,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="42"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="47"/>
       <c r="B252" s="47"/>
       <c r="C252" s="44"/>
@@ -8895,7 +9020,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="42"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="47"/>
       <c r="B253" s="47"/>
       <c r="C253" s="44"/>
@@ -8904,7 +9029,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="42"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="47"/>
       <c r="B254" s="47"/>
       <c r="C254" s="44"/>
@@ -8913,7 +9038,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="42"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="47"/>
       <c r="B255" s="47"/>
       <c r="C255" s="44"/>
@@ -8922,7 +9047,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="42"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="47"/>
       <c r="B256" s="47"/>
       <c r="C256" s="44"/>
@@ -8931,7 +9056,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="42"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="47"/>
       <c r="B257" s="47"/>
       <c r="C257" s="44"/>
@@ -8940,7 +9065,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="42"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="47"/>
       <c r="B258" s="47"/>
       <c r="C258" s="44"/>
@@ -8949,7 +9074,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="42"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="47"/>
       <c r="B259" s="47"/>
       <c r="C259" s="44"/>
@@ -8958,7 +9083,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="42"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="47"/>
       <c r="B260" s="47"/>
       <c r="C260" s="44"/>
@@ -8967,7 +9092,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="42"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="47"/>
       <c r="B261" s="47"/>
       <c r="C261" s="44"/>
@@ -8976,7 +9101,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="42"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="47"/>
       <c r="B262" s="47"/>
       <c r="C262" s="44"/>
@@ -8985,7 +9110,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="42"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="47"/>
       <c r="B263" s="47"/>
       <c r="C263" s="44"/>
@@ -8994,7 +9119,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="42"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="47"/>
       <c r="B264" s="47"/>
       <c r="C264" s="44"/>
@@ -9003,7 +9128,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="42"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="47"/>
       <c r="B265" s="47"/>
       <c r="C265" s="44"/>
@@ -9012,7 +9137,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="42"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="47"/>
       <c r="B266" s="47"/>
       <c r="C266" s="44"/>
@@ -9021,7 +9146,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="42"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="47"/>
       <c r="B267" s="47"/>
       <c r="C267" s="44"/>
@@ -9030,7 +9155,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="42"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="47"/>
       <c r="B268" s="47"/>
       <c r="C268" s="44"/>
@@ -9039,7 +9164,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="42"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="47"/>
       <c r="B269" s="47"/>
       <c r="C269" s="44"/>
@@ -9048,7 +9173,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="42"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="47"/>
       <c r="B270" s="47"/>
       <c r="C270" s="44"/>
@@ -9057,7 +9182,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="42"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="47"/>
       <c r="B271" s="47"/>
       <c r="C271" s="44"/>
@@ -9066,7 +9191,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="42"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="47"/>
       <c r="B272" s="47"/>
       <c r="C272" s="44"/>
@@ -9075,7 +9200,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="42"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="47"/>
       <c r="B273" s="47"/>
       <c r="C273" s="44"/>
@@ -9084,7 +9209,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="42"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="47"/>
       <c r="B274" s="47"/>
       <c r="C274" s="44"/>
@@ -9093,7 +9218,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="42"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="47"/>
       <c r="B275" s="47"/>
       <c r="C275" s="44"/>
@@ -9102,7 +9227,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="42"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="47"/>
       <c r="B276" s="47"/>
       <c r="C276" s="44"/>
@@ -9111,7 +9236,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="42"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="47"/>
       <c r="B277" s="47"/>
       <c r="C277" s="44"/>
@@ -9120,7 +9245,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="42"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" s="47"/>
       <c r="B278" s="47"/>
       <c r="C278" s="44"/>
@@ -9129,7 +9254,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="42"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" s="47"/>
       <c r="B279" s="47"/>
       <c r="C279" s="44"/>
@@ -9138,7 +9263,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="42"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" s="47"/>
       <c r="B280" s="47"/>
       <c r="C280" s="44"/>
@@ -9147,7 +9272,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="42"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" s="47"/>
       <c r="B281" s="47"/>
       <c r="C281" s="44"/>
@@ -9156,7 +9281,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="42"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" s="47"/>
       <c r="B282" s="47"/>
       <c r="C282" s="44"/>
@@ -9165,7 +9290,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="42"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" s="47"/>
       <c r="B283" s="47"/>
       <c r="C283" s="44"/>
@@ -9174,7 +9299,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="42"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" s="47"/>
       <c r="B284" s="47"/>
       <c r="C284" s="44"/>
@@ -9183,7 +9308,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="42"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" s="47"/>
       <c r="B285" s="47"/>
       <c r="C285" s="44"/>
@@ -9192,7 +9317,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="42"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" s="47"/>
       <c r="B286" s="47"/>
       <c r="C286" s="44"/>
@@ -9201,7 +9326,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="42"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" s="47"/>
       <c r="B287" s="47"/>
       <c r="C287" s="44"/>
@@ -9210,7 +9335,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="42"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" s="47"/>
       <c r="B288" s="47"/>
       <c r="C288" s="44"/>
@@ -9219,7 +9344,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="42"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" s="47"/>
       <c r="B289" s="47"/>
       <c r="C289" s="44"/>
@@ -9228,7 +9353,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="42"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" s="47"/>
       <c r="B290" s="47"/>
       <c r="C290" s="44"/>
@@ -9237,7 +9362,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="42"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" s="47"/>
       <c r="B291" s="47"/>
       <c r="C291" s="44"/>
@@ -9246,7 +9371,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="42"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" s="47"/>
       <c r="B292" s="47"/>
       <c r="C292" s="44"/>
@@ -9255,7 +9380,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="42"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" s="47"/>
       <c r="B293" s="47"/>
       <c r="C293" s="44"/>
@@ -9264,7 +9389,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="42"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" s="47"/>
       <c r="B294" s="47"/>
       <c r="C294" s="44"/>
@@ -9273,7 +9398,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="42"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" s="47"/>
       <c r="B295" s="47"/>
       <c r="C295" s="44"/>
@@ -9282,7 +9407,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="42"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" s="47"/>
       <c r="B296" s="47"/>
       <c r="C296" s="44"/>
@@ -9291,7 +9416,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="42"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" s="47"/>
       <c r="B297" s="47"/>
       <c r="C297" s="44"/>
@@ -9300,7 +9425,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="42"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" s="47"/>
       <c r="B298" s="47"/>
       <c r="C298" s="44"/>
@@ -9309,7 +9434,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="42"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" s="47"/>
       <c r="B299" s="47"/>
       <c r="C299" s="44"/>
@@ -9318,7 +9443,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="42"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" s="47"/>
       <c r="B300" s="47"/>
       <c r="C300" s="44"/>
@@ -9327,7 +9452,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="42"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" s="47"/>
       <c r="B301" s="47"/>
       <c r="C301" s="44"/>
@@ -9336,7 +9461,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="42"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" s="47"/>
       <c r="B302" s="47"/>
       <c r="C302" s="44"/>
@@ -9345,7 +9470,7 @@
       <c r="F302" s="1"/>
       <c r="G302" s="42"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" s="47"/>
       <c r="B303" s="47"/>
       <c r="C303" s="44"/>
@@ -9354,7 +9479,7 @@
       <c r="F303" s="1"/>
       <c r="G303" s="42"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" s="47"/>
       <c r="B304" s="47"/>
       <c r="C304" s="44"/>
@@ -9363,7 +9488,7 @@
       <c r="F304" s="1"/>
       <c r="G304" s="42"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" s="47"/>
       <c r="B305" s="47"/>
       <c r="C305" s="44"/>
@@ -9372,7 +9497,7 @@
       <c r="F305" s="1"/>
       <c r="G305" s="42"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" s="47"/>
       <c r="B306" s="47"/>
       <c r="C306" s="44"/>
@@ -9381,7 +9506,7 @@
       <c r="F306" s="1"/>
       <c r="G306" s="42"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" s="47"/>
       <c r="B307" s="47"/>
       <c r="C307" s="44"/>
@@ -9390,7 +9515,7 @@
       <c r="F307" s="1"/>
       <c r="G307" s="42"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" s="47"/>
       <c r="B308" s="47"/>
       <c r="C308" s="44"/>
@@ -9399,7 +9524,7 @@
       <c r="F308" s="1"/>
       <c r="G308" s="42"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" s="47"/>
       <c r="B309" s="47"/>
       <c r="C309" s="44"/>
@@ -9408,7 +9533,7 @@
       <c r="F309" s="1"/>
       <c r="G309" s="42"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" s="47"/>
       <c r="B310" s="47"/>
       <c r="C310" s="44"/>
@@ -9417,7 +9542,7 @@
       <c r="F310" s="1"/>
       <c r="G310" s="42"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" s="47"/>
       <c r="B311" s="47"/>
       <c r="C311" s="44"/>
@@ -9426,7 +9551,7 @@
       <c r="F311" s="1"/>
       <c r="G311" s="42"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" s="47"/>
       <c r="B312" s="47"/>
       <c r="C312" s="44"/>
@@ -9435,7 +9560,7 @@
       <c r="F312" s="1"/>
       <c r="G312" s="42"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" s="47"/>
       <c r="B313" s="47"/>
       <c r="C313" s="44"/>
@@ -9444,7 +9569,7 @@
       <c r="F313" s="1"/>
       <c r="G313" s="42"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" s="47"/>
       <c r="B314" s="47"/>
       <c r="C314" s="44"/>
@@ -9453,7 +9578,7 @@
       <c r="F314" s="1"/>
       <c r="G314" s="42"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" s="47"/>
       <c r="B315" s="47"/>
       <c r="C315" s="44"/>
@@ -9462,7 +9587,7 @@
       <c r="F315" s="1"/>
       <c r="G315" s="42"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" s="47"/>
       <c r="B316" s="47"/>
       <c r="C316" s="44"/>
@@ -9471,7 +9596,7 @@
       <c r="F316" s="1"/>
       <c r="G316" s="42"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" s="47"/>
       <c r="B317" s="47"/>
       <c r="C317" s="44"/>
@@ -9485,15 +9610,15 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A21" r:id="rId4"/>
+    <hyperlink ref="A22" r:id="rId5"/>
+    <hyperlink ref="A23" r:id="rId6"/>
+    <hyperlink ref="A24" r:id="rId7"/>
+    <hyperlink ref="A25" r:id="rId8"/>
+    <hyperlink ref="A26" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId10"/>
@@ -9502,14 +9627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -9521,55 +9646,55 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:11" ht="49.9" customHeight="1">
+      <c r="A1" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="122"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="126" t="s">
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="128"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="19" t="s">
         <v>44</v>
       </c>
@@ -9598,7 +9723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -9611,7 +9736,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -9624,7 +9749,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -9637,7 +9762,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -9650,7 +9775,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -9663,7 +9788,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -9676,7 +9801,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -9689,7 +9814,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -9702,7 +9827,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9713,20 +9838,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="111"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="115"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
@@ -9739,156 +9864,160 @@
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="112" t="s">
+      <c r="E16" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="115"/>
-      <c r="G16" s="112" t="s">
+      <c r="F16" s="123"/>
+      <c r="G16" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="7">
         <v>1</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="107"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
       <c r="K17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="7">
         <v>2</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="107"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="116"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="122"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="7">
         <v>3</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="116"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="122"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="7">
         <v>4</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="107"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="122"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="107"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="7">
         <v>6</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="107"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="7">
         <v>7</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="107"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="122"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="7">
         <v>8</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="116"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="122"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="7">
         <v>9</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="124"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="127"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="8">
         <v>10</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="104"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -9903,15 +10032,11 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9920,14 +10045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -9939,53 +10064,53 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:17" ht="49.9" customHeight="1">
+      <c r="A1" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A2" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="121" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="122"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="126" t="s">
+      <c r="I2" s="106"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:17" ht="15.75">
+      <c r="A4" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="128"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="19" t="s">
         <v>44</v>
       </c>
@@ -10017,7 +10142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="34.5">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -10045,17 +10170,17 @@
       <c r="I6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -10083,17 +10208,17 @@
       <c r="I7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="129" t="s">
+      <c r="K7" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -10122,7 +10247,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -10135,7 +10260,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -10148,7 +10273,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -10161,7 +10286,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -10174,7 +10299,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -10187,7 +10312,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10198,20 +10323,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
+    <row r="15" spans="1:17" ht="15.75">
+      <c r="A15" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="111"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="115"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="19" t="s">
         <v>44</v>
       </c>
@@ -10224,17 +10349,17 @@
       <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="134" t="s">
+      <c r="E16" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134" t="s">
+      <c r="F16" s="132"/>
+      <c r="G16" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="134"/>
-      <c r="I16" s="135"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="132"/>
+      <c r="I16" s="133"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="7">
         <v>1</v>
       </c>
@@ -10247,17 +10372,17 @@
       <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="130" t="s">
+      <c r="E17" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="131"/>
-      <c r="G17" s="130" t="s">
+      <c r="F17" s="135"/>
+      <c r="G17" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="133"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H17" s="136"/>
+      <c r="I17" s="137"/>
+    </row>
+    <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="7">
         <v>2</v>
       </c>
@@ -10270,17 +10395,17 @@
       <c r="D18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="130" t="s">
+      <c r="E18" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="131"/>
-      <c r="G18" s="130" t="s">
+      <c r="F18" s="135"/>
+      <c r="G18" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="132"/>
-      <c r="I18" s="133"/>
-    </row>
-    <row r="19" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="H18" s="136"/>
+      <c r="I18" s="137"/>
+    </row>
+    <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="7">
         <v>3</v>
       </c>
@@ -10293,129 +10418,115 @@
       <c r="D19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="130" t="s">
+      <c r="E19" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="130" t="s">
+      <c r="F19" s="135"/>
+      <c r="G19" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="132"/>
-      <c r="I19" s="133"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="137"/>
       <c r="K19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="7">
         <v>4</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="107"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="122"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="107"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
       <c r="K21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="7">
         <v>6</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="107"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="7">
         <v>7</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="107"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="122"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="7">
         <v>8</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="116"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="122"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="7">
         <v>9</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="124"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="127"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="8">
         <v>10</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="104"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -10432,6 +10543,20 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10440,32 +10565,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="J1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="136" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="21" t="s">
         <v>54</v>
       </c>
@@ -10476,7 +10601,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="51" t="s">
         <v>76</v>
       </c>
@@ -10487,7 +10612,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="60">
       <c r="A8" s="53" t="s">
         <v>69</v>
       </c>
@@ -10498,7 +10623,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="33.75" customHeight="1">
       <c r="A9" s="52" t="s">
         <v>61</v>
       </c>
@@ -10509,7 +10634,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45">
       <c r="A10" s="54" t="s">
         <v>89</v>
       </c>
@@ -10520,7 +10645,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A5:C5"/>
@@ -10531,30 +10656,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="58.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="137" t="s">
+    <row r="2" spans="2:15" ht="15.75">
+      <c r="B2" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="137"/>
+      <c r="C2" s="140"/>
       <c r="O2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15" customHeight="1">
       <c r="B3" s="36" t="s">
         <v>225</v>
       </c>
@@ -10562,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="15.75" customHeight="1">
       <c r="B4" s="39">
         <v>1</v>
       </c>
@@ -10573,7 +10698,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="39">
         <v>2</v>
       </c>
@@ -10584,7 +10709,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="39">
         <v>3</v>
       </c>
@@ -10595,7 +10720,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="39">
         <v>4</v>
       </c>
@@ -10606,7 +10731,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="39">
         <v>5</v>
       </c>
@@ -10617,7 +10742,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="39">
         <v>6</v>
       </c>
@@ -10628,7 +10753,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="39">
         <v>7</v>
       </c>
@@ -10639,7 +10764,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="15.75" customHeight="1">
       <c r="B11" s="39">
         <v>8</v>
       </c>
@@ -10650,7 +10775,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="39">
         <v>9</v>
       </c>
@@ -10661,7 +10786,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="39">
         <v>10</v>
       </c>
@@ -10672,7 +10797,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="39">
         <v>11</v>
       </c>
@@ -10683,7 +10808,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="39">
         <v>12</v>
       </c>
@@ -10694,7 +10819,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="39">
         <v>13</v>
       </c>
@@ -10705,7 +10830,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="39">
         <v>14</v>
       </c>
@@ -10716,46 +10841,46 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="39"/>
       <c r="C18" s="24"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="39"/>
       <c r="C19" s="24"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="39"/>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="39"/>
       <c r="C21" s="24"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" s="39"/>
       <c r="C22" s="24"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" s="39"/>
       <c r="C23" s="24"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" s="39"/>
       <c r="C24" s="24"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="B25" s="39"/>
       <c r="C25" s="24"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="B26" s="39"/>
       <c r="C26" s="24"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" s="40"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="C31" t="s">
         <v>229</v>
       </c>
@@ -10770,83 +10895,83 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="J2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="139" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="136"/>
-    </row>
-    <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="139"/>
+    </row>
+    <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="138"/>
-    </row>
-    <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="141"/>
+    </row>
+    <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="141" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="138"/>
-    </row>
-    <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="141"/>
+    </row>
+    <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="141" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="138"/>
-    </row>
-    <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="141"/>
+    </row>
+    <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="141" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="138"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="137" t="s">
+      <c r="C8" s="141"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="B13" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="137"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="140"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
       <c r="B14" s="36" t="s">
         <v>225</v>
       </c>
@@ -10854,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="39">
         <v>1</v>
       </c>
@@ -10865,7 +10990,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="39">
         <v>2</v>
       </c>
@@ -10876,7 +11001,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="39">
         <v>3</v>
       </c>
@@ -10887,7 +11012,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="39">
         <v>4</v>
       </c>
@@ -10898,7 +11023,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="39">
         <v>5</v>
       </c>
@@ -10909,7 +11034,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="39">
         <v>6</v>
       </c>
@@ -10920,7 +11045,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="39">
         <v>7</v>
       </c>
@@ -10931,7 +11056,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" s="39">
         <v>8</v>
       </c>
@@ -10942,7 +11067,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" s="39">
         <v>9</v>
       </c>
@@ -10953,7 +11078,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" s="39">
         <v>10</v>
       </c>
@@ -10964,7 +11089,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="B25" s="39">
         <v>11</v>
       </c>
@@ -10975,7 +11100,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="B26" s="39">
         <v>12</v>
       </c>
@@ -10986,7 +11111,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" s="39">
         <v>13</v>
       </c>
@@ -10997,7 +11122,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="39">
         <v>14</v>
       </c>
@@ -11008,39 +11133,39 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="B29" s="39"/>
       <c r="C29" s="24"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="B30" s="39"/>
       <c r="C30" s="24"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="B31" s="39"/>
       <c r="C31" s="24"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="B32" s="39"/>
       <c r="C32" s="24"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" s="39"/>
       <c r="C33" s="24"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" s="39"/>
       <c r="C34" s="24"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" s="39"/>
       <c r="C35" s="24"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36" s="39"/>
       <c r="C36" s="24"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37" s="39"/>
       <c r="C37" s="24"/>
     </row>
@@ -11060,32 +11185,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="64.28515625" customWidth="1"/>
     <col min="4" max="4" width="52.42578125" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:10" ht="15.75">
+      <c r="B2" s="142" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
       <c r="J2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="55" t="s">
         <v>227</v>
       </c>
@@ -11096,7 +11221,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="90">
       <c r="B4" s="57" t="s">
         <v>253</v>
       </c>
@@ -11107,7 +11232,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="75">
       <c r="B5" s="57" t="s">
         <v>256</v>
       </c>
@@ -11118,7 +11243,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="42" customHeight="1">
       <c r="B6" s="57" t="s">
         <v>258</v>
       </c>
@@ -11129,7 +11254,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="75">
       <c r="B7" s="57" t="s">
         <v>254</v>
       </c>
@@ -11140,7 +11265,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="75">
       <c r="B8" s="57" t="s">
         <v>252</v>
       </c>
@@ -11151,7 +11276,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="84" customHeight="1">
       <c r="B9" s="57" t="s">
         <v>255</v>
       </c>
@@ -11162,7 +11287,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="75">
       <c r="B10" s="60" t="s">
         <v>257</v>
       </c>
@@ -11173,7 +11298,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
       <c r="B11" s="61" t="s">
         <v>265</v>
       </c>
@@ -11184,7 +11309,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
@@ -11196,24 +11321,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -11221,8 +11346,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -11232,8 +11357,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>

--- a/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
+++ b/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
@@ -3079,6 +3079,63 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3118,61 +3175,19 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3180,21 +3195,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3252,7 +3252,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3297,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3347,7 +3347,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3392,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3442,7 +3442,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3487,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3537,7 +3537,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,7 +3590,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3682,7 +3682,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3740,7 +3740,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3793,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,7 +3846,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,7 +3944,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3997,7 +3997,7 @@
         <xdr:cNvPr id="4" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4050,7 +4050,7 @@
         <xdr:cNvPr id="5" name="TekstSylinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4144,7 @@
         <xdr:cNvPr id="5" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4197,7 +4197,7 @@
         <xdr:cNvPr id="6" name="TekstSylinder 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4292,7 +4292,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4350,7 +4350,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000010C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4403,7 +4403,7 @@
         <xdr:cNvPr id="3074" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000020C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4456,7 +4456,7 @@
         <xdr:cNvPr id="3075" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000030C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000030C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,7 +4509,7 @@
         <xdr:cNvPr id="3076" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000040C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4562,7 +4562,7 @@
         <xdr:cNvPr id="3077" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000050C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000050C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4615,7 +4615,7 @@
         <xdr:cNvPr id="3078" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000060C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4668,7 +4668,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5007,7 +5007,7 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="40" customWidth="1"/>
-    <col min="8" max="8" width="65.140625" customWidth="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.9" customHeight="1" thickBot="1">
@@ -9647,34 +9647,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="106"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
@@ -9682,17 +9682,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="19" t="s">
@@ -9839,17 +9839,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
@@ -9864,15 +9864,15 @@
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="118" t="s">
+      <c r="E16" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="123"/>
-      <c r="G16" s="118" t="s">
+      <c r="F16" s="118"/>
+      <c r="G16" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="117"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
@@ -9881,11 +9881,11 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
       <c r="K17" t="s">
         <v>56</v>
       </c>
@@ -9897,11 +9897,11 @@
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="122"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="110"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7">
@@ -9910,11 +9910,11 @@
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="122"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="110"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7">
@@ -9923,11 +9923,11 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="110"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7">
@@ -9936,11 +9936,11 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="110"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7">
@@ -9949,11 +9949,11 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7">
@@ -9962,11 +9962,11 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7">
@@ -9975,11 +9975,11 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="110"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7">
@@ -9988,11 +9988,11 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="127"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="103"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="8">
@@ -10001,23 +10001,19 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="131"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -10032,11 +10028,15 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10065,50 +10065,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="105" t="s">
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="106"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="19" t="s">
@@ -10170,15 +10170,15 @@
       <c r="I6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="138" t="s">
+      <c r="K6" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="9">
@@ -10208,15 +10208,15 @@
       <c r="I7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="138" t="s">
+      <c r="K7" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="9">
@@ -10324,17 +10324,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="19" t="s">
@@ -10349,15 +10349,15 @@
       <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="132" t="s">
+      <c r="E16" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132" t="s">
+      <c r="F16" s="137"/>
+      <c r="G16" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="132"/>
-      <c r="I16" s="133"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
@@ -10372,15 +10372,15 @@
       <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="134" t="s">
+      <c r="E17" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="135"/>
-      <c r="G17" s="134" t="s">
+      <c r="F17" s="134"/>
+      <c r="G17" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="137"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="136"/>
     </row>
     <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="7">
@@ -10395,15 +10395,15 @@
       <c r="D18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="134" t="s">
+      <c r="E18" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="135"/>
-      <c r="G18" s="134" t="s">
+      <c r="F18" s="134"/>
+      <c r="G18" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="136"/>
-      <c r="I18" s="137"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="136"/>
     </row>
     <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="7">
@@ -10418,15 +10418,15 @@
       <c r="D19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="134" t="s">
+      <c r="F19" s="134"/>
+      <c r="G19" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="136"/>
-      <c r="I19" s="137"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="136"/>
       <c r="K19" t="s">
         <v>56</v>
       </c>
@@ -10438,11 +10438,11 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="110"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7">
@@ -10451,11 +10451,11 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="110"/>
       <c r="K21" t="s">
         <v>81</v>
       </c>
@@ -10467,11 +10467,11 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7">
@@ -10480,11 +10480,11 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7">
@@ -10493,11 +10493,11 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="110"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7">
@@ -10506,11 +10506,11 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="127"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="103"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="8">
@@ -10519,14 +10519,28 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="131"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -10543,20 +10557,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
+++ b/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4038E8-DD05-4576-BF84-79ACBAB712B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15900" windowWidth="29040" windowHeight="15900"/>
+    <workbookView xWindow="37125" yWindow="15900" windowWidth="20475" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Target List" sheetId="1" r:id="rId1"/>
@@ -2144,8 +2145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2241,6 +2242,29 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2792,7 +2816,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2862,18 +2886,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2990,15 +3008,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3061,9 +3070,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3079,6 +3085,78 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3103,99 +3181,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3214,9 +3220,48 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3252,7 +3297,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3342,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3347,7 +3392,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3437,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3442,7 +3487,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3532,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3537,7 +3582,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,7 +3635,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3682,7 +3727,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3740,7 +3785,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3838,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,7 +3891,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,7 +3989,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3997,7 +4042,7 @@
         <xdr:cNvPr id="4" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4050,7 +4095,7 @@
         <xdr:cNvPr id="5" name="TekstSylinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4189,7 @@
         <xdr:cNvPr id="5" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4197,7 +4242,7 @@
         <xdr:cNvPr id="6" name="TekstSylinder 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4292,7 +4337,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4350,7 +4395,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000010C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4403,7 +4448,7 @@
         <xdr:cNvPr id="3074" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000020C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4456,7 +4501,7 @@
         <xdr:cNvPr id="3075" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000030C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000030C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,7 +4554,7 @@
         <xdr:cNvPr id="3076" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000040C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4562,7 +4607,7 @@
         <xdr:cNvPr id="3077" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000050C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000050C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4615,7 +4660,7 @@
         <xdr:cNvPr id="3078" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000060C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4668,7 +4713,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4707,7 +4752,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4749,7 +4794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4781,9 +4826,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4815,6 +4878,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4990,61 +5071,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="43" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="38" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="38" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.9" customHeight="1" thickBot="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>588</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="90"/>
-    </row>
-    <row r="3" spans="1:8" ht="29.45" customHeight="1" thickBot="1">
+      <c r="G2" s="39"/>
+      <c r="H2" s="85"/>
+    </row>
+    <row r="3" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="67" t="s">
         <v>215</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -5053,76 +5134,76 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="76" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="140" t="s">
         <v>546</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="141">
         <v>2</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="143" t="s">
         <v>548</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="143" t="s">
         <v>549</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="144" t="s">
         <v>550</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="145" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="82" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="147" t="s">
         <v>547</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="148">
         <v>2</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="150" t="s">
         <v>551</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="150" t="s">
         <v>552</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="149" t="s">
         <v>550</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="151" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="90">
         <v>5</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="63" t="s">
         <v>104</v>
       </c>
       <c r="E6" s="26" t="s">
@@ -5131,50 +5212,50 @@
       <c r="F6" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="63" t="s">
         <v>550</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="29" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="87" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="80" t="s">
         <v>568</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="89">
         <v>5</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="80" t="s">
         <v>569</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="80" t="s">
         <v>570</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="81" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="C8" s="96">
+      <c r="C8" s="90">
         <v>6</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="26" t="s">
@@ -5183,50 +5264,50 @@
       <c r="F8" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="29" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="87" t="s">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="80" t="s">
         <v>536</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="89">
         <v>6</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="80" t="s">
         <v>537</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="80" t="s">
         <v>538</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="79" t="s">
         <v>539</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="81" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="63" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="62">
         <v>9</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E10" s="26" t="s">
@@ -5235,50 +5316,50 @@
       <c r="F10" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="29" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="87" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="78">
         <v>9</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="80" t="s">
         <v>371</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="81" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="63" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="62">
         <v>9</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E12" s="26" t="s">
@@ -5287,50 +5368,50 @@
       <c r="F12" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="63">
         <v>2484</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="29" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="87" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="78">
         <v>9</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="80" t="s">
         <v>358</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="79">
         <v>1654</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="81" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="63" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="62">
         <v>9</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="26" t="s">
@@ -5339,50 +5420,50 @@
       <c r="F14" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="29" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="87" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="78">
         <v>9</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="79">
         <v>1152</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="81" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="63" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="62">
         <v>9</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="26" t="s">
@@ -5391,50 +5472,50 @@
       <c r="F16" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="29" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="87" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="78">
         <v>9</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="80" t="s">
         <v>392</v>
       </c>
-      <c r="F17" s="85" t="s">
+      <c r="F17" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="79">
         <v>2096</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="81" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="63" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="62">
         <v>9</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E18" s="26" t="s">
@@ -5443,50 +5524,50 @@
       <c r="F18" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="63" t="s">
         <v>449</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="29" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="87" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="83">
+      <c r="C19" s="78">
         <v>9</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="F19" s="85" t="s">
+      <c r="F19" s="80" t="s">
         <v>331</v>
       </c>
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="79" t="s">
         <v>332</v>
       </c>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="81" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="63" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="62">
         <v>9</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E20" s="26" t="s">
@@ -5495,50 +5576,50 @@
       <c r="F20" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="29" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="50" customFormat="1">
-      <c r="A21" s="82" t="s">
+    <row r="21" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="83">
+      <c r="C21" s="78">
         <v>9</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="F21" s="85" t="s">
+      <c r="F21" s="80" t="s">
         <v>352</v>
       </c>
-      <c r="G21" s="84" t="s">
+      <c r="G21" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="81" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
-      <c r="A22" s="67" t="s">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="62">
         <v>9</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="63" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="26" t="s">
@@ -5547,50 +5628,50 @@
       <c r="F22" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="63" t="s">
         <v>516</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="29" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30">
-      <c r="A23" s="82" t="s">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="83">
+      <c r="C23" s="78">
         <v>9</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="80" t="s">
         <v>527</v>
       </c>
-      <c r="F23" s="85" t="s">
+      <c r="F23" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="G23" s="84" t="s">
+      <c r="G23" s="79" t="s">
         <v>529</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="81" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="67" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="62">
         <v>9</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E24" s="26" t="s">
@@ -5599,50 +5680,50 @@
       <c r="F24" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="29" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="82" t="s">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="80" t="s">
         <v>364</v>
       </c>
-      <c r="F25" s="85" t="s">
+      <c r="F25" s="80" t="s">
         <v>365</v>
       </c>
-      <c r="G25" s="84" t="s">
+      <c r="G25" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="H25" s="86" t="s">
+      <c r="H25" s="81" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30">
-      <c r="A26" s="67" t="s">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E26" s="26" t="s">
@@ -5651,50 +5732,50 @@
       <c r="F26" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="63">
         <v>1352</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="29" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="87" t="s">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="83">
+      <c r="C27" s="78">
         <v>9</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="80" t="s">
         <v>495</v>
       </c>
-      <c r="F27" s="85" t="s">
+      <c r="F27" s="80" t="s">
         <v>496</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="G27" s="79" t="s">
         <v>497</v>
       </c>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="81" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="63" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="62">
         <v>9</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E28" s="26" t="s">
@@ -5703,50 +5784,50 @@
       <c r="F28" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="29" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="87" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="83">
+      <c r="C29" s="78">
         <v>9</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="80" t="s">
         <v>491</v>
       </c>
-      <c r="F29" s="85" t="s">
+      <c r="F29" s="80" t="s">
         <v>492</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="79" t="s">
         <v>493</v>
       </c>
-      <c r="H29" s="86" t="s">
+      <c r="H29" s="81" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="63" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="62">
         <v>9</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E30" s="26" t="s">
@@ -5755,50 +5836,50 @@
       <c r="F30" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="63">
         <v>2644</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="29" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="87" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="83">
+      <c r="C31" s="78">
         <v>9</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="85" t="s">
+      <c r="E31" s="80" t="s">
         <v>517</v>
       </c>
-      <c r="F31" s="85" t="s">
+      <c r="F31" s="80" t="s">
         <v>518</v>
       </c>
-      <c r="G31" s="84" t="s">
+      <c r="G31" s="79" t="s">
         <v>519</v>
       </c>
-      <c r="H31" s="86" t="s">
+      <c r="H31" s="81" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="63" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="61" t="s">
         <v>111</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="62">
         <v>9</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="73" t="s">
         <v>107</v>
       </c>
       <c r="E32" s="26" t="s">
@@ -5807,50 +5888,50 @@
       <c r="F32" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="63" t="s">
         <v>522</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="29" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="87" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="83">
+      <c r="C33" s="78">
         <v>9</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="D33" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="80" t="s">
         <v>487</v>
       </c>
-      <c r="F33" s="85" t="s">
+      <c r="F33" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="G33" s="79" t="s">
         <v>489</v>
       </c>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="81" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30">
-      <c r="A34" s="63" t="s">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="61" t="s">
         <v>113</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="62">
         <v>9</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="26" t="s">
@@ -5859,50 +5940,50 @@
       <c r="F34" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="63" t="s">
         <v>501</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="29" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="87" t="s">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="83">
+      <c r="C35" s="78">
         <v>9</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="85" t="s">
+      <c r="E35" s="80" t="s">
         <v>503</v>
       </c>
-      <c r="F35" s="85" t="s">
+      <c r="F35" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="79" t="s">
         <v>497</v>
       </c>
-      <c r="H35" s="86" t="s">
+      <c r="H35" s="81" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="45">
-      <c r="A36" s="63" t="s">
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
         <v>115</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="62">
         <v>9</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="D36" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="26" t="s">
@@ -5911,50 +5992,50 @@
       <c r="F36" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="G36" s="65" t="s">
+      <c r="G36" s="63" t="s">
         <v>512</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H36" s="29" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45">
-      <c r="A37" s="87" t="s">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="D37" s="88" t="s">
+      <c r="D37" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="85" t="s">
+      <c r="E37" s="80" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="85" t="s">
+      <c r="F37" s="80" t="s">
         <v>477</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="G37" s="79" t="s">
         <v>478</v>
       </c>
-      <c r="H37" s="86" t="s">
+      <c r="H37" s="81" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="45">
-      <c r="A38" s="63" t="s">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="61" t="s">
         <v>117</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="73" t="s">
         <v>104</v>
       </c>
       <c r="E38" s="26" t="s">
@@ -5963,50 +6044,50 @@
       <c r="F38" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="G38" s="65" t="s">
+      <c r="G38" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="29" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="87" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="83">
+      <c r="C39" s="78">
         <v>3</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="85" t="s">
+      <c r="E39" s="80" t="s">
         <v>642</v>
       </c>
-      <c r="F39" s="85" t="s">
+      <c r="F39" s="80" t="s">
         <v>643</v>
       </c>
-      <c r="G39" s="84" t="s">
+      <c r="G39" s="79" t="s">
         <v>644</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="63" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="61" t="s">
         <v>119</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="64">
+      <c r="C40" s="62">
         <v>3</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="26" t="s">
@@ -6015,50 +6096,50 @@
       <c r="F40" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="G40" s="65" t="s">
+      <c r="G40" s="63" t="s">
         <v>647</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="87" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="83">
+      <c r="C41" s="78">
         <v>3</v>
       </c>
-      <c r="D41" s="88" t="s">
+      <c r="D41" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="85" t="s">
+      <c r="E41" s="80" t="s">
         <v>645</v>
       </c>
-      <c r="F41" s="85" t="s">
+      <c r="F41" s="80" t="s">
         <v>648</v>
       </c>
-      <c r="G41" s="84" t="s">
+      <c r="G41" s="79" t="s">
         <v>649</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="63" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="61" t="s">
         <v>121</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="64">
+      <c r="C42" s="62">
         <v>3</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="73" t="s">
         <v>104</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -6067,302 +6148,302 @@
       <c r="F42" s="26" t="s">
         <v>651</v>
       </c>
-      <c r="G42" s="65" t="s">
+      <c r="G42" s="63" t="s">
         <v>652</v>
       </c>
-      <c r="H42" s="31" t="s">
+      <c r="H42" s="29" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="87" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="83">
+      <c r="C43" s="78">
         <v>3</v>
       </c>
-      <c r="D43" s="88" t="s">
+      <c r="D43" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="89" t="s">
+      <c r="E43" s="84" t="s">
         <v>653</v>
       </c>
-      <c r="F43" s="89" t="s">
+      <c r="F43" s="84" t="s">
         <v>654</v>
       </c>
-      <c r="G43" s="84" t="s">
+      <c r="G43" s="79" t="s">
         <v>655</v>
       </c>
-      <c r="H43" s="86"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="63" t="s">
+      <c r="H43" s="81"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="61" t="s">
         <v>123</v>
       </c>
       <c r="B44" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="64">
+      <c r="C44" s="62">
         <v>3</v>
       </c>
-      <c r="D44" s="78" t="s">
+      <c r="D44" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="F44" s="66" t="s">
+      <c r="F44" s="64" t="s">
         <v>657</v>
       </c>
-      <c r="G44" s="65" t="s">
+      <c r="G44" s="63" t="s">
         <v>658</v>
       </c>
-      <c r="H44" s="31" t="s">
+      <c r="H44" s="29" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="87" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="83">
+      <c r="C45" s="78">
         <v>3</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="89" t="s">
+      <c r="E45" s="84" t="s">
         <v>659</v>
       </c>
-      <c r="F45" s="89" t="s">
+      <c r="F45" s="84" t="s">
         <v>660</v>
       </c>
-      <c r="G45" s="84" t="s">
+      <c r="G45" s="79" t="s">
         <v>661</v>
       </c>
-      <c r="H45" s="86" t="s">
+      <c r="H45" s="81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="63" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="61" t="s">
         <v>125</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="64">
+      <c r="C46" s="62">
         <v>3</v>
       </c>
-      <c r="D46" s="78" t="s">
+      <c r="D46" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="66" t="s">
+      <c r="E46" s="64" t="s">
         <v>670</v>
       </c>
-      <c r="F46" s="66" t="s">
+      <c r="F46" s="64" t="s">
         <v>671</v>
       </c>
-      <c r="G46" s="65" t="s">
+      <c r="G46" s="63" t="s">
         <v>672</v>
       </c>
-      <c r="H46" s="86" t="s">
+      <c r="H46" s="81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="87" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="83">
+      <c r="C47" s="78">
         <v>3</v>
       </c>
-      <c r="D47" s="78" t="s">
+      <c r="D47" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="89" t="s">
+      <c r="E47" s="84" t="s">
         <v>673</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F47" s="84" t="s">
         <v>674</v>
       </c>
-      <c r="G47" s="84" t="s">
+      <c r="G47" s="79" t="s">
         <v>675</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="29" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="63" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="61" t="s">
         <v>127</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="64">
+      <c r="C48" s="62">
         <v>3</v>
       </c>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="64" t="s">
         <v>676</v>
       </c>
-      <c r="F48" s="66" t="s">
+      <c r="F48" s="64" t="s">
         <v>677</v>
       </c>
-      <c r="G48" s="65" t="s">
+      <c r="G48" s="63" t="s">
         <v>678</v>
       </c>
-      <c r="H48" s="86" t="s">
+      <c r="H48" s="81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="87" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="83">
+      <c r="C49" s="78">
         <v>3</v>
       </c>
-      <c r="D49" s="78" t="s">
+      <c r="D49" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="89" t="s">
+      <c r="E49" s="84" t="s">
         <v>679</v>
       </c>
-      <c r="F49" s="89" t="s">
+      <c r="F49" s="84" t="s">
         <v>680</v>
       </c>
-      <c r="G49" s="84" t="s">
+      <c r="G49" s="79" t="s">
         <v>681</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="29" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="63" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="61" t="s">
         <v>129</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="64">
+      <c r="C50" s="62">
         <v>3</v>
       </c>
-      <c r="D50" s="78" t="s">
+      <c r="D50" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="66" t="s">
+      <c r="E50" s="64" t="s">
         <v>682</v>
       </c>
-      <c r="F50" s="66" t="s">
+      <c r="F50" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="G50" s="65" t="s">
+      <c r="G50" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="29" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="87" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="83">
+      <c r="C51" s="78">
         <v>3</v>
       </c>
-      <c r="D51" s="78" t="s">
+      <c r="D51" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="89" t="s">
+      <c r="E51" s="84" t="s">
         <v>683</v>
       </c>
-      <c r="F51" s="89" t="s">
+      <c r="F51" s="84" t="s">
         <v>684</v>
       </c>
-      <c r="G51" s="84" t="s">
+      <c r="G51" s="79" t="s">
         <v>475</v>
       </c>
-      <c r="H51" s="86" t="s">
+      <c r="H51" s="81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="63" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="61" t="s">
         <v>131</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="64">
+      <c r="C52" s="62">
         <v>3</v>
       </c>
-      <c r="D52" s="78" t="s">
+      <c r="D52" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="31" t="s">
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="87" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="85" t="s">
+      <c r="B53" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="83">
+      <c r="C53" s="78">
         <v>3</v>
       </c>
-      <c r="D53" s="78" t="s">
+      <c r="D53" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="89" t="s">
+      <c r="E53" s="84" t="s">
         <v>564</v>
       </c>
-      <c r="F53" s="89" t="s">
+      <c r="F53" s="84" t="s">
         <v>685</v>
       </c>
-      <c r="G53" s="84" t="s">
+      <c r="G53" s="79" t="s">
         <v>475</v>
       </c>
-      <c r="H53" s="86" t="s">
+      <c r="H53" s="81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="63" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="61" t="s">
         <v>133</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C54" s="64">
+      <c r="C54" s="62">
         <v>3</v>
       </c>
-      <c r="D54" s="78" t="s">
+      <c r="D54" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E54" s="26" t="s">
@@ -6371,206 +6452,206 @@
       <c r="F54" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="G54" s="65" t="s">
+      <c r="G54" s="63" t="s">
         <v>472</v>
       </c>
-      <c r="H54" s="86" t="s">
+      <c r="H54" s="81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="87" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="85" t="s">
+      <c r="B55" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="83">
+      <c r="C55" s="78">
         <v>3</v>
       </c>
-      <c r="D55" s="78" t="s">
+      <c r="D55" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="89" t="s">
+      <c r="E55" s="84" t="s">
         <v>686</v>
       </c>
-      <c r="F55" s="89" t="s">
+      <c r="F55" s="84" t="s">
         <v>687</v>
       </c>
-      <c r="G55" s="84" t="s">
+      <c r="G55" s="79" t="s">
         <v>688</v>
       </c>
-      <c r="H55" s="86" t="s">
+      <c r="H55" s="81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="63" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="61" t="s">
         <v>135</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="64">
+      <c r="C56" s="62">
         <v>3</v>
       </c>
-      <c r="D56" s="78" t="s">
+      <c r="D56" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="64" t="s">
         <v>689</v>
       </c>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="64" t="s">
         <v>349</v>
       </c>
-      <c r="G56" s="65" t="s">
+      <c r="G56" s="63" t="s">
         <v>690</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="H56" s="29" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1">
-      <c r="A57" s="87" t="s">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="83">
+      <c r="C57" s="78">
         <v>3</v>
       </c>
-      <c r="D57" s="78" t="s">
+      <c r="D57" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="89" t="s">
+      <c r="E57" s="84" t="s">
         <v>689</v>
       </c>
-      <c r="F57" s="89" t="s">
+      <c r="F57" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="G57" s="84" t="s">
+      <c r="G57" s="79" t="s">
         <v>692</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="29" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="63" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="61" t="s">
         <v>137</v>
       </c>
       <c r="B58" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="64">
+      <c r="C58" s="62">
         <v>6</v>
       </c>
-      <c r="D58" s="78" t="s">
+      <c r="D58" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="66" t="s">
+      <c r="E58" s="64" t="s">
         <v>693</v>
       </c>
-      <c r="F58" s="66" t="s">
+      <c r="F58" s="64" t="s">
         <v>694</v>
       </c>
-      <c r="G58" s="65" t="s">
+      <c r="G58" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="H58" s="31" t="s">
+      <c r="H58" s="29" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="87" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="83">
+      <c r="C59" s="78">
         <v>6</v>
       </c>
-      <c r="D59" s="78" t="s">
+      <c r="D59" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="89" t="s">
+      <c r="E59" s="84" t="s">
         <v>696</v>
       </c>
-      <c r="F59" s="89" t="s">
+      <c r="F59" s="84" t="s">
         <v>697</v>
       </c>
-      <c r="G59" s="84" t="s">
+      <c r="G59" s="79" t="s">
         <v>695</v>
       </c>
-      <c r="H59" s="86" t="s">
+      <c r="H59" s="81" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="77" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="72" t="s">
         <v>139</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C60" s="64">
+      <c r="C60" s="62">
         <v>1</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="66" t="s">
+      <c r="E60" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="F60" s="66" t="s">
+      <c r="F60" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="G60" s="65" t="s">
+      <c r="G60" s="63" t="s">
         <v>483</v>
       </c>
-      <c r="H60" s="31" t="s">
+      <c r="H60" s="29" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="24">
-      <c r="A61" s="87" t="s">
+    <row r="61" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A61" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="85" t="s">
+      <c r="B61" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="C61" s="83">
+      <c r="C61" s="78">
         <v>1</v>
       </c>
-      <c r="D61" s="88" t="s">
+      <c r="D61" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="85" t="s">
+      <c r="E61" s="80" t="s">
         <v>453</v>
       </c>
-      <c r="F61" s="85" t="s">
+      <c r="F61" s="80" t="s">
         <v>454</v>
       </c>
-      <c r="G61" s="84" t="s">
+      <c r="G61" s="79" t="s">
         <v>455</v>
       </c>
-      <c r="H61" s="86" t="s">
+      <c r="H61" s="81" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="24">
-      <c r="A62" s="63" t="s">
+    <row r="62" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A62" s="61" t="s">
         <v>141</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="C62" s="79">
+      <c r="C62" s="74">
         <v>1</v>
       </c>
-      <c r="D62" s="80" t="s">
+      <c r="D62" s="75" t="s">
         <v>52</v>
       </c>
       <c r="E62" s="26" t="s">
@@ -6579,94 +6660,94 @@
       <c r="F62" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="G62" s="65" t="s">
+      <c r="G62" s="63" t="s">
         <v>415</v>
       </c>
-      <c r="H62" s="33" t="s">
+      <c r="H62" s="31" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="24">
-      <c r="A63" s="87" t="s">
+    <row r="63" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A63" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="80" t="s">
         <v>403</v>
       </c>
-      <c r="C63" s="83">
+      <c r="C63" s="78">
         <v>1</v>
       </c>
-      <c r="D63" s="88" t="s">
+      <c r="D63" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="85" t="s">
+      <c r="E63" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="F63" s="85" t="s">
+      <c r="F63" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="G63" s="84" t="s">
+      <c r="G63" s="79" t="s">
         <v>406</v>
       </c>
-      <c r="H63" s="86" t="s">
+      <c r="H63" s="81" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="63" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="61" t="s">
         <v>143</v>
       </c>
       <c r="B64" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="64">
+      <c r="C64" s="62">
         <v>1</v>
       </c>
-      <c r="D64" s="78" t="s">
+      <c r="D64" s="73" t="s">
         <v>104</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="31"/>
-    </row>
-    <row r="65" spans="1:8" ht="45">
-      <c r="A65" s="87" t="s">
+      <c r="G64" s="63"/>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="85" t="s">
+      <c r="B65" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="83">
+      <c r="C65" s="78">
         <v>4</v>
       </c>
-      <c r="D65" s="88" t="s">
+      <c r="D65" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="85" t="s">
+      <c r="E65" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="F65" s="85" t="s">
+      <c r="F65" s="80" t="s">
         <v>295</v>
       </c>
-      <c r="G65" s="84" t="s">
+      <c r="G65" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="H65" s="86" t="s">
+      <c r="H65" s="81" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30">
-      <c r="A66" s="63" t="s">
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="61" t="s">
         <v>145</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="64">
+      <c r="C66" s="62">
         <v>9</v>
       </c>
-      <c r="D66" s="78" t="s">
+      <c r="D66" s="73" t="s">
         <v>107</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -6675,50 +6756,50 @@
       <c r="F66" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="G66" s="65" t="s">
+      <c r="G66" s="63" t="s">
         <v>461</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="H66" s="29" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30">
-      <c r="A67" s="87" t="s">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="83">
+      <c r="C67" s="78">
         <v>5</v>
       </c>
-      <c r="D67" s="88" t="s">
+      <c r="D67" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="E67" s="85" t="s">
+      <c r="E67" s="80" t="s">
         <v>462</v>
       </c>
-      <c r="F67" s="85" t="s">
+      <c r="F67" s="80" t="s">
         <v>463</v>
       </c>
-      <c r="G67" s="84" t="s">
+      <c r="G67" s="79" t="s">
         <v>464</v>
       </c>
-      <c r="H67" s="86" t="s">
+      <c r="H67" s="81" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="63" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="61" t="s">
         <v>147</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C68" s="64">
+      <c r="C68" s="62">
         <v>5</v>
       </c>
-      <c r="D68" s="78" t="s">
+      <c r="D68" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -6727,50 +6808,50 @@
       <c r="F68" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="G68" s="65" t="s">
+      <c r="G68" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="H68" s="31" t="s">
+      <c r="H68" s="29" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="30">
-      <c r="A69" s="87" t="s">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="85" t="s">
+      <c r="B69" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="C69" s="83">
+      <c r="C69" s="78">
         <v>4</v>
       </c>
-      <c r="D69" s="88" t="s">
+      <c r="D69" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="85" t="s">
+      <c r="E69" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="F69" s="85" t="s">
+      <c r="F69" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="G69" s="84" t="s">
+      <c r="G69" s="79" t="s">
         <v>419</v>
       </c>
-      <c r="H69" s="86" t="s">
+      <c r="H69" s="81" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30">
-      <c r="A70" s="63" t="s">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="61" t="s">
         <v>149</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="64">
+      <c r="C70" s="62">
         <v>4</v>
       </c>
-      <c r="D70" s="78" t="s">
+      <c r="D70" s="73" t="s">
         <v>104</v>
       </c>
       <c r="E70" s="26" t="s">
@@ -6779,50 +6860,50 @@
       <c r="F70" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="G70" s="65" t="s">
+      <c r="G70" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="H70" s="31" t="s">
+      <c r="H70" s="29" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="87" t="s">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="85" t="s">
+      <c r="B71" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="C71" s="83">
+      <c r="C71" s="78">
         <v>4</v>
       </c>
-      <c r="D71" s="88" t="s">
+      <c r="D71" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="E71" s="85" t="s">
+      <c r="E71" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="F71" s="85" t="s">
+      <c r="F71" s="80" t="s">
         <v>427</v>
       </c>
-      <c r="G71" s="84" t="s">
+      <c r="G71" s="79" t="s">
         <v>428</v>
       </c>
-      <c r="H71" s="86" t="s">
+      <c r="H71" s="81" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="63" t="s">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="61" t="s">
         <v>151</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="64">
+      <c r="C72" s="62">
         <v>4</v>
       </c>
-      <c r="D72" s="78" t="s">
+      <c r="D72" s="73" t="s">
         <v>104</v>
       </c>
       <c r="E72" s="26" t="s">
@@ -6831,50 +6912,50 @@
       <c r="F72" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="G72" s="65" t="s">
+      <c r="G72" s="63" t="s">
         <v>425</v>
       </c>
-      <c r="H72" s="31" t="s">
+      <c r="H72" s="29" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30">
-      <c r="A73" s="87" t="s">
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="85" t="s">
+      <c r="B73" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="C73" s="83">
+      <c r="C73" s="78">
         <v>12</v>
       </c>
-      <c r="D73" s="88" t="s">
+      <c r="D73" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="85" t="s">
+      <c r="E73" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="F73" s="85" t="s">
+      <c r="F73" s="80" t="s">
         <v>583</v>
       </c>
-      <c r="G73" s="84" t="s">
+      <c r="G73" s="79" t="s">
         <v>435</v>
       </c>
-      <c r="H73" s="86" t="s">
+      <c r="H73" s="81" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="63" t="s">
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="61" t="s">
         <v>153</v>
       </c>
       <c r="B74" s="26" t="s">
         <v>579</v>
       </c>
-      <c r="C74" s="96">
+      <c r="C74" s="90">
         <v>2</v>
       </c>
-      <c r="D74" s="78" t="s">
+      <c r="D74" s="73" t="s">
         <v>52</v>
       </c>
       <c r="E74" s="26" t="s">
@@ -6883,50 +6964,50 @@
       <c r="F74" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="G74" s="65" t="s">
+      <c r="G74" s="63" t="s">
         <v>472</v>
       </c>
-      <c r="H74" s="31" t="s">
+      <c r="H74" s="29" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30">
-      <c r="A75" s="87" t="s">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="85" t="s">
+      <c r="B75" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="C75" s="95">
+      <c r="C75" s="89">
         <v>2</v>
       </c>
-      <c r="D75" s="88" t="s">
+      <c r="D75" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E75" s="89" t="s">
+      <c r="E75" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="F75" s="89" t="s">
+      <c r="F75" s="84" t="s">
         <v>466</v>
       </c>
-      <c r="G75" s="84" t="s">
+      <c r="G75" s="79" t="s">
         <v>467</v>
       </c>
-      <c r="H75" s="86" t="s">
+      <c r="H75" s="81" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="63" t="s">
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="61" t="s">
         <v>155</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="96">
+      <c r="C76" s="90">
         <v>2</v>
       </c>
-      <c r="D76" s="78" t="s">
+      <c r="D76" s="73" t="s">
         <v>52</v>
       </c>
       <c r="E76" s="26" t="s">
@@ -6935,50 +7016,50 @@
       <c r="F76" s="26" t="s">
         <v>469</v>
       </c>
-      <c r="G76" s="65" t="s">
+      <c r="G76" s="63" t="s">
         <v>470</v>
       </c>
-      <c r="H76" s="31" t="s">
+      <c r="H76" s="29" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="30">
-      <c r="A77" s="87" t="s">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="85" t="s">
+      <c r="B77" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="C77" s="95">
+      <c r="C77" s="89">
         <v>2</v>
       </c>
-      <c r="D77" s="88" t="s">
+      <c r="D77" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E77" s="85" t="s">
+      <c r="E77" s="80" t="s">
         <v>473</v>
       </c>
-      <c r="F77" s="85" t="s">
+      <c r="F77" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="G77" s="84" t="s">
+      <c r="G77" s="79" t="s">
         <v>475</v>
       </c>
-      <c r="H77" s="86" t="s">
+      <c r="H77" s="81" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="63" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="61" t="s">
         <v>157</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="C78" s="96">
+      <c r="C78" s="90">
         <v>5</v>
       </c>
-      <c r="D78" s="78" t="s">
+      <c r="D78" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E78" s="26" t="s">
@@ -6987,50 +7068,50 @@
       <c r="F78" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="G78" s="65" t="s">
+      <c r="G78" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="H78" s="31" t="s">
+      <c r="H78" s="29" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30">
-      <c r="A79" s="87" t="s">
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="85" t="s">
+      <c r="B79" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="C79" s="95">
+      <c r="C79" s="89">
         <v>5</v>
       </c>
-      <c r="D79" s="88" t="s">
+      <c r="D79" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="85" t="s">
+      <c r="E79" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="F79" s="85" t="s">
+      <c r="F79" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="G79" s="84" t="s">
+      <c r="G79" s="79" t="s">
         <v>319</v>
       </c>
-      <c r="H79" s="86" t="s">
+      <c r="H79" s="81" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="63" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="61" t="s">
         <v>159</v>
       </c>
       <c r="B80" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="C80" s="96">
+      <c r="C80" s="90">
         <v>5</v>
       </c>
-      <c r="D80" s="78" t="s">
+      <c r="D80" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E80" s="26" t="s">
@@ -7039,50 +7120,50 @@
       <c r="F80" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="G80" s="65" t="s">
+      <c r="G80" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="H80" s="29" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="87" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="85" t="s">
+      <c r="B81" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="C81" s="95">
+      <c r="C81" s="89">
         <v>5</v>
       </c>
-      <c r="D81" s="88" t="s">
+      <c r="D81" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="85" t="s">
+      <c r="E81" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="F81" s="85" t="s">
+      <c r="F81" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="G81" s="84" t="s">
+      <c r="G81" s="79" t="s">
         <v>310</v>
       </c>
-      <c r="H81" s="86" t="s">
+      <c r="H81" s="81" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="63" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="61" t="s">
         <v>161</v>
       </c>
       <c r="B82" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C82" s="96">
+      <c r="C82" s="90">
         <v>5</v>
       </c>
-      <c r="D82" s="78" t="s">
+      <c r="D82" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E82" s="26" t="s">
@@ -7091,50 +7172,50 @@
       <c r="F82" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="G82" s="65" t="s">
+      <c r="G82" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="H82" s="31" t="s">
+      <c r="H82" s="29" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="87" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="B83" s="85" t="s">
+      <c r="B83" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="C83" s="95">
+      <c r="C83" s="89">
         <v>9</v>
       </c>
-      <c r="D83" s="88" t="s">
+      <c r="D83" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E83" s="85" t="s">
+      <c r="E83" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="F83" s="85" t="s">
+      <c r="F83" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="G83" s="84" t="s">
+      <c r="G83" s="79" t="s">
         <v>311</v>
       </c>
-      <c r="H83" s="86" t="s">
+      <c r="H83" s="81" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="63" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="61" t="s">
         <v>163</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="C84" s="96">
+      <c r="C84" s="90">
         <v>5</v>
       </c>
-      <c r="D84" s="78" t="s">
+      <c r="D84" s="73" t="s">
         <v>107</v>
       </c>
       <c r="E84" s="26" t="s">
@@ -7143,50 +7224,50 @@
       <c r="F84" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="G84" s="65" t="s">
+      <c r="G84" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="H84" s="31" t="s">
+      <c r="H84" s="29" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="87" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="85" t="s">
+      <c r="B85" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="C85" s="95">
+      <c r="C85" s="89">
         <v>8</v>
       </c>
-      <c r="D85" s="88" t="s">
+      <c r="D85" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E85" s="85" t="s">
+      <c r="E85" s="80" t="s">
         <v>324</v>
       </c>
-      <c r="F85" s="85" t="s">
+      <c r="F85" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="G85" s="84" t="s">
+      <c r="G85" s="79" t="s">
         <v>326</v>
       </c>
-      <c r="H85" s="86" t="s">
+      <c r="H85" s="81" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="63" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="61" t="s">
         <v>165</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C86" s="96">
+      <c r="C86" s="90">
         <v>8</v>
       </c>
-      <c r="D86" s="78" t="s">
+      <c r="D86" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E86" s="26" t="s">
@@ -7195,50 +7276,50 @@
       <c r="F86" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="G86" s="65" t="s">
+      <c r="G86" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="H86" s="31" t="s">
+      <c r="H86" s="29" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="87" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="85" t="s">
+      <c r="B87" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="C87" s="95">
+      <c r="C87" s="89">
         <v>8</v>
       </c>
-      <c r="D87" s="88" t="s">
+      <c r="D87" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E87" s="85" t="s">
+      <c r="E87" s="80" t="s">
         <v>336</v>
       </c>
-      <c r="F87" s="85" t="s">
+      <c r="F87" s="80" t="s">
         <v>337</v>
       </c>
-      <c r="G87" s="84" t="s">
+      <c r="G87" s="79" t="s">
         <v>338</v>
       </c>
-      <c r="H87" s="86" t="s">
+      <c r="H87" s="81" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="77" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="72" t="s">
         <v>167</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C88" s="96">
+      <c r="C88" s="90">
         <v>7</v>
       </c>
-      <c r="D88" s="78" t="s">
+      <c r="D88" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E88" s="26" t="s">
@@ -7247,50 +7328,50 @@
       <c r="F88" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="G88" s="65" t="s">
+      <c r="G88" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="H88" s="31" t="s">
+      <c r="H88" s="29" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="24">
-      <c r="A89" s="87" t="s">
+    <row r="89" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A89" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="85" t="s">
+      <c r="B89" s="80" t="s">
         <v>342</v>
       </c>
-      <c r="C89" s="95">
+      <c r="C89" s="89">
         <v>2</v>
       </c>
-      <c r="D89" s="88" t="s">
+      <c r="D89" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="85" t="s">
+      <c r="E89" s="80" t="s">
         <v>343</v>
       </c>
-      <c r="F89" s="85" t="s">
+      <c r="F89" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="G89" s="84" t="s">
+      <c r="G89" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="H89" s="86" t="s">
+      <c r="H89" s="81" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="63" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="61" t="s">
         <v>169</v>
       </c>
       <c r="B90" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C90" s="96">
+      <c r="C90" s="90">
         <v>7</v>
       </c>
-      <c r="D90" s="78" t="s">
+      <c r="D90" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E90" s="26" t="s">
@@ -7299,50 +7380,50 @@
       <c r="F90" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="G90" s="65" t="s">
+      <c r="G90" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="H90" s="31" t="s">
+      <c r="H90" s="29" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30">
-      <c r="A91" s="87" t="s">
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="B91" s="85" t="s">
+      <c r="B91" s="80" t="s">
         <v>360</v>
       </c>
-      <c r="C91" s="95">
+      <c r="C91" s="89">
         <v>5</v>
       </c>
-      <c r="D91" s="88" t="s">
+      <c r="D91" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E91" s="85" t="s">
+      <c r="E91" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="F91" s="85" t="s">
+      <c r="F91" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="G91" s="84" t="s">
+      <c r="G91" s="79" t="s">
         <v>363</v>
       </c>
-      <c r="H91" s="86" t="s">
+      <c r="H91" s="81" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30">
-      <c r="A92" s="63" t="s">
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="61" t="s">
         <v>171</v>
       </c>
       <c r="B92" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C92" s="96">
+      <c r="C92" s="90">
         <v>7</v>
       </c>
-      <c r="D92" s="78" t="s">
+      <c r="D92" s="73" t="s">
         <v>52</v>
       </c>
       <c r="E92" s="26" t="s">
@@ -7351,50 +7432,50 @@
       <c r="F92" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="G92" s="65" t="s">
+      <c r="G92" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="H92" s="29" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="87" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="B93" s="85" t="s">
+      <c r="B93" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="C93" s="95">
+      <c r="C93" s="89">
         <v>8</v>
       </c>
-      <c r="D93" s="88" t="s">
+      <c r="D93" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E93" s="85" t="s">
+      <c r="E93" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="F93" s="85" t="s">
+      <c r="F93" s="80" t="s">
         <v>380</v>
       </c>
-      <c r="G93" s="84" t="s">
+      <c r="G93" s="79" t="s">
         <v>381</v>
       </c>
-      <c r="H93" s="86" t="s">
+      <c r="H93" s="81" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30">
-      <c r="A94" s="63" t="s">
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="61" t="s">
         <v>173</v>
       </c>
       <c r="B94" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C94" s="96">
+      <c r="C94" s="90">
         <v>5</v>
       </c>
-      <c r="D94" s="78" t="s">
+      <c r="D94" s="73" t="s">
         <v>52</v>
       </c>
       <c r="E94" s="26" t="s">
@@ -7403,50 +7484,50 @@
       <c r="F94" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="G94" s="65" t="s">
+      <c r="G94" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="H94" s="31" t="s">
+      <c r="H94" s="29" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="87" t="s">
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="B95" s="85" t="s">
+      <c r="B95" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="C95" s="95">
+      <c r="C95" s="89">
         <v>8</v>
       </c>
-      <c r="D95" s="88" t="s">
+      <c r="D95" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E95" s="85" t="s">
+      <c r="E95" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="F95" s="85" t="s">
+      <c r="F95" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="G95" s="84">
+      <c r="G95" s="79">
         <v>1024</v>
       </c>
-      <c r="H95" s="86" t="s">
+      <c r="H95" s="81" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30">
-      <c r="A96" s="63" t="s">
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="61" t="s">
         <v>175</v>
       </c>
       <c r="B96" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="C96" s="96">
+      <c r="C96" s="90">
         <v>10</v>
       </c>
-      <c r="D96" s="78" t="s">
+      <c r="D96" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="26" t="s">
@@ -7455,50 +7536,50 @@
       <c r="F96" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="G96" s="65" t="s">
+      <c r="G96" s="63" t="s">
         <v>412</v>
       </c>
-      <c r="H96" s="31" t="s">
+      <c r="H96" s="29" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30">
-      <c r="A97" s="87" t="s">
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="B97" s="85" t="s">
+      <c r="B97" s="80" t="s">
         <v>432</v>
       </c>
-      <c r="C97" s="95">
+      <c r="C97" s="89">
         <v>5</v>
       </c>
-      <c r="D97" s="88" t="s">
+      <c r="D97" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="E97" s="85" t="s">
+      <c r="E97" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="F97" s="85" t="s">
+      <c r="F97" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="G97" s="84" t="s">
+      <c r="G97" s="79" t="s">
         <v>435</v>
       </c>
-      <c r="H97" s="86" t="s">
+      <c r="H97" s="81" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="63" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="61" t="s">
         <v>177</v>
       </c>
       <c r="B98" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="C98" s="96">
+      <c r="C98" s="90">
         <v>11</v>
       </c>
-      <c r="D98" s="78" t="s">
+      <c r="D98" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E98" s="26" t="s">
@@ -7507,50 +7588,50 @@
       <c r="F98" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="G98" s="65" t="s">
+      <c r="G98" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="H98" s="31" t="s">
+      <c r="H98" s="29" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="87" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="B99" s="85" t="s">
+      <c r="B99" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="C99" s="95">
+      <c r="C99" s="89">
         <v>11</v>
       </c>
-      <c r="D99" s="88" t="s">
+      <c r="D99" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E99" s="85" t="s">
+      <c r="E99" s="80" t="s">
         <v>439</v>
       </c>
-      <c r="F99" s="85" t="s">
+      <c r="F99" s="80" t="s">
         <v>440</v>
       </c>
-      <c r="G99" s="84" t="s">
+      <c r="G99" s="79" t="s">
         <v>441</v>
       </c>
-      <c r="H99" s="86" t="s">
+      <c r="H99" s="81" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="63" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="61" t="s">
         <v>179</v>
       </c>
       <c r="B100" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="C100" s="96">
+      <c r="C100" s="90">
         <v>11</v>
       </c>
-      <c r="D100" s="78" t="s">
+      <c r="D100" s="73" t="s">
         <v>53</v>
       </c>
       <c r="E100" s="26" t="s">
@@ -7559,2066 +7640,2066 @@
       <c r="F100" s="26" t="s">
         <v>444</v>
       </c>
-      <c r="G100" s="65" t="s">
+      <c r="G100" s="63" t="s">
         <v>445</v>
       </c>
-      <c r="H100" s="31" t="s">
+      <c r="H100" s="29" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30">
-      <c r="A101" s="87" t="s">
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="B101" s="85" t="s">
+      <c r="B101" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="C101" s="95">
+      <c r="C101" s="89">
         <v>5</v>
       </c>
-      <c r="D101" s="88" t="s">
+      <c r="D101" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E101" s="85" t="s">
+      <c r="E101" s="80" t="s">
         <v>484</v>
       </c>
-      <c r="F101" s="85" t="s">
+      <c r="F101" s="80" t="s">
         <v>485</v>
       </c>
-      <c r="G101" s="84" t="s">
+      <c r="G101" s="79" t="s">
         <v>486</v>
       </c>
-      <c r="H101" s="86" t="s">
+      <c r="H101" s="81" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="63" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B102" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="C102" s="96">
+      <c r="C102" s="90">
         <v>8</v>
       </c>
-      <c r="D102" s="78" t="s">
+      <c r="D102" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E102" s="66" t="s">
+      <c r="E102" s="64" t="s">
         <v>506</v>
       </c>
-      <c r="F102" s="66" t="s">
+      <c r="F102" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="G102" s="65" t="s">
+      <c r="G102" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="H102" s="31" t="s">
+      <c r="H102" s="29" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="87" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="B103" s="85" t="s">
+      <c r="B103" s="80" t="s">
         <v>531</v>
       </c>
-      <c r="C103" s="95">
+      <c r="C103" s="89">
         <v>6</v>
       </c>
-      <c r="D103" s="88" t="s">
+      <c r="D103" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E103" s="89" t="s">
+      <c r="E103" s="84" t="s">
         <v>532</v>
       </c>
-      <c r="F103" s="89" t="s">
+      <c r="F103" s="84" t="s">
         <v>533</v>
       </c>
-      <c r="G103" s="84" t="s">
+      <c r="G103" s="79" t="s">
         <v>534</v>
       </c>
-      <c r="H103" s="86" t="s">
+      <c r="H103" s="81" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="30">
-      <c r="A104" s="63" t="s">
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="61" t="s">
         <v>556</v>
       </c>
       <c r="B104" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="C104" s="96">
+      <c r="C104" s="90">
         <v>5</v>
       </c>
-      <c r="D104" s="78" t="s">
+      <c r="D104" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E104" s="66" t="s">
+      <c r="E104" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="F104" s="66" t="s">
+      <c r="F104" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="G104" s="65" t="s">
+      <c r="G104" s="63" t="s">
         <v>566</v>
       </c>
-      <c r="H104" s="31" t="s">
+      <c r="H104" s="29" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="87" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="82" t="s">
         <v>557</v>
       </c>
-      <c r="B105" s="85" t="s">
+      <c r="B105" s="80" t="s">
         <v>573</v>
       </c>
-      <c r="C105" s="95">
+      <c r="C105" s="89">
         <v>5</v>
       </c>
-      <c r="D105" s="88" t="s">
+      <c r="D105" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="89" t="s">
+      <c r="E105" s="84" t="s">
         <v>574</v>
       </c>
-      <c r="F105" s="89" t="s">
+      <c r="F105" s="84" t="s">
         <v>575</v>
       </c>
-      <c r="G105" s="84" t="s">
+      <c r="G105" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="H105" s="86" t="s">
+      <c r="H105" s="81" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="30">
-      <c r="A106" s="63" t="s">
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="61" t="s">
         <v>558</v>
       </c>
       <c r="B106" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C106" s="96">
+      <c r="C106" s="90">
         <v>5</v>
       </c>
-      <c r="D106" s="78" t="s">
+      <c r="D106" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E106" s="66" t="s">
+      <c r="E106" s="64" t="s">
         <v>312</v>
       </c>
-      <c r="F106" s="66" t="s">
+      <c r="F106" s="64" t="s">
         <v>576</v>
       </c>
-      <c r="G106" s="65" t="s">
+      <c r="G106" s="63" t="s">
         <v>415</v>
       </c>
-      <c r="H106" s="31" t="s">
+      <c r="H106" s="29" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="87" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="82" t="s">
         <v>559</v>
       </c>
-      <c r="B107" s="85"/>
-      <c r="C107" s="83"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="89"/>
-      <c r="F107" s="89"/>
-      <c r="G107" s="84"/>
-      <c r="H107" s="86"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="63" t="s">
+      <c r="B107" s="80"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="84"/>
+      <c r="F107" s="84"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="81"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="61" t="s">
         <v>560</v>
       </c>
       <c r="B108" s="26"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="78"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="31"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="87" t="s">
+      <c r="C108" s="62"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="29"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="B109" s="85"/>
-      <c r="C109" s="83"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="89"/>
-      <c r="F109" s="89"/>
-      <c r="G109" s="84"/>
-      <c r="H109" s="86"/>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A110" s="73" t="s">
+      <c r="B109" s="80"/>
+      <c r="C109" s="78"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="84"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="81"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="68" t="s">
         <v>562</v>
       </c>
-      <c r="B110" s="74"/>
-      <c r="C110" s="75"/>
-      <c r="D110" s="91"/>
-      <c r="E110" s="92"/>
-      <c r="F110" s="92"/>
-      <c r="G110" s="76"/>
-      <c r="H110" s="32"/>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="B110" s="69"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="86"/>
+      <c r="E110" s="87"/>
+      <c r="F110" s="87"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="30"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="47"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="42"/>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="45"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="40"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="42"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="47"/>
-      <c r="B126" s="47"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="42"/>
+      <c r="G125" s="40"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="45"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="40"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="42"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="47"/>
-      <c r="B127" s="47"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="42"/>
+      <c r="G126" s="40"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="40"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="42"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="47"/>
-      <c r="B128" s="47"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="42"/>
+      <c r="G127" s="40"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="45"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="40"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="42"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="47"/>
-      <c r="B129" s="47"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="42"/>
+      <c r="G128" s="40"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="45"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="40"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="42"/>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="47"/>
-      <c r="B130" s="47"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="42"/>
+      <c r="G129" s="40"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="45"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="40"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="42"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="47"/>
-      <c r="B131" s="47"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="42"/>
+      <c r="G130" s="40"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="45"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="40"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="42"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="42"/>
+      <c r="G131" s="40"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="45"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="40"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="42"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="47"/>
-      <c r="B133" s="47"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="42"/>
+      <c r="G132" s="40"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="45"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="40"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="42"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="47"/>
-      <c r="B134" s="47"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="42"/>
+      <c r="G133" s="40"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="45"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="40"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="42"/>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="42"/>
+      <c r="G134" s="40"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="40"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="42"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="42"/>
+      <c r="G135" s="40"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="45"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="40"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="42"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
-      <c r="C137" s="44"/>
-      <c r="D137" s="42"/>
+      <c r="G136" s="40"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="45"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="40"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="42"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="42"/>
+      <c r="G137" s="40"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="45"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="40"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="42"/>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="47"/>
-      <c r="B139" s="47"/>
-      <c r="C139" s="44"/>
-      <c r="D139" s="42"/>
+      <c r="G138" s="40"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="45"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="40"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="42"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="47"/>
-      <c r="B140" s="47"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="42"/>
+      <c r="G139" s="40"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="45"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="40"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="42"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="47"/>
-      <c r="B141" s="47"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="42"/>
+      <c r="G140" s="40"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="45"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="40"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-      <c r="G141" s="42"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="47"/>
-      <c r="B142" s="47"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="42"/>
+      <c r="G141" s="40"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="45"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="40"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="42"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="47"/>
-      <c r="B143" s="47"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="42"/>
+      <c r="G142" s="40"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="45"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="40"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="42"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="47"/>
-      <c r="B144" s="47"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="42"/>
+      <c r="G143" s="40"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="45"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="40"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="42"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="47"/>
-      <c r="B145" s="47"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="42"/>
+      <c r="G144" s="40"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="45"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="40"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="42"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="47"/>
-      <c r="B146" s="47"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="42"/>
+      <c r="G145" s="40"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="40"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="G146" s="42"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="47"/>
-      <c r="B147" s="47"/>
-      <c r="C147" s="44"/>
-      <c r="D147" s="42"/>
+      <c r="G146" s="40"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="45"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="40"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="42"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="47"/>
-      <c r="B148" s="47"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="42"/>
+      <c r="G147" s="40"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="45"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="40"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="42"/>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="47"/>
-      <c r="B149" s="47"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="42"/>
+      <c r="G148" s="40"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="45"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="40"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-      <c r="G149" s="42"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="47"/>
-      <c r="B150" s="47"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="42"/>
+      <c r="G149" s="40"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="45"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="40"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="42"/>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="47"/>
-      <c r="B151" s="47"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="42"/>
+      <c r="G150" s="40"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="45"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="40"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="42"/>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="47"/>
-      <c r="B152" s="47"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="42"/>
+      <c r="G151" s="40"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="45"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="40"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-      <c r="G152" s="42"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="47"/>
-      <c r="B153" s="47"/>
-      <c r="C153" s="44"/>
-      <c r="D153" s="42"/>
+      <c r="G152" s="40"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="45"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="42"/>
+      <c r="D153" s="40"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="42"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="47"/>
-      <c r="B154" s="47"/>
-      <c r="C154" s="44"/>
-      <c r="D154" s="42"/>
+      <c r="G153" s="40"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="45"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="40"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="42"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="47"/>
-      <c r="B155" s="47"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="42"/>
+      <c r="G154" s="40"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="45"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="42"/>
+      <c r="D155" s="40"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="42"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="47"/>
-      <c r="B156" s="47"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="42"/>
+      <c r="G155" s="40"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="45"/>
+      <c r="B156" s="45"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="40"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="42"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="47"/>
-      <c r="B157" s="47"/>
-      <c r="C157" s="44"/>
-      <c r="D157" s="42"/>
+      <c r="G156" s="40"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="45"/>
+      <c r="B157" s="45"/>
+      <c r="C157" s="42"/>
+      <c r="D157" s="40"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="42"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="47"/>
-      <c r="B158" s="47"/>
-      <c r="C158" s="44"/>
-      <c r="D158" s="42"/>
+      <c r="G157" s="40"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="45"/>
+      <c r="B158" s="45"/>
+      <c r="C158" s="42"/>
+      <c r="D158" s="40"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="42"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="47"/>
-      <c r="B159" s="47"/>
-      <c r="C159" s="44"/>
-      <c r="D159" s="42"/>
+      <c r="G158" s="40"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="45"/>
+      <c r="B159" s="45"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="40"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="42"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="47"/>
-      <c r="B160" s="47"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="42"/>
+      <c r="G159" s="40"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="45"/>
+      <c r="B160" s="45"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="40"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="42"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="47"/>
-      <c r="B161" s="47"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="42"/>
+      <c r="G160" s="40"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="45"/>
+      <c r="B161" s="45"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="40"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="42"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="47"/>
-      <c r="B162" s="47"/>
-      <c r="C162" s="44"/>
-      <c r="D162" s="42"/>
+      <c r="G161" s="40"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="45"/>
+      <c r="B162" s="45"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="40"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="42"/>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="47"/>
-      <c r="B163" s="47"/>
-      <c r="C163" s="44"/>
-      <c r="D163" s="42"/>
+      <c r="G162" s="40"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="45"/>
+      <c r="B163" s="45"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="40"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="42"/>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="47"/>
-      <c r="B164" s="47"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="42"/>
+      <c r="G163" s="40"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="45"/>
+      <c r="B164" s="45"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="40"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="42"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="47"/>
-      <c r="B165" s="47"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="42"/>
+      <c r="G164" s="40"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="45"/>
+      <c r="B165" s="45"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="40"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="42"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="47"/>
-      <c r="B166" s="47"/>
-      <c r="C166" s="44"/>
-      <c r="D166" s="42"/>
+      <c r="G165" s="40"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="45"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="42"/>
+      <c r="D166" s="40"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="42"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="47"/>
-      <c r="B167" s="47"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="42"/>
+      <c r="G166" s="40"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="45"/>
+      <c r="B167" s="45"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="40"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-      <c r="G167" s="42"/>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="47"/>
-      <c r="B168" s="47"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="42"/>
+      <c r="G167" s="40"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="45"/>
+      <c r="B168" s="45"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="40"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-      <c r="G168" s="42"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="47"/>
-      <c r="B169" s="47"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="42"/>
+      <c r="G168" s="40"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="45"/>
+      <c r="B169" s="45"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="40"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-      <c r="G169" s="42"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="47"/>
-      <c r="B170" s="47"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="42"/>
+      <c r="G169" s="40"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="45"/>
+      <c r="B170" s="45"/>
+      <c r="C170" s="42"/>
+      <c r="D170" s="40"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-      <c r="G170" s="42"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="47"/>
-      <c r="B171" s="47"/>
-      <c r="C171" s="44"/>
-      <c r="D171" s="42"/>
+      <c r="G170" s="40"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="45"/>
+      <c r="B171" s="45"/>
+      <c r="C171" s="42"/>
+      <c r="D171" s="40"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="42"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="47"/>
-      <c r="B172" s="47"/>
-      <c r="C172" s="44"/>
-      <c r="D172" s="42"/>
+      <c r="G171" s="40"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="45"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="40"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="G172" s="42"/>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="47"/>
-      <c r="B173" s="47"/>
-      <c r="C173" s="44"/>
-      <c r="D173" s="42"/>
+      <c r="G172" s="40"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="45"/>
+      <c r="B173" s="45"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="40"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="42"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="47"/>
-      <c r="B174" s="47"/>
-      <c r="C174" s="44"/>
-      <c r="D174" s="42"/>
+      <c r="G173" s="40"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="45"/>
+      <c r="B174" s="45"/>
+      <c r="C174" s="42"/>
+      <c r="D174" s="40"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="42"/>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="47"/>
-      <c r="B175" s="47"/>
-      <c r="C175" s="44"/>
-      <c r="D175" s="42"/>
+      <c r="G174" s="40"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="45"/>
+      <c r="B175" s="45"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="40"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="42"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="47"/>
-      <c r="B176" s="47"/>
-      <c r="C176" s="44"/>
-      <c r="D176" s="42"/>
+      <c r="G175" s="40"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="45"/>
+      <c r="B176" s="45"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="40"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-      <c r="G176" s="42"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="47"/>
-      <c r="B177" s="47"/>
-      <c r="C177" s="44"/>
-      <c r="D177" s="42"/>
+      <c r="G176" s="40"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="45"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="42"/>
+      <c r="D177" s="40"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-      <c r="G177" s="42"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="47"/>
-      <c r="B178" s="47"/>
-      <c r="C178" s="44"/>
-      <c r="D178" s="42"/>
+      <c r="G177" s="40"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="45"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="40"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="42"/>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="47"/>
-      <c r="B179" s="47"/>
-      <c r="C179" s="44"/>
-      <c r="D179" s="42"/>
+      <c r="G178" s="40"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="45"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="40"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-      <c r="G179" s="42"/>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="47"/>
-      <c r="B180" s="47"/>
-      <c r="C180" s="44"/>
-      <c r="D180" s="42"/>
+      <c r="G179" s="40"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="45"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="40"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-      <c r="G180" s="42"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="47"/>
-      <c r="B181" s="47"/>
-      <c r="C181" s="44"/>
-      <c r="D181" s="42"/>
+      <c r="G180" s="40"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="45"/>
+      <c r="B181" s="45"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="40"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-      <c r="G181" s="42"/>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="47"/>
-      <c r="B182" s="47"/>
-      <c r="C182" s="44"/>
-      <c r="D182" s="42"/>
+      <c r="G181" s="40"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="45"/>
+      <c r="B182" s="45"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="40"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="42"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="47"/>
-      <c r="B183" s="47"/>
-      <c r="C183" s="44"/>
-      <c r="D183" s="42"/>
+      <c r="G182" s="40"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="45"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="40"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="42"/>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="47"/>
-      <c r="B184" s="47"/>
-      <c r="C184" s="44"/>
-      <c r="D184" s="42"/>
+      <c r="G183" s="40"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="45"/>
+      <c r="B184" s="45"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="40"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="42"/>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="47"/>
-      <c r="B185" s="47"/>
-      <c r="C185" s="44"/>
-      <c r="D185" s="42"/>
+      <c r="G184" s="40"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="45"/>
+      <c r="B185" s="45"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="40"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="42"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="47"/>
-      <c r="B186" s="47"/>
-      <c r="C186" s="44"/>
-      <c r="D186" s="42"/>
+      <c r="G185" s="40"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="45"/>
+      <c r="B186" s="45"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="40"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="42"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="47"/>
-      <c r="B187" s="47"/>
-      <c r="C187" s="44"/>
-      <c r="D187" s="42"/>
+      <c r="G186" s="40"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="45"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="40"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="42"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="47"/>
-      <c r="B188" s="47"/>
-      <c r="C188" s="44"/>
-      <c r="D188" s="42"/>
+      <c r="G187" s="40"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="45"/>
+      <c r="B188" s="45"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="40"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="42"/>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="47"/>
-      <c r="B189" s="47"/>
-      <c r="C189" s="44"/>
-      <c r="D189" s="42"/>
+      <c r="G188" s="40"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="45"/>
+      <c r="B189" s="45"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="40"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="42"/>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="47"/>
-      <c r="B190" s="47"/>
-      <c r="C190" s="44"/>
-      <c r="D190" s="42"/>
+      <c r="G189" s="40"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="45"/>
+      <c r="B190" s="45"/>
+      <c r="C190" s="42"/>
+      <c r="D190" s="40"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="42"/>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="47"/>
-      <c r="B191" s="47"/>
-      <c r="C191" s="44"/>
-      <c r="D191" s="42"/>
+      <c r="G190" s="40"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="45"/>
+      <c r="B191" s="45"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="40"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-      <c r="G191" s="42"/>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="47"/>
-      <c r="B192" s="47"/>
-      <c r="C192" s="44"/>
-      <c r="D192" s="42"/>
+      <c r="G191" s="40"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="45"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="40"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="G192" s="42"/>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="47"/>
-      <c r="B193" s="47"/>
-      <c r="C193" s="44"/>
-      <c r="D193" s="42"/>
+      <c r="G192" s="40"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="45"/>
+      <c r="B193" s="45"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="40"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="42"/>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="47"/>
-      <c r="B194" s="47"/>
-      <c r="C194" s="44"/>
-      <c r="D194" s="42"/>
+      <c r="G193" s="40"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="45"/>
+      <c r="B194" s="45"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="40"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-      <c r="G194" s="42"/>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="47"/>
-      <c r="B195" s="47"/>
-      <c r="C195" s="44"/>
-      <c r="D195" s="42"/>
+      <c r="G194" s="40"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="45"/>
+      <c r="B195" s="45"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="40"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="42"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="47"/>
-      <c r="B196" s="47"/>
-      <c r="C196" s="44"/>
-      <c r="D196" s="42"/>
+      <c r="G195" s="40"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="45"/>
+      <c r="B196" s="45"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="40"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="G196" s="42"/>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="47"/>
-      <c r="B197" s="47"/>
-      <c r="C197" s="44"/>
-      <c r="D197" s="42"/>
+      <c r="G196" s="40"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="45"/>
+      <c r="B197" s="45"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="40"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="G197" s="42"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="47"/>
-      <c r="B198" s="47"/>
-      <c r="C198" s="44"/>
-      <c r="D198" s="42"/>
+      <c r="G197" s="40"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="45"/>
+      <c r="B198" s="45"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="40"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="42"/>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="47"/>
-      <c r="B199" s="47"/>
-      <c r="C199" s="44"/>
-      <c r="D199" s="42"/>
+      <c r="G198" s="40"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="45"/>
+      <c r="B199" s="45"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="40"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="42"/>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="47"/>
-      <c r="B200" s="47"/>
-      <c r="C200" s="44"/>
-      <c r="D200" s="42"/>
+      <c r="G199" s="40"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="45"/>
+      <c r="B200" s="45"/>
+      <c r="C200" s="42"/>
+      <c r="D200" s="40"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="42"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="47"/>
-      <c r="B201" s="47"/>
-      <c r="C201" s="44"/>
-      <c r="D201" s="42"/>
+      <c r="G200" s="40"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="45"/>
+      <c r="B201" s="45"/>
+      <c r="C201" s="42"/>
+      <c r="D201" s="40"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-      <c r="G201" s="42"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="47"/>
-      <c r="B202" s="47"/>
-      <c r="C202" s="44"/>
-      <c r="D202" s="42"/>
+      <c r="G201" s="40"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="45"/>
+      <c r="B202" s="45"/>
+      <c r="C202" s="42"/>
+      <c r="D202" s="40"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-      <c r="G202" s="42"/>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="47"/>
-      <c r="B203" s="47"/>
-      <c r="C203" s="44"/>
-      <c r="D203" s="42"/>
+      <c r="G202" s="40"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="45"/>
+      <c r="B203" s="45"/>
+      <c r="C203" s="42"/>
+      <c r="D203" s="40"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-      <c r="G203" s="42"/>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="47"/>
-      <c r="B204" s="47"/>
-      <c r="C204" s="44"/>
-      <c r="D204" s="42"/>
+      <c r="G203" s="40"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="45"/>
+      <c r="B204" s="45"/>
+      <c r="C204" s="42"/>
+      <c r="D204" s="40"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-      <c r="G204" s="42"/>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="47"/>
-      <c r="B205" s="47"/>
-      <c r="C205" s="44"/>
-      <c r="D205" s="42"/>
+      <c r="G204" s="40"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="45"/>
+      <c r="B205" s="45"/>
+      <c r="C205" s="42"/>
+      <c r="D205" s="40"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-      <c r="G205" s="42"/>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="47"/>
-      <c r="B206" s="47"/>
-      <c r="C206" s="44"/>
-      <c r="D206" s="42"/>
+      <c r="G205" s="40"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="45"/>
+      <c r="B206" s="45"/>
+      <c r="C206" s="42"/>
+      <c r="D206" s="40"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-      <c r="G206" s="42"/>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="47"/>
-      <c r="B207" s="47"/>
-      <c r="C207" s="44"/>
-      <c r="D207" s="42"/>
+      <c r="G206" s="40"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="45"/>
+      <c r="B207" s="45"/>
+      <c r="C207" s="42"/>
+      <c r="D207" s="40"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-      <c r="G207" s="42"/>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="47"/>
-      <c r="B208" s="47"/>
-      <c r="C208" s="44"/>
-      <c r="D208" s="42"/>
+      <c r="G207" s="40"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="45"/>
+      <c r="B208" s="45"/>
+      <c r="C208" s="42"/>
+      <c r="D208" s="40"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-      <c r="G208" s="42"/>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="47"/>
-      <c r="B209" s="47"/>
-      <c r="C209" s="44"/>
-      <c r="D209" s="42"/>
+      <c r="G208" s="40"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="45"/>
+      <c r="B209" s="45"/>
+      <c r="C209" s="42"/>
+      <c r="D209" s="40"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-      <c r="G209" s="42"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="47"/>
-      <c r="B210" s="47"/>
-      <c r="C210" s="44"/>
-      <c r="D210" s="42"/>
+      <c r="G209" s="40"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="45"/>
+      <c r="B210" s="45"/>
+      <c r="C210" s="42"/>
+      <c r="D210" s="40"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-      <c r="G210" s="42"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="47"/>
-      <c r="B211" s="47"/>
-      <c r="C211" s="44"/>
-      <c r="D211" s="42"/>
+      <c r="G210" s="40"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="45"/>
+      <c r="B211" s="45"/>
+      <c r="C211" s="42"/>
+      <c r="D211" s="40"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-      <c r="G211" s="42"/>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="47"/>
-      <c r="B212" s="47"/>
-      <c r="C212" s="44"/>
-      <c r="D212" s="42"/>
+      <c r="G211" s="40"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="45"/>
+      <c r="B212" s="45"/>
+      <c r="C212" s="42"/>
+      <c r="D212" s="40"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
-      <c r="G212" s="42"/>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="47"/>
-      <c r="B213" s="47"/>
-      <c r="C213" s="44"/>
-      <c r="D213" s="42"/>
+      <c r="G212" s="40"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="45"/>
+      <c r="B213" s="45"/>
+      <c r="C213" s="42"/>
+      <c r="D213" s="40"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-      <c r="G213" s="42"/>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="47"/>
-      <c r="B214" s="47"/>
-      <c r="C214" s="44"/>
-      <c r="D214" s="42"/>
+      <c r="G213" s="40"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="45"/>
+      <c r="B214" s="45"/>
+      <c r="C214" s="42"/>
+      <c r="D214" s="40"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-      <c r="G214" s="42"/>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="47"/>
-      <c r="B215" s="47"/>
-      <c r="C215" s="44"/>
-      <c r="D215" s="42"/>
+      <c r="G214" s="40"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="45"/>
+      <c r="B215" s="45"/>
+      <c r="C215" s="42"/>
+      <c r="D215" s="40"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-      <c r="G215" s="42"/>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="47"/>
-      <c r="B216" s="47"/>
-      <c r="C216" s="44"/>
-      <c r="D216" s="42"/>
+      <c r="G215" s="40"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="45"/>
+      <c r="B216" s="45"/>
+      <c r="C216" s="42"/>
+      <c r="D216" s="40"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-      <c r="G216" s="42"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="47"/>
-      <c r="B217" s="47"/>
-      <c r="C217" s="44"/>
-      <c r="D217" s="42"/>
+      <c r="G216" s="40"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="45"/>
+      <c r="B217" s="45"/>
+      <c r="C217" s="42"/>
+      <c r="D217" s="40"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-      <c r="G217" s="42"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="47"/>
-      <c r="B218" s="47"/>
-      <c r="C218" s="44"/>
-      <c r="D218" s="42"/>
+      <c r="G217" s="40"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="45"/>
+      <c r="B218" s="45"/>
+      <c r="C218" s="42"/>
+      <c r="D218" s="40"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-      <c r="G218" s="42"/>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="47"/>
-      <c r="B219" s="47"/>
-      <c r="C219" s="44"/>
-      <c r="D219" s="42"/>
+      <c r="G218" s="40"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="45"/>
+      <c r="B219" s="45"/>
+      <c r="C219" s="42"/>
+      <c r="D219" s="40"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
-      <c r="G219" s="42"/>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="47"/>
-      <c r="B220" s="47"/>
-      <c r="C220" s="44"/>
-      <c r="D220" s="42"/>
+      <c r="G219" s="40"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="45"/>
+      <c r="B220" s="45"/>
+      <c r="C220" s="42"/>
+      <c r="D220" s="40"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
-      <c r="G220" s="42"/>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="47"/>
-      <c r="B221" s="47"/>
-      <c r="C221" s="44"/>
-      <c r="D221" s="42"/>
+      <c r="G220" s="40"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="45"/>
+      <c r="B221" s="45"/>
+      <c r="C221" s="42"/>
+      <c r="D221" s="40"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-      <c r="G221" s="42"/>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="47"/>
-      <c r="B222" s="47"/>
-      <c r="C222" s="44"/>
-      <c r="D222" s="42"/>
+      <c r="G221" s="40"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="45"/>
+      <c r="B222" s="45"/>
+      <c r="C222" s="42"/>
+      <c r="D222" s="40"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
-      <c r="G222" s="42"/>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="47"/>
-      <c r="B223" s="47"/>
-      <c r="C223" s="44"/>
-      <c r="D223" s="42"/>
+      <c r="G222" s="40"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="45"/>
+      <c r="B223" s="45"/>
+      <c r="C223" s="42"/>
+      <c r="D223" s="40"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
-      <c r="G223" s="42"/>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="47"/>
-      <c r="B224" s="47"/>
-      <c r="C224" s="44"/>
-      <c r="D224" s="42"/>
+      <c r="G223" s="40"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="45"/>
+      <c r="B224" s="45"/>
+      <c r="C224" s="42"/>
+      <c r="D224" s="40"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
-      <c r="G224" s="42"/>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="47"/>
-      <c r="B225" s="47"/>
-      <c r="C225" s="44"/>
-      <c r="D225" s="42"/>
+      <c r="G224" s="40"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="45"/>
+      <c r="B225" s="45"/>
+      <c r="C225" s="42"/>
+      <c r="D225" s="40"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
-      <c r="G225" s="42"/>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="47"/>
-      <c r="B226" s="47"/>
-      <c r="C226" s="44"/>
-      <c r="D226" s="42"/>
+      <c r="G225" s="40"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="45"/>
+      <c r="B226" s="45"/>
+      <c r="C226" s="42"/>
+      <c r="D226" s="40"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-      <c r="G226" s="42"/>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="47"/>
-      <c r="B227" s="47"/>
-      <c r="C227" s="44"/>
-      <c r="D227" s="42"/>
+      <c r="G226" s="40"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="45"/>
+      <c r="B227" s="45"/>
+      <c r="C227" s="42"/>
+      <c r="D227" s="40"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-      <c r="G227" s="42"/>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="47"/>
-      <c r="B228" s="47"/>
-      <c r="C228" s="44"/>
-      <c r="D228" s="42"/>
+      <c r="G227" s="40"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="45"/>
+      <c r="B228" s="45"/>
+      <c r="C228" s="42"/>
+      <c r="D228" s="40"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
-      <c r="G228" s="42"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="47"/>
-      <c r="B229" s="47"/>
-      <c r="C229" s="44"/>
-      <c r="D229" s="42"/>
+      <c r="G228" s="40"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="45"/>
+      <c r="B229" s="45"/>
+      <c r="C229" s="42"/>
+      <c r="D229" s="40"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
-      <c r="G229" s="42"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="47"/>
-      <c r="B230" s="47"/>
-      <c r="C230" s="44"/>
-      <c r="D230" s="42"/>
+      <c r="G229" s="40"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="45"/>
+      <c r="B230" s="45"/>
+      <c r="C230" s="42"/>
+      <c r="D230" s="40"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
-      <c r="G230" s="42"/>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="47"/>
-      <c r="B231" s="47"/>
-      <c r="C231" s="44"/>
-      <c r="D231" s="42"/>
+      <c r="G230" s="40"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="45"/>
+      <c r="B231" s="45"/>
+      <c r="C231" s="42"/>
+      <c r="D231" s="40"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
-      <c r="G231" s="42"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="47"/>
-      <c r="B232" s="47"/>
-      <c r="C232" s="44"/>
-      <c r="D232" s="42"/>
+      <c r="G231" s="40"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="45"/>
+      <c r="B232" s="45"/>
+      <c r="C232" s="42"/>
+      <c r="D232" s="40"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
-      <c r="G232" s="42"/>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="47"/>
-      <c r="B233" s="47"/>
-      <c r="C233" s="44"/>
-      <c r="D233" s="42"/>
+      <c r="G232" s="40"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="45"/>
+      <c r="B233" s="45"/>
+      <c r="C233" s="42"/>
+      <c r="D233" s="40"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-      <c r="G233" s="42"/>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="47"/>
-      <c r="B234" s="47"/>
-      <c r="C234" s="44"/>
-      <c r="D234" s="42"/>
+      <c r="G233" s="40"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="45"/>
+      <c r="B234" s="45"/>
+      <c r="C234" s="42"/>
+      <c r="D234" s="40"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
-      <c r="G234" s="42"/>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="47"/>
-      <c r="B235" s="47"/>
-      <c r="C235" s="44"/>
-      <c r="D235" s="42"/>
+      <c r="G234" s="40"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="45"/>
+      <c r="B235" s="45"/>
+      <c r="C235" s="42"/>
+      <c r="D235" s="40"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-      <c r="G235" s="42"/>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="47"/>
-      <c r="B236" s="47"/>
-      <c r="C236" s="44"/>
-      <c r="D236" s="42"/>
+      <c r="G235" s="40"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="45"/>
+      <c r="B236" s="45"/>
+      <c r="C236" s="42"/>
+      <c r="D236" s="40"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-      <c r="G236" s="42"/>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="47"/>
-      <c r="B237" s="47"/>
-      <c r="C237" s="44"/>
-      <c r="D237" s="42"/>
+      <c r="G236" s="40"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="45"/>
+      <c r="B237" s="45"/>
+      <c r="C237" s="42"/>
+      <c r="D237" s="40"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-      <c r="G237" s="42"/>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="47"/>
-      <c r="B238" s="47"/>
-      <c r="C238" s="44"/>
-      <c r="D238" s="42"/>
+      <c r="G237" s="40"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="45"/>
+      <c r="B238" s="45"/>
+      <c r="C238" s="42"/>
+      <c r="D238" s="40"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
-      <c r="G238" s="42"/>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="47"/>
-      <c r="B239" s="47"/>
-      <c r="C239" s="44"/>
-      <c r="D239" s="42"/>
+      <c r="G238" s="40"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="45"/>
+      <c r="B239" s="45"/>
+      <c r="C239" s="42"/>
+      <c r="D239" s="40"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
-      <c r="G239" s="42"/>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="47"/>
-      <c r="B240" s="47"/>
-      <c r="C240" s="44"/>
-      <c r="D240" s="42"/>
+      <c r="G239" s="40"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="45"/>
+      <c r="B240" s="45"/>
+      <c r="C240" s="42"/>
+      <c r="D240" s="40"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
-      <c r="G240" s="42"/>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="47"/>
-      <c r="B241" s="47"/>
-      <c r="C241" s="44"/>
-      <c r="D241" s="42"/>
+      <c r="G240" s="40"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="45"/>
+      <c r="B241" s="45"/>
+      <c r="C241" s="42"/>
+      <c r="D241" s="40"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
-      <c r="G241" s="42"/>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="47"/>
-      <c r="B242" s="47"/>
-      <c r="C242" s="44"/>
-      <c r="D242" s="42"/>
+      <c r="G241" s="40"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="45"/>
+      <c r="B242" s="45"/>
+      <c r="C242" s="42"/>
+      <c r="D242" s="40"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
-      <c r="G242" s="42"/>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="47"/>
-      <c r="B243" s="47"/>
-      <c r="C243" s="44"/>
-      <c r="D243" s="42"/>
+      <c r="G242" s="40"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="45"/>
+      <c r="B243" s="45"/>
+      <c r="C243" s="42"/>
+      <c r="D243" s="40"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
-      <c r="G243" s="42"/>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="47"/>
-      <c r="B244" s="47"/>
-      <c r="C244" s="44"/>
-      <c r="D244" s="42"/>
+      <c r="G243" s="40"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="45"/>
+      <c r="B244" s="45"/>
+      <c r="C244" s="42"/>
+      <c r="D244" s="40"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
-      <c r="G244" s="42"/>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245" s="47"/>
-      <c r="B245" s="47"/>
-      <c r="C245" s="44"/>
-      <c r="D245" s="42"/>
+      <c r="G244" s="40"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="45"/>
+      <c r="B245" s="45"/>
+      <c r="C245" s="42"/>
+      <c r="D245" s="40"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
-      <c r="G245" s="42"/>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="47"/>
-      <c r="B246" s="47"/>
-      <c r="C246" s="44"/>
-      <c r="D246" s="42"/>
+      <c r="G245" s="40"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="45"/>
+      <c r="B246" s="45"/>
+      <c r="C246" s="42"/>
+      <c r="D246" s="40"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
-      <c r="G246" s="42"/>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="47"/>
-      <c r="B247" s="47"/>
-      <c r="C247" s="44"/>
-      <c r="D247" s="42"/>
+      <c r="G246" s="40"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="45"/>
+      <c r="B247" s="45"/>
+      <c r="C247" s="42"/>
+      <c r="D247" s="40"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
-      <c r="G247" s="42"/>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="47"/>
-      <c r="B248" s="47"/>
-      <c r="C248" s="44"/>
-      <c r="D248" s="42"/>
+      <c r="G247" s="40"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="45"/>
+      <c r="B248" s="45"/>
+      <c r="C248" s="42"/>
+      <c r="D248" s="40"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
-      <c r="G248" s="42"/>
-    </row>
-    <row r="249" spans="1:7">
-      <c r="A249" s="47"/>
-      <c r="B249" s="47"/>
-      <c r="C249" s="44"/>
-      <c r="D249" s="42"/>
+      <c r="G248" s="40"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="45"/>
+      <c r="B249" s="45"/>
+      <c r="C249" s="42"/>
+      <c r="D249" s="40"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
-      <c r="G249" s="42"/>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="47"/>
-      <c r="B250" s="47"/>
-      <c r="C250" s="44"/>
-      <c r="D250" s="42"/>
+      <c r="G249" s="40"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="45"/>
+      <c r="B250" s="45"/>
+      <c r="C250" s="42"/>
+      <c r="D250" s="40"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
-      <c r="G250" s="42"/>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="47"/>
-      <c r="B251" s="47"/>
-      <c r="C251" s="44"/>
-      <c r="D251" s="42"/>
+      <c r="G250" s="40"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="45"/>
+      <c r="B251" s="45"/>
+      <c r="C251" s="42"/>
+      <c r="D251" s="40"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
-      <c r="G251" s="42"/>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252" s="47"/>
-      <c r="B252" s="47"/>
-      <c r="C252" s="44"/>
-      <c r="D252" s="42"/>
+      <c r="G251" s="40"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="45"/>
+      <c r="B252" s="45"/>
+      <c r="C252" s="42"/>
+      <c r="D252" s="40"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
-      <c r="G252" s="42"/>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="47"/>
-      <c r="B253" s="47"/>
-      <c r="C253" s="44"/>
-      <c r="D253" s="42"/>
+      <c r="G252" s="40"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="45"/>
+      <c r="B253" s="45"/>
+      <c r="C253" s="42"/>
+      <c r="D253" s="40"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
-      <c r="G253" s="42"/>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="47"/>
-      <c r="B254" s="47"/>
-      <c r="C254" s="44"/>
-      <c r="D254" s="42"/>
+      <c r="G253" s="40"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="45"/>
+      <c r="B254" s="45"/>
+      <c r="C254" s="42"/>
+      <c r="D254" s="40"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
-      <c r="G254" s="42"/>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="47"/>
-      <c r="B255" s="47"/>
-      <c r="C255" s="44"/>
-      <c r="D255" s="42"/>
+      <c r="G254" s="40"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="45"/>
+      <c r="B255" s="45"/>
+      <c r="C255" s="42"/>
+      <c r="D255" s="40"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
-      <c r="G255" s="42"/>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="47"/>
-      <c r="B256" s="47"/>
-      <c r="C256" s="44"/>
-      <c r="D256" s="42"/>
+      <c r="G255" s="40"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="45"/>
+      <c r="B256" s="45"/>
+      <c r="C256" s="42"/>
+      <c r="D256" s="40"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
-      <c r="G256" s="42"/>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="47"/>
-      <c r="B257" s="47"/>
-      <c r="C257" s="44"/>
-      <c r="D257" s="42"/>
+      <c r="G256" s="40"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="45"/>
+      <c r="B257" s="45"/>
+      <c r="C257" s="42"/>
+      <c r="D257" s="40"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
-      <c r="G257" s="42"/>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="47"/>
-      <c r="B258" s="47"/>
-      <c r="C258" s="44"/>
-      <c r="D258" s="42"/>
+      <c r="G257" s="40"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="45"/>
+      <c r="B258" s="45"/>
+      <c r="C258" s="42"/>
+      <c r="D258" s="40"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
-      <c r="G258" s="42"/>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="47"/>
-      <c r="B259" s="47"/>
-      <c r="C259" s="44"/>
-      <c r="D259" s="42"/>
+      <c r="G258" s="40"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="45"/>
+      <c r="B259" s="45"/>
+      <c r="C259" s="42"/>
+      <c r="D259" s="40"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
-      <c r="G259" s="42"/>
-    </row>
-    <row r="260" spans="1:7">
-      <c r="A260" s="47"/>
-      <c r="B260" s="47"/>
-      <c r="C260" s="44"/>
-      <c r="D260" s="42"/>
+      <c r="G259" s="40"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="45"/>
+      <c r="B260" s="45"/>
+      <c r="C260" s="42"/>
+      <c r="D260" s="40"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
-      <c r="G260" s="42"/>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="47"/>
-      <c r="B261" s="47"/>
-      <c r="C261" s="44"/>
-      <c r="D261" s="42"/>
+      <c r="G260" s="40"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="45"/>
+      <c r="B261" s="45"/>
+      <c r="C261" s="42"/>
+      <c r="D261" s="40"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
-      <c r="G261" s="42"/>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="47"/>
-      <c r="B262" s="47"/>
-      <c r="C262" s="44"/>
-      <c r="D262" s="42"/>
+      <c r="G261" s="40"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="45"/>
+      <c r="B262" s="45"/>
+      <c r="C262" s="42"/>
+      <c r="D262" s="40"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
-      <c r="G262" s="42"/>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="47"/>
-      <c r="B263" s="47"/>
-      <c r="C263" s="44"/>
-      <c r="D263" s="42"/>
+      <c r="G262" s="40"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="45"/>
+      <c r="B263" s="45"/>
+      <c r="C263" s="42"/>
+      <c r="D263" s="40"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-      <c r="G263" s="42"/>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="47"/>
-      <c r="B264" s="47"/>
-      <c r="C264" s="44"/>
-      <c r="D264" s="42"/>
+      <c r="G263" s="40"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="45"/>
+      <c r="B264" s="45"/>
+      <c r="C264" s="42"/>
+      <c r="D264" s="40"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-      <c r="G264" s="42"/>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="47"/>
-      <c r="B265" s="47"/>
-      <c r="C265" s="44"/>
-      <c r="D265" s="42"/>
+      <c r="G264" s="40"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="45"/>
+      <c r="B265" s="45"/>
+      <c r="C265" s="42"/>
+      <c r="D265" s="40"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-      <c r="G265" s="42"/>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="47"/>
-      <c r="B266" s="47"/>
-      <c r="C266" s="44"/>
-      <c r="D266" s="42"/>
+      <c r="G265" s="40"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="45"/>
+      <c r="B266" s="45"/>
+      <c r="C266" s="42"/>
+      <c r="D266" s="40"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
-      <c r="G266" s="42"/>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="47"/>
-      <c r="B267" s="47"/>
-      <c r="C267" s="44"/>
-      <c r="D267" s="42"/>
+      <c r="G266" s="40"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="45"/>
+      <c r="B267" s="45"/>
+      <c r="C267" s="42"/>
+      <c r="D267" s="40"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
-      <c r="G267" s="42"/>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="47"/>
-      <c r="B268" s="47"/>
-      <c r="C268" s="44"/>
-      <c r="D268" s="42"/>
+      <c r="G267" s="40"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="45"/>
+      <c r="B268" s="45"/>
+      <c r="C268" s="42"/>
+      <c r="D268" s="40"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-      <c r="G268" s="42"/>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="47"/>
-      <c r="B269" s="47"/>
-      <c r="C269" s="44"/>
-      <c r="D269" s="42"/>
+      <c r="G268" s="40"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="45"/>
+      <c r="B269" s="45"/>
+      <c r="C269" s="42"/>
+      <c r="D269" s="40"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-      <c r="G269" s="42"/>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="47"/>
-      <c r="B270" s="47"/>
-      <c r="C270" s="44"/>
-      <c r="D270" s="42"/>
+      <c r="G269" s="40"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="45"/>
+      <c r="B270" s="45"/>
+      <c r="C270" s="42"/>
+      <c r="D270" s="40"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
-      <c r="G270" s="42"/>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="47"/>
-      <c r="B271" s="47"/>
-      <c r="C271" s="44"/>
-      <c r="D271" s="42"/>
+      <c r="G270" s="40"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="45"/>
+      <c r="B271" s="45"/>
+      <c r="C271" s="42"/>
+      <c r="D271" s="40"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
-      <c r="G271" s="42"/>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="47"/>
-      <c r="B272" s="47"/>
-      <c r="C272" s="44"/>
-      <c r="D272" s="42"/>
+      <c r="G271" s="40"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="45"/>
+      <c r="B272" s="45"/>
+      <c r="C272" s="42"/>
+      <c r="D272" s="40"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-      <c r="G272" s="42"/>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="47"/>
-      <c r="B273" s="47"/>
-      <c r="C273" s="44"/>
-      <c r="D273" s="42"/>
+      <c r="G272" s="40"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="45"/>
+      <c r="B273" s="45"/>
+      <c r="C273" s="42"/>
+      <c r="D273" s="40"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-      <c r="G273" s="42"/>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="47"/>
-      <c r="B274" s="47"/>
-      <c r="C274" s="44"/>
-      <c r="D274" s="42"/>
+      <c r="G273" s="40"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="45"/>
+      <c r="B274" s="45"/>
+      <c r="C274" s="42"/>
+      <c r="D274" s="40"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-      <c r="G274" s="42"/>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" s="47"/>
-      <c r="B275" s="47"/>
-      <c r="C275" s="44"/>
-      <c r="D275" s="42"/>
+      <c r="G274" s="40"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="45"/>
+      <c r="B275" s="45"/>
+      <c r="C275" s="42"/>
+      <c r="D275" s="40"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-      <c r="G275" s="42"/>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="47"/>
-      <c r="B276" s="47"/>
-      <c r="C276" s="44"/>
-      <c r="D276" s="42"/>
+      <c r="G275" s="40"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="45"/>
+      <c r="B276" s="45"/>
+      <c r="C276" s="42"/>
+      <c r="D276" s="40"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-      <c r="G276" s="42"/>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="47"/>
-      <c r="B277" s="47"/>
-      <c r="C277" s="44"/>
-      <c r="D277" s="42"/>
+      <c r="G276" s="40"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="45"/>
+      <c r="B277" s="45"/>
+      <c r="C277" s="42"/>
+      <c r="D277" s="40"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-      <c r="G277" s="42"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="47"/>
-      <c r="B278" s="47"/>
-      <c r="C278" s="44"/>
-      <c r="D278" s="42"/>
+      <c r="G277" s="40"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="45"/>
+      <c r="B278" s="45"/>
+      <c r="C278" s="42"/>
+      <c r="D278" s="40"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-      <c r="G278" s="42"/>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="47"/>
-      <c r="B279" s="47"/>
-      <c r="C279" s="44"/>
-      <c r="D279" s="42"/>
+      <c r="G278" s="40"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="45"/>
+      <c r="B279" s="45"/>
+      <c r="C279" s="42"/>
+      <c r="D279" s="40"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-      <c r="G279" s="42"/>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="47"/>
-      <c r="B280" s="47"/>
-      <c r="C280" s="44"/>
-      <c r="D280" s="42"/>
+      <c r="G279" s="40"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="45"/>
+      <c r="B280" s="45"/>
+      <c r="C280" s="42"/>
+      <c r="D280" s="40"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-      <c r="G280" s="42"/>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="47"/>
-      <c r="B281" s="47"/>
-      <c r="C281" s="44"/>
-      <c r="D281" s="42"/>
+      <c r="G280" s="40"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="45"/>
+      <c r="B281" s="45"/>
+      <c r="C281" s="42"/>
+      <c r="D281" s="40"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-      <c r="G281" s="42"/>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="47"/>
-      <c r="B282" s="47"/>
-      <c r="C282" s="44"/>
-      <c r="D282" s="42"/>
+      <c r="G281" s="40"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="45"/>
+      <c r="B282" s="45"/>
+      <c r="C282" s="42"/>
+      <c r="D282" s="40"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-      <c r="G282" s="42"/>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283" s="47"/>
-      <c r="B283" s="47"/>
-      <c r="C283" s="44"/>
-      <c r="D283" s="42"/>
+      <c r="G282" s="40"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="45"/>
+      <c r="B283" s="45"/>
+      <c r="C283" s="42"/>
+      <c r="D283" s="40"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-      <c r="G283" s="42"/>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="47"/>
-      <c r="B284" s="47"/>
-      <c r="C284" s="44"/>
-      <c r="D284" s="42"/>
+      <c r="G283" s="40"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="45"/>
+      <c r="B284" s="45"/>
+      <c r="C284" s="42"/>
+      <c r="D284" s="40"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-      <c r="G284" s="42"/>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="47"/>
-      <c r="B285" s="47"/>
-      <c r="C285" s="44"/>
-      <c r="D285" s="42"/>
+      <c r="G284" s="40"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="45"/>
+      <c r="B285" s="45"/>
+      <c r="C285" s="42"/>
+      <c r="D285" s="40"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-      <c r="G285" s="42"/>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="47"/>
-      <c r="B286" s="47"/>
-      <c r="C286" s="44"/>
-      <c r="D286" s="42"/>
+      <c r="G285" s="40"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="45"/>
+      <c r="B286" s="45"/>
+      <c r="C286" s="42"/>
+      <c r="D286" s="40"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-      <c r="G286" s="42"/>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="47"/>
-      <c r="B287" s="47"/>
-      <c r="C287" s="44"/>
-      <c r="D287" s="42"/>
+      <c r="G286" s="40"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="45"/>
+      <c r="B287" s="45"/>
+      <c r="C287" s="42"/>
+      <c r="D287" s="40"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-      <c r="G287" s="42"/>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="47"/>
-      <c r="B288" s="47"/>
-      <c r="C288" s="44"/>
-      <c r="D288" s="42"/>
+      <c r="G287" s="40"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="45"/>
+      <c r="B288" s="45"/>
+      <c r="C288" s="42"/>
+      <c r="D288" s="40"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-      <c r="G288" s="42"/>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="47"/>
-      <c r="B289" s="47"/>
-      <c r="C289" s="44"/>
-      <c r="D289" s="42"/>
+      <c r="G288" s="40"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="45"/>
+      <c r="B289" s="45"/>
+      <c r="C289" s="42"/>
+      <c r="D289" s="40"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-      <c r="G289" s="42"/>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="47"/>
-      <c r="B290" s="47"/>
-      <c r="C290" s="44"/>
-      <c r="D290" s="42"/>
+      <c r="G289" s="40"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="45"/>
+      <c r="B290" s="45"/>
+      <c r="C290" s="42"/>
+      <c r="D290" s="40"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-      <c r="G290" s="42"/>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="47"/>
-      <c r="B291" s="47"/>
-      <c r="C291" s="44"/>
-      <c r="D291" s="42"/>
+      <c r="G290" s="40"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="45"/>
+      <c r="B291" s="45"/>
+      <c r="C291" s="42"/>
+      <c r="D291" s="40"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-      <c r="G291" s="42"/>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="47"/>
-      <c r="B292" s="47"/>
-      <c r="C292" s="44"/>
-      <c r="D292" s="42"/>
+      <c r="G291" s="40"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="45"/>
+      <c r="B292" s="45"/>
+      <c r="C292" s="42"/>
+      <c r="D292" s="40"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-      <c r="G292" s="42"/>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="47"/>
-      <c r="B293" s="47"/>
-      <c r="C293" s="44"/>
-      <c r="D293" s="42"/>
+      <c r="G292" s="40"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="45"/>
+      <c r="B293" s="45"/>
+      <c r="C293" s="42"/>
+      <c r="D293" s="40"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-      <c r="G293" s="42"/>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="47"/>
-      <c r="B294" s="47"/>
-      <c r="C294" s="44"/>
-      <c r="D294" s="42"/>
+      <c r="G293" s="40"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="45"/>
+      <c r="B294" s="45"/>
+      <c r="C294" s="42"/>
+      <c r="D294" s="40"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-      <c r="G294" s="42"/>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="47"/>
-      <c r="B295" s="47"/>
-      <c r="C295" s="44"/>
-      <c r="D295" s="42"/>
+      <c r="G294" s="40"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="45"/>
+      <c r="B295" s="45"/>
+      <c r="C295" s="42"/>
+      <c r="D295" s="40"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-      <c r="G295" s="42"/>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="47"/>
-      <c r="B296" s="47"/>
-      <c r="C296" s="44"/>
-      <c r="D296" s="42"/>
+      <c r="G295" s="40"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="45"/>
+      <c r="B296" s="45"/>
+      <c r="C296" s="42"/>
+      <c r="D296" s="40"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-      <c r="G296" s="42"/>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="47"/>
-      <c r="B297" s="47"/>
-      <c r="C297" s="44"/>
-      <c r="D297" s="42"/>
+      <c r="G296" s="40"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="45"/>
+      <c r="B297" s="45"/>
+      <c r="C297" s="42"/>
+      <c r="D297" s="40"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-      <c r="G297" s="42"/>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="47"/>
-      <c r="B298" s="47"/>
-      <c r="C298" s="44"/>
-      <c r="D298" s="42"/>
+      <c r="G297" s="40"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="45"/>
+      <c r="B298" s="45"/>
+      <c r="C298" s="42"/>
+      <c r="D298" s="40"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-      <c r="G298" s="42"/>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299" s="47"/>
-      <c r="B299" s="47"/>
-      <c r="C299" s="44"/>
-      <c r="D299" s="42"/>
+      <c r="G298" s="40"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="45"/>
+      <c r="B299" s="45"/>
+      <c r="C299" s="42"/>
+      <c r="D299" s="40"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-      <c r="G299" s="42"/>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300" s="47"/>
-      <c r="B300" s="47"/>
-      <c r="C300" s="44"/>
-      <c r="D300" s="42"/>
+      <c r="G299" s="40"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="45"/>
+      <c r="B300" s="45"/>
+      <c r="C300" s="42"/>
+      <c r="D300" s="40"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-      <c r="G300" s="42"/>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="A301" s="47"/>
-      <c r="B301" s="47"/>
-      <c r="C301" s="44"/>
-      <c r="D301" s="42"/>
+      <c r="G300" s="40"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="45"/>
+      <c r="B301" s="45"/>
+      <c r="C301" s="42"/>
+      <c r="D301" s="40"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
-      <c r="G301" s="42"/>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="A302" s="47"/>
-      <c r="B302" s="47"/>
-      <c r="C302" s="44"/>
-      <c r="D302" s="42"/>
+      <c r="G301" s="40"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="45"/>
+      <c r="B302" s="45"/>
+      <c r="C302" s="42"/>
+      <c r="D302" s="40"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-      <c r="G302" s="42"/>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" s="47"/>
-      <c r="B303" s="47"/>
-      <c r="C303" s="44"/>
-      <c r="D303" s="42"/>
+      <c r="G302" s="40"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="45"/>
+      <c r="B303" s="45"/>
+      <c r="C303" s="42"/>
+      <c r="D303" s="40"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
-      <c r="G303" s="42"/>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" s="47"/>
-      <c r="B304" s="47"/>
-      <c r="C304" s="44"/>
-      <c r="D304" s="42"/>
+      <c r="G303" s="40"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="45"/>
+      <c r="B304" s="45"/>
+      <c r="C304" s="42"/>
+      <c r="D304" s="40"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
-      <c r="G304" s="42"/>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="47"/>
-      <c r="B305" s="47"/>
-      <c r="C305" s="44"/>
-      <c r="D305" s="42"/>
+      <c r="G304" s="40"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="45"/>
+      <c r="B305" s="45"/>
+      <c r="C305" s="42"/>
+      <c r="D305" s="40"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
-      <c r="G305" s="42"/>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="47"/>
-      <c r="B306" s="47"/>
-      <c r="C306" s="44"/>
-      <c r="D306" s="42"/>
+      <c r="G305" s="40"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="45"/>
+      <c r="B306" s="45"/>
+      <c r="C306" s="42"/>
+      <c r="D306" s="40"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
-      <c r="G306" s="42"/>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="47"/>
-      <c r="B307" s="47"/>
-      <c r="C307" s="44"/>
-      <c r="D307" s="42"/>
+      <c r="G306" s="40"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="45"/>
+      <c r="B307" s="45"/>
+      <c r="C307" s="42"/>
+      <c r="D307" s="40"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
-      <c r="G307" s="42"/>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="A308" s="47"/>
-      <c r="B308" s="47"/>
-      <c r="C308" s="44"/>
-      <c r="D308" s="42"/>
+      <c r="G307" s="40"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="45"/>
+      <c r="B308" s="45"/>
+      <c r="C308" s="42"/>
+      <c r="D308" s="40"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
-      <c r="G308" s="42"/>
-    </row>
-    <row r="309" spans="1:7">
-      <c r="A309" s="47"/>
-      <c r="B309" s="47"/>
-      <c r="C309" s="44"/>
-      <c r="D309" s="42"/>
+      <c r="G308" s="40"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="45"/>
+      <c r="B309" s="45"/>
+      <c r="C309" s="42"/>
+      <c r="D309" s="40"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
-      <c r="G309" s="42"/>
-    </row>
-    <row r="310" spans="1:7">
-      <c r="A310" s="47"/>
-      <c r="B310" s="47"/>
-      <c r="C310" s="44"/>
-      <c r="D310" s="42"/>
+      <c r="G309" s="40"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="45"/>
+      <c r="B310" s="45"/>
+      <c r="C310" s="42"/>
+      <c r="D310" s="40"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
-      <c r="G310" s="42"/>
-    </row>
-    <row r="311" spans="1:7">
-      <c r="A311" s="47"/>
-      <c r="B311" s="47"/>
-      <c r="C311" s="44"/>
-      <c r="D311" s="42"/>
+      <c r="G310" s="40"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="45"/>
+      <c r="B311" s="45"/>
+      <c r="C311" s="42"/>
+      <c r="D311" s="40"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
-      <c r="G311" s="42"/>
-    </row>
-    <row r="312" spans="1:7">
-      <c r="A312" s="47"/>
-      <c r="B312" s="47"/>
-      <c r="C312" s="44"/>
-      <c r="D312" s="42"/>
+      <c r="G311" s="40"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="45"/>
+      <c r="B312" s="45"/>
+      <c r="C312" s="42"/>
+      <c r="D312" s="40"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
-      <c r="G312" s="42"/>
-    </row>
-    <row r="313" spans="1:7">
-      <c r="A313" s="47"/>
-      <c r="B313" s="47"/>
-      <c r="C313" s="44"/>
-      <c r="D313" s="42"/>
+      <c r="G312" s="40"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="45"/>
+      <c r="B313" s="45"/>
+      <c r="C313" s="42"/>
+      <c r="D313" s="40"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
-      <c r="G313" s="42"/>
-    </row>
-    <row r="314" spans="1:7">
-      <c r="A314" s="47"/>
-      <c r="B314" s="47"/>
-      <c r="C314" s="44"/>
-      <c r="D314" s="42"/>
+      <c r="G313" s="40"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="45"/>
+      <c r="B314" s="45"/>
+      <c r="C314" s="42"/>
+      <c r="D314" s="40"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
-      <c r="G314" s="42"/>
-    </row>
-    <row r="315" spans="1:7">
-      <c r="A315" s="47"/>
-      <c r="B315" s="47"/>
-      <c r="C315" s="44"/>
-      <c r="D315" s="42"/>
+      <c r="G314" s="40"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="45"/>
+      <c r="B315" s="45"/>
+      <c r="C315" s="42"/>
+      <c r="D315" s="40"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-      <c r="G315" s="42"/>
-    </row>
-    <row r="316" spans="1:7">
-      <c r="A316" s="47"/>
-      <c r="B316" s="47"/>
-      <c r="C316" s="44"/>
-      <c r="D316" s="42"/>
+      <c r="G315" s="40"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="45"/>
+      <c r="B316" s="45"/>
+      <c r="C316" s="42"/>
+      <c r="D316" s="40"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
-      <c r="G316" s="42"/>
-    </row>
-    <row r="317" spans="1:7">
-      <c r="A317" s="47"/>
-      <c r="B317" s="47"/>
-      <c r="C317" s="44"/>
-      <c r="D317" s="42"/>
+      <c r="G316" s="40"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="45"/>
+      <c r="B317" s="45"/>
+      <c r="C317" s="42"/>
+      <c r="D317" s="40"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
-      <c r="G317" s="42"/>
+      <c r="G317" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A21" r:id="rId4"/>
-    <hyperlink ref="A22" r:id="rId5"/>
-    <hyperlink ref="A23" r:id="rId6"/>
-    <hyperlink ref="A24" r:id="rId7"/>
-    <hyperlink ref="A25" r:id="rId8"/>
-    <hyperlink ref="A26" r:id="rId9"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId10"/>
@@ -9627,14 +9708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -9646,55 +9727,55 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="121"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="122" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="123"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="125"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="129" t="s">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="131"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>44</v>
       </c>
@@ -9723,7 +9804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -9736,7 +9817,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -9749,7 +9830,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -9762,7 +9843,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -9775,7 +9856,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -9788,7 +9869,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -9801,7 +9882,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -9814,7 +9895,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -9827,7 +9908,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9838,20 +9919,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="112" t="s">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="109"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
@@ -9864,156 +9945,160 @@
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="115" t="s">
+      <c r="F16" s="117"/>
+      <c r="G16" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="116"/>
-      <c r="I16" s="117"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="H16" s="113"/>
+      <c r="I16" s="114"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="108"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="111"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="116"/>
       <c r="K17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="108"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="111"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="110"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="G18" s="110"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="116"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>3</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="108"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="111"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="110"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="G19" s="110"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>4</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="108"/>
+      <c r="E20" s="110"/>
       <c r="F20" s="111"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="110"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="G20" s="110"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="116"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="108"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="111"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="G21" s="110"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="116"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>6</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="108"/>
+      <c r="E22" s="110"/>
       <c r="F22" s="111"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="110"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="G22" s="110"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="116"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>7</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="108"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="111"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="110"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="G23" s="110"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="116"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>8</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="108"/>
+      <c r="E24" s="110"/>
       <c r="F24" s="111"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="G24" s="110"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="116"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>9</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="103"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E25" s="118"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="121"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>10</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -10028,15 +10113,11 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10045,14 +10126,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -10064,53 +10145,53 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="121"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="122" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="123"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="124" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="125"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="129" t="s">
+      <c r="I2" s="100"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="131"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>44</v>
       </c>
@@ -10142,7 +10223,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="34.5">
+    <row r="6" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -10180,7 +10261,7 @@
       <c r="P6" s="132"/>
       <c r="Q6" s="132"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -10218,7 +10299,7 @@
       <c r="P7" s="132"/>
       <c r="Q7" s="132"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -10247,7 +10328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -10260,7 +10341,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -10273,7 +10354,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -10286,7 +10367,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -10299,7 +10380,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -10312,7 +10393,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10323,20 +10404,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="112" t="s">
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="109"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>44</v>
       </c>
@@ -10349,17 +10430,17 @@
       <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="137" t="s">
+      <c r="E16" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137" t="s">
+      <c r="F16" s="126"/>
+      <c r="G16" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="137"/>
-      <c r="I16" s="138"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1</v>
       </c>
@@ -10372,17 +10453,17 @@
       <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="133" t="s">
+      <c r="E17" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="134"/>
-      <c r="G17" s="133" t="s">
+      <c r="F17" s="129"/>
+      <c r="G17" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="135"/>
-      <c r="I17" s="136"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.25">
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
+    </row>
+    <row r="18" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2</v>
       </c>
@@ -10395,17 +10476,17 @@
       <c r="D18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="133" t="s">
+      <c r="E18" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="134"/>
-      <c r="G18" s="133" t="s">
+      <c r="F18" s="129"/>
+      <c r="G18" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="135"/>
-      <c r="I18" s="136"/>
-    </row>
-    <row r="19" spans="1:11" ht="34.5">
+      <c r="H18" s="130"/>
+      <c r="I18" s="131"/>
+    </row>
+    <row r="19" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>3</v>
       </c>
@@ -10418,129 +10499,115 @@
       <c r="D19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="133" t="s">
+      <c r="E19" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="134"/>
-      <c r="G19" s="133" t="s">
+      <c r="F19" s="129"/>
+      <c r="G19" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="136"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
       <c r="K19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>4</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="108"/>
+      <c r="E20" s="110"/>
       <c r="F20" s="111"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="110"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="G20" s="110"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="116"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="108"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="111"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="116"/>
       <c r="K21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>6</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="108"/>
+      <c r="E22" s="110"/>
       <c r="F22" s="111"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="110"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="G22" s="110"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="116"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>7</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="108"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="111"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="110"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="G23" s="110"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="116"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>8</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="108"/>
+      <c r="E24" s="110"/>
       <c r="F24" s="111"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="G24" s="110"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="116"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>9</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="103"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E25" s="118"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="121"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>10</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -10557,6 +10624,20 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10565,32 +10646,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="139" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>54</v>
       </c>
@@ -10601,8 +10682,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -10612,30 +10693,30 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="60">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>221</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A9" s="52" t="s">
+    <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45">
-      <c r="A10" s="54" t="s">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
         <v>89</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -10645,7 +10726,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A5:C5"/>
@@ -10656,39 +10737,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="58.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75">
-      <c r="B2" s="140" t="s">
+    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="140"/>
+      <c r="C2" s="134"/>
       <c r="O2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1">
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B4" s="39">
+    <row r="4" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37">
         <v>1</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -10698,8 +10779,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="39">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="37">
         <v>2</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -10709,8 +10790,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="39">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="37">
         <v>3</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -10720,8 +10801,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="39">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="37">
         <v>4</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -10731,8 +10812,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="39">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
         <v>5</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -10742,8 +10823,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="39">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="37">
         <v>6</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -10753,8 +10834,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="39">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>7</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -10764,8 +10845,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B11" s="39">
+    <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="37">
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -10775,8 +10856,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="39">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="37">
         <v>9</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -10786,8 +10867,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="39">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="37">
         <v>10</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -10797,8 +10878,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="39">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="37">
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
@@ -10808,8 +10889,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="39">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="37">
         <v>12</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -10819,8 +10900,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="39">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="37">
         <v>13</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -10830,8 +10911,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="39">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="37">
         <v>14</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -10841,46 +10922,46 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="39"/>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="37"/>
       <c r="C18" s="24"/>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="39"/>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
       <c r="C19" s="24"/>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="39"/>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="37"/>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="39"/>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="37"/>
       <c r="C21" s="24"/>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="39"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="37"/>
       <c r="C22" s="24"/>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="39"/>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="37"/>
       <c r="C23" s="24"/>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="39"/>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="37"/>
       <c r="C24" s="24"/>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="39"/>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="37"/>
       <c r="C25" s="24"/>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="39"/>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="37"/>
       <c r="C26" s="24"/>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="40"/>
-    </row>
-    <row r="31" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="38"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>229</v>
       </c>
@@ -10895,92 +10976,92 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="140" t="s">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="134" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="29" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="133" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="139"/>
-    </row>
-    <row r="5" spans="1:10" ht="96" customHeight="1">
+      <c r="C4" s="133"/>
+    </row>
+    <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="141"/>
-    </row>
-    <row r="6" spans="1:10" ht="64.5" customHeight="1">
+      <c r="C5" s="135"/>
+    </row>
+    <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="141"/>
-    </row>
-    <row r="7" spans="1:10" ht="67.5" customHeight="1">
+      <c r="C6" s="135"/>
+    </row>
+    <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="141"/>
-    </row>
-    <row r="8" spans="1:10" ht="72.75" customHeight="1">
+      <c r="C7" s="135"/>
+    </row>
+    <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="135" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="141"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75">
-      <c r="B13" s="140" t="s">
+      <c r="C8" s="135"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="140"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
-      <c r="B14" s="36" t="s">
+      <c r="C13" s="134"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="39">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="37">
         <v>1</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -10990,8 +11071,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="39">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="37">
         <v>2</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -11001,8 +11082,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="39">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="37">
         <v>3</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -11012,8 +11093,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="39">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="37">
         <v>4</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -11023,8 +11104,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="39">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="37">
         <v>5</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -11034,8 +11115,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="39">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="37">
         <v>6</v>
       </c>
       <c r="C20" s="24" t="s">
@@ -11045,8 +11126,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="39">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="37">
         <v>7</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -11056,8 +11137,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="39">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="37">
         <v>8</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -11067,8 +11148,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="39">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="37">
         <v>9</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -11078,8 +11159,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="39">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="37">
         <v>10</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -11089,8 +11170,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="39">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="37">
         <v>11</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -11100,8 +11181,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="39">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="37">
         <v>12</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -11111,8 +11192,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="39">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="37">
         <v>13</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -11122,8 +11203,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="39">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="37">
         <v>14</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -11133,40 +11214,40 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="39"/>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="37"/>
       <c r="C29" s="24"/>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="39"/>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="37"/>
       <c r="C30" s="24"/>
     </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="39"/>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="37"/>
       <c r="C31" s="24"/>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="39"/>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="37"/>
       <c r="C32" s="24"/>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="39"/>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="37"/>
       <c r="C33" s="24"/>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="39"/>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="37"/>
       <c r="C34" s="24"/>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="39"/>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="37"/>
       <c r="C35" s="24"/>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="39"/>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="37"/>
       <c r="C36" s="24"/>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="39"/>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="37"/>
       <c r="C37" s="24"/>
     </row>
   </sheetData>
@@ -11185,131 +11266,131 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="64.28515625" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:10" ht="15.75">
-      <c r="B2" s="142" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
       <c r="J2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="55" t="s">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="90">
-      <c r="B4" s="57" t="s">
+    <row r="4" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="55" t="s">
         <v>253</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="56" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="75">
-      <c r="B5" s="57" t="s">
+    <row r="5" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="55" t="s">
         <v>256</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="42" customHeight="1">
-      <c r="B6" s="57" t="s">
+    <row r="6" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="55" t="s">
         <v>258</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="75">
-      <c r="B7" s="57" t="s">
+    <row r="7" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="75">
-      <c r="B8" s="57" t="s">
+    <row r="8" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="55" t="s">
         <v>252</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="29" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="84" customHeight="1">
-      <c r="B9" s="57" t="s">
+    <row r="9" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="55" t="s">
         <v>255</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="57" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="75">
-      <c r="B10" s="60" t="s">
+    <row r="10" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
-      <c r="B11" s="61" t="s">
+    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
@@ -11321,24 +11402,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -11346,8 +11427,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
-    <row r="5" spans="2:3">
+    <row r="4" spans="2:3" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -11357,8 +11438,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>

--- a/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
+++ b/OPAR/WORKSPACE/OPAR_JOINT_TARGET_LIST.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4038E8-DD05-4576-BF84-79ACBAB712B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37125" yWindow="15900" windowWidth="20475" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37125" yWindow="15900" windowWidth="20475" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Target List" sheetId="1" r:id="rId1"/>
@@ -153,9 +152,6 @@
     <t>JPUB Joint Targeting (Unclassified):</t>
   </si>
   <si>
-    <t>Current as of: D+0</t>
-  </si>
-  <si>
     <t>PRIORITY</t>
   </si>
   <si>
@@ -2141,12 +2137,15 @@
   <si>
     <t>E035 52.300</t>
   </si>
+  <si>
+    <t>Current as of: D+1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3076,6 +3075,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3085,6 +3123,63 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3124,61 +3219,19 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3187,21 +3240,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3220,48 +3258,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3297,7 +3296,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3341,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3391,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3437,7 +3436,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3486,7 @@
         <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3531,7 @@
         <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3582,7 +3581,7 @@
         <xdr:cNvPr id="4" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3635,7 +3634,7 @@
         <xdr:cNvPr id="3" name="TekstSylinder 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3727,7 +3726,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3785,7 +3784,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3838,7 +3837,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3891,7 +3890,7 @@
         <xdr:cNvPr id="4" name="TekstSylinder 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3989,7 +3988,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4042,7 +4041,7 @@
         <xdr:cNvPr id="4" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4095,7 +4094,7 @@
         <xdr:cNvPr id="5" name="TekstSylinder 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,7 +4188,7 @@
         <xdr:cNvPr id="5" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4242,7 +4241,7 @@
         <xdr:cNvPr id="6" name="TekstSylinder 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4337,7 +4336,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4395,7 +4394,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000010C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4448,7 +4447,7 @@
         <xdr:cNvPr id="3074" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000020C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4501,7 +4500,7 @@
         <xdr:cNvPr id="3075" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000030C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000030C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4554,7 +4553,7 @@
         <xdr:cNvPr id="3076" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000040C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4607,7 +4606,7 @@
         <xdr:cNvPr id="3077" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000050C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000050C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4660,7 +4659,7 @@
         <xdr:cNvPr id="3078" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000060C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4713,7 +4712,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4752,7 +4751,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4794,7 +4793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4826,27 +4825,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4878,24 +4859,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5071,15 +5034,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="46" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="46" customWidth="1"/>
@@ -5091,21 +5054,21 @@
     <col min="8" max="8" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="49.9" customHeight="1" thickBot="1">
+      <c r="A1" s="104" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="106"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="44" t="s">
-        <v>43</v>
+        <v>697</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="41"/>
@@ -5115,7 +5078,7 @@
       <c r="G2" s="39"/>
       <c r="H2" s="85"/>
     </row>
-    <row r="3" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="29.45" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -5123,10 +5086,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
@@ -5135,2677 +5098,2677 @@
         <v>3</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="92" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="93">
+        <v>2</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>547</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>548</v>
+      </c>
+      <c r="G4" s="96" t="s">
+        <v>549</v>
+      </c>
+      <c r="H4" s="97" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="99" t="s">
         <v>546</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C5" s="100">
         <v>2</v>
       </c>
-      <c r="D4" s="142" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="143" t="s">
-        <v>548</v>
-      </c>
-      <c r="F4" s="143" t="s">
+      <c r="D5" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>550</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>551</v>
+      </c>
+      <c r="G5" s="101" t="s">
         <v>549</v>
       </c>
-      <c r="G4" s="144" t="s">
-        <v>550</v>
-      </c>
-      <c r="H4" s="145" t="s">
+      <c r="H5" s="103" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>547</v>
-      </c>
-      <c r="C5" s="148">
-        <v>2</v>
-      </c>
-      <c r="D5" s="149" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="150" t="s">
-        <v>551</v>
-      </c>
-      <c r="F5" s="150" t="s">
-        <v>552</v>
-      </c>
-      <c r="G5" s="149" t="s">
-        <v>550</v>
-      </c>
-      <c r="H5" s="151" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="65" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C6" s="90">
         <v>5</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>554</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>555</v>
-      </c>
       <c r="G6" s="63" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="82" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C7" s="89">
         <v>5</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="80" t="s">
+        <v>568</v>
+      </c>
+      <c r="F7" s="80" t="s">
         <v>569</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="G7" s="79" t="s">
         <v>570</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="H7" s="81" t="s">
         <v>571</v>
       </c>
-      <c r="H7" s="81" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C8" s="90">
         <v>6</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="G8" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="H8" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="82" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C9" s="89">
         <v>6</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="80" t="s">
+        <v>536</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>537</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="G9" s="79" t="s">
         <v>538</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="H9" s="81" t="s">
         <v>539</v>
       </c>
-      <c r="H9" s="81" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="61" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="62">
         <v>9</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="G10" s="63" t="s">
-        <v>347</v>
-      </c>
       <c r="H10" s="29" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="82" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="78">
         <v>9</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="80" t="s">
-        <v>371</v>
-      </c>
       <c r="G11" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="62">
         <v>9</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>389</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>390</v>
       </c>
       <c r="G12" s="63">
         <v>2484</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="82" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="78">
         <v>9</v>
       </c>
       <c r="D13" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="80" t="s">
         <v>357</v>
-      </c>
-      <c r="F13" s="80" t="s">
-        <v>358</v>
       </c>
       <c r="G13" s="79">
         <v>1654</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="62">
         <v>9</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="G14" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="G14" s="63" t="s">
-        <v>369</v>
-      </c>
       <c r="H14" s="29" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="82" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="78">
         <v>9</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="80" t="s">
+        <v>398</v>
+      </c>
+      <c r="F15" s="80" t="s">
         <v>399</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>400</v>
       </c>
       <c r="G15" s="79">
         <v>1152</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="62">
         <v>9</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="G16" s="63" t="s">
-        <v>350</v>
-      </c>
       <c r="H16" s="29" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="78">
         <v>9</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="80" t="s">
+        <v>391</v>
+      </c>
+      <c r="F17" s="80" t="s">
         <v>392</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>393</v>
       </c>
       <c r="G17" s="79">
         <v>2096</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="62">
         <v>9</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="G18" s="63" t="s">
         <v>448</v>
       </c>
-      <c r="G18" s="63" t="s">
-        <v>449</v>
-      </c>
       <c r="H18" s="29" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="82" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="78">
         <v>9</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="80" t="s">
+        <v>329</v>
+      </c>
+      <c r="F19" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="G19" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="G19" s="79" t="s">
-        <v>332</v>
-      </c>
       <c r="H19" s="81" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="61" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="62">
         <v>9</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="G20" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="G20" s="63" t="s">
-        <v>398</v>
-      </c>
       <c r="H20" s="29" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="48" customFormat="1">
       <c r="A21" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="78">
         <v>9</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="80" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="G21" s="79" t="s">
         <v>352</v>
       </c>
-      <c r="G21" s="79" t="s">
-        <v>353</v>
-      </c>
       <c r="H21" s="81" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" s="65" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="62">
         <v>9</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="F22" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="G22" s="63" t="s">
         <v>515</v>
       </c>
-      <c r="G22" s="63" t="s">
-        <v>516</v>
-      </c>
       <c r="H22" s="29" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30">
       <c r="A23" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="78">
         <v>9</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="F23" s="80" t="s">
         <v>527</v>
       </c>
-      <c r="F23" s="80" t="s">
+      <c r="G23" s="79" t="s">
         <v>528</v>
       </c>
-      <c r="G23" s="79" t="s">
+      <c r="H23" s="81" t="s">
         <v>529</v>
       </c>
-      <c r="H23" s="81" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="62">
         <v>9</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="G24" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="G24" s="63" t="s">
-        <v>388</v>
-      </c>
       <c r="H24" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30">
       <c r="A25" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D25" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="F25" s="80" t="s">
         <v>364</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="G25" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="G25" s="79" t="s">
-        <v>366</v>
-      </c>
       <c r="H25" s="81" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30">
       <c r="A26" s="65" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>407</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>408</v>
       </c>
       <c r="G26" s="63">
         <v>1352</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="82" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="78">
         <v>9</v>
       </c>
       <c r="D27" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="80" t="s">
+        <v>494</v>
+      </c>
+      <c r="F27" s="80" t="s">
         <v>495</v>
       </c>
-      <c r="F27" s="80" t="s">
+      <c r="G27" s="79" t="s">
         <v>496</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="H27" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="H27" s="81" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="61" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="62">
         <v>9</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="F28" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="G28" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="G28" s="63" t="s">
-        <v>374</v>
-      </c>
       <c r="H28" s="29" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="82" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="78">
         <v>9</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="80" t="s">
+        <v>490</v>
+      </c>
+      <c r="F29" s="80" t="s">
         <v>491</v>
       </c>
-      <c r="F29" s="80" t="s">
+      <c r="G29" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="G29" s="79" t="s">
+      <c r="H29" s="81" t="s">
         <v>493</v>
       </c>
-      <c r="H29" s="81" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="61" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="62">
         <v>9</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>394</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>395</v>
       </c>
       <c r="G30" s="63">
         <v>2644</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="82" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="78">
         <v>9</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="F31" s="80" t="s">
         <v>517</v>
       </c>
-      <c r="F31" s="80" t="s">
+      <c r="G31" s="79" t="s">
         <v>518</v>
       </c>
-      <c r="G31" s="79" t="s">
-        <v>519</v>
-      </c>
       <c r="H31" s="81" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="62">
         <v>9</v>
       </c>
       <c r="D32" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="F32" s="26" t="s">
         <v>520</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="G32" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="G32" s="63" t="s">
-        <v>522</v>
-      </c>
       <c r="H32" s="29" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" s="78">
         <v>9</v>
       </c>
       <c r="D33" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="80" t="s">
+        <v>486</v>
+      </c>
+      <c r="F33" s="80" t="s">
         <v>487</v>
       </c>
-      <c r="F33" s="80" t="s">
+      <c r="G33" s="79" t="s">
         <v>488</v>
       </c>
-      <c r="G33" s="79" t="s">
+      <c r="H33" s="81" t="s">
         <v>489</v>
       </c>
-      <c r="H33" s="81" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" ht="30">
       <c r="A34" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" s="62">
         <v>9</v>
       </c>
       <c r="D34" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="F34" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="G34" s="63" t="s">
         <v>500</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="H34" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="H34" s="29" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" ht="30">
       <c r="A35" s="82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="78">
         <v>9</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="80" t="s">
+        <v>502</v>
+      </c>
+      <c r="F35" s="80" t="s">
         <v>503</v>
       </c>
-      <c r="F35" s="80" t="s">
+      <c r="G35" s="79" t="s">
+        <v>496</v>
+      </c>
+      <c r="H35" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="G35" s="79" t="s">
-        <v>497</v>
-      </c>
-      <c r="H35" s="81" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" ht="45">
       <c r="A36" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C36" s="62">
         <v>9</v>
       </c>
       <c r="D36" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="F36" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="G36" s="63" t="s">
         <v>511</v>
       </c>
-      <c r="G36" s="63" t="s">
+      <c r="H36" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="H36" s="29" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" ht="45">
       <c r="A37" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="80" t="s">
+        <v>475</v>
+      </c>
+      <c r="F37" s="80" t="s">
+        <v>476</v>
+      </c>
+      <c r="G37" s="79" t="s">
+        <v>477</v>
+      </c>
+      <c r="H37" s="81" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45">
+      <c r="A38" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B38" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="78" t="s">
-        <v>272</v>
-      </c>
-      <c r="D37" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="80" t="s">
-        <v>476</v>
-      </c>
-      <c r="F37" s="80" t="s">
-        <v>477</v>
-      </c>
-      <c r="G37" s="79" t="s">
-        <v>478</v>
-      </c>
-      <c r="H37" s="81" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
+      <c r="C38" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="G38" s="63" t="s">
+        <v>430</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B39" s="80" t="s">
         <v>185</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="D38" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="G38" s="63" t="s">
-        <v>431</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>186</v>
       </c>
       <c r="C39" s="78">
         <v>3</v>
       </c>
       <c r="D39" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="80" t="s">
+        <v>641</v>
+      </c>
+      <c r="F39" s="80" t="s">
         <v>642</v>
       </c>
-      <c r="F39" s="80" t="s">
+      <c r="G39" s="79" t="s">
         <v>643</v>
       </c>
-      <c r="G39" s="79" t="s">
-        <v>644</v>
-      </c>
       <c r="H39" s="81" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C40" s="62">
         <v>3</v>
       </c>
       <c r="D40" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="F40" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="G40" s="63" t="s">
         <v>646</v>
       </c>
-      <c r="G40" s="63" t="s">
-        <v>647</v>
-      </c>
       <c r="H40" s="81" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" s="78">
         <v>3</v>
       </c>
       <c r="D41" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F41" s="80" t="s">
+        <v>647</v>
+      </c>
+      <c r="G41" s="79" t="s">
         <v>648</v>
       </c>
-      <c r="G41" s="79" t="s">
-        <v>649</v>
-      </c>
       <c r="H41" s="81" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="62">
         <v>3</v>
       </c>
       <c r="D42" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E42" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="G42" s="63" t="s">
         <v>651</v>
       </c>
-      <c r="G42" s="63" t="s">
-        <v>652</v>
-      </c>
       <c r="H42" s="29" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" s="78">
         <v>3</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="84" t="s">
+        <v>652</v>
+      </c>
+      <c r="F43" s="84" t="s">
         <v>653</v>
       </c>
-      <c r="F43" s="84" t="s">
+      <c r="G43" s="79" t="s">
         <v>654</v>
       </c>
-      <c r="G43" s="79" t="s">
-        <v>655</v>
-      </c>
       <c r="H43" s="81"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C44" s="62">
         <v>3</v>
       </c>
       <c r="D44" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E44" s="64" t="s">
+        <v>655</v>
+      </c>
+      <c r="F44" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="G44" s="63" t="s">
         <v>657</v>
       </c>
-      <c r="G44" s="63" t="s">
-        <v>658</v>
-      </c>
       <c r="H44" s="29" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C45" s="78">
         <v>3</v>
       </c>
       <c r="D45" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="84" t="s">
+        <v>658</v>
+      </c>
+      <c r="F45" s="84" t="s">
         <v>659</v>
       </c>
-      <c r="F45" s="84" t="s">
+      <c r="G45" s="79" t="s">
         <v>660</v>
       </c>
-      <c r="G45" s="79" t="s">
+      <c r="H45" s="81" t="s">
         <v>661</v>
       </c>
-      <c r="H45" s="81" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C46" s="62">
         <v>3</v>
       </c>
       <c r="D46" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="64" t="s">
+        <v>669</v>
+      </c>
+      <c r="F46" s="64" t="s">
         <v>670</v>
       </c>
-      <c r="F46" s="64" t="s">
+      <c r="G46" s="63" t="s">
         <v>671</v>
       </c>
-      <c r="G46" s="63" t="s">
-        <v>672</v>
-      </c>
       <c r="H46" s="81" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="78">
         <v>3</v>
       </c>
       <c r="D47" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="84" t="s">
+        <v>672</v>
+      </c>
+      <c r="F47" s="84" t="s">
         <v>673</v>
       </c>
-      <c r="F47" s="84" t="s">
+      <c r="G47" s="79" t="s">
         <v>674</v>
       </c>
-      <c r="G47" s="79" t="s">
-        <v>675</v>
-      </c>
       <c r="H47" s="29" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" s="62">
         <v>3</v>
       </c>
       <c r="D48" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="64" t="s">
+        <v>675</v>
+      </c>
+      <c r="F48" s="64" t="s">
         <v>676</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="G48" s="63" t="s">
         <v>677</v>
       </c>
-      <c r="G48" s="63" t="s">
-        <v>678</v>
-      </c>
       <c r="H48" s="81" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49" s="80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" s="78">
         <v>3</v>
       </c>
       <c r="D49" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" s="84" t="s">
+        <v>678</v>
+      </c>
+      <c r="F49" s="84" t="s">
         <v>679</v>
       </c>
-      <c r="F49" s="84" t="s">
+      <c r="G49" s="79" t="s">
         <v>680</v>
       </c>
-      <c r="G49" s="79" t="s">
-        <v>681</v>
-      </c>
       <c r="H49" s="29" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" s="62">
         <v>3</v>
       </c>
       <c r="D50" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" s="64" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F50" s="64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G50" s="63" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C51" s="78">
         <v>3</v>
       </c>
       <c r="D51" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E51" s="84" t="s">
+        <v>682</v>
+      </c>
+      <c r="F51" s="84" t="s">
         <v>683</v>
       </c>
-      <c r="F51" s="84" t="s">
-        <v>684</v>
-      </c>
       <c r="G51" s="79" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H51" s="81" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C52" s="62">
         <v>3</v>
       </c>
       <c r="D52" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E52" s="64"/>
       <c r="F52" s="64"/>
       <c r="G52" s="63"/>
       <c r="H52" s="29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C53" s="78">
         <v>3</v>
       </c>
       <c r="D53" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53" s="84" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F53" s="84" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G53" s="79" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H53" s="81" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C54" s="62">
         <v>3</v>
       </c>
       <c r="D54" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="F54" s="26" t="s">
-        <v>578</v>
-      </c>
       <c r="G54" s="63" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H54" s="81" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C55" s="78">
         <v>3</v>
       </c>
       <c r="D55" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E55" s="84" t="s">
+        <v>685</v>
+      </c>
+      <c r="F55" s="84" t="s">
         <v>686</v>
       </c>
-      <c r="F55" s="84" t="s">
+      <c r="G55" s="79" t="s">
         <v>687</v>
       </c>
-      <c r="G55" s="79" t="s">
-        <v>688</v>
-      </c>
       <c r="H55" s="81" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C56" s="62">
         <v>3</v>
       </c>
       <c r="D56" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E56" s="64" t="s">
+        <v>688</v>
+      </c>
+      <c r="F56" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="G56" s="63" t="s">
         <v>689</v>
       </c>
-      <c r="F56" s="64" t="s">
-        <v>349</v>
-      </c>
-      <c r="G56" s="63" t="s">
-        <v>690</v>
-      </c>
       <c r="H56" s="29" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1">
       <c r="A57" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C57" s="78">
         <v>3</v>
       </c>
       <c r="D57" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E57" s="84" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F57" s="84" t="s">
+        <v>690</v>
+      </c>
+      <c r="G57" s="79" t="s">
         <v>691</v>
       </c>
-      <c r="G57" s="79" t="s">
-        <v>692</v>
-      </c>
       <c r="H57" s="29" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C58" s="62">
         <v>6</v>
       </c>
       <c r="D58" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58" s="64" t="s">
+        <v>692</v>
+      </c>
+      <c r="F58" s="64" t="s">
         <v>693</v>
       </c>
-      <c r="F58" s="64" t="s">
+      <c r="G58" s="63" t="s">
         <v>694</v>
       </c>
-      <c r="G58" s="63" t="s">
-        <v>695</v>
-      </c>
       <c r="H58" s="29" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B59" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C59" s="78">
         <v>6</v>
       </c>
       <c r="D59" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E59" s="84" t="s">
+        <v>695</v>
+      </c>
+      <c r="F59" s="84" t="s">
         <v>696</v>
       </c>
-      <c r="F59" s="84" t="s">
-        <v>697</v>
-      </c>
       <c r="G59" s="79" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H59" s="81" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C60" s="62">
         <v>1</v>
       </c>
       <c r="D60" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E60" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="F60" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="F60" s="64" t="s">
+      <c r="G60" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="G60" s="63" t="s">
-        <v>483</v>
-      </c>
       <c r="H60" s="29" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="24">
       <c r="A61" s="82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" s="80" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C61" s="78">
         <v>1</v>
       </c>
       <c r="D61" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E61" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="F61" s="80" t="s">
         <v>453</v>
       </c>
-      <c r="F61" s="80" t="s">
+      <c r="G61" s="79" t="s">
         <v>454</v>
       </c>
-      <c r="G61" s="79" t="s">
+      <c r="H61" s="81" t="s">
         <v>455</v>
       </c>
-      <c r="H61" s="81" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" ht="24">
       <c r="A62" s="61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C62" s="74">
         <v>1</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E62" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F62" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="G62" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="G62" s="63" t="s">
-        <v>415</v>
-      </c>
       <c r="H62" s="31" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="24">
       <c r="A63" s="82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63" s="80" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C63" s="78">
         <v>1</v>
       </c>
       <c r="D63" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E63" s="80" t="s">
+        <v>403</v>
+      </c>
+      <c r="F63" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="F63" s="80" t="s">
+      <c r="G63" s="79" t="s">
         <v>405</v>
       </c>
-      <c r="G63" s="79" t="s">
-        <v>406</v>
-      </c>
       <c r="H63" s="81" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C64" s="62">
         <v>1</v>
       </c>
       <c r="D64" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
       <c r="G64" s="63"/>
       <c r="H64" s="29"/>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="45">
       <c r="A65" s="82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="80" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C65" s="78">
         <v>4</v>
       </c>
       <c r="D65" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E65" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="F65" s="80" t="s">
+      <c r="G65" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="G65" s="79" t="s">
-        <v>296</v>
-      </c>
       <c r="H65" s="81" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30">
       <c r="A66" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C66" s="62">
         <v>9</v>
       </c>
       <c r="D66" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E66" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="F66" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="G66" s="63" t="s">
         <v>460</v>
       </c>
-      <c r="G66" s="63" t="s">
-        <v>461</v>
-      </c>
       <c r="H66" s="29" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C67" s="78">
         <v>5</v>
       </c>
       <c r="D67" s="83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E67" s="80" t="s">
+        <v>461</v>
+      </c>
+      <c r="F67" s="80" t="s">
         <v>462</v>
       </c>
-      <c r="F67" s="80" t="s">
+      <c r="G67" s="79" t="s">
         <v>463</v>
       </c>
-      <c r="G67" s="79" t="s">
-        <v>464</v>
-      </c>
       <c r="H67" s="81" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C68" s="62">
         <v>5</v>
       </c>
       <c r="D68" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E68" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="F68" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="F68" s="26" t="s">
+      <c r="G68" s="63" t="s">
+        <v>430</v>
+      </c>
+      <c r="H68" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="G68" s="63" t="s">
-        <v>431</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" ht="30">
       <c r="A69" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C69" s="78">
         <v>4</v>
       </c>
       <c r="D69" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E69" s="80" t="s">
+        <v>416</v>
+      </c>
+      <c r="F69" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="F69" s="80" t="s">
+      <c r="G69" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="G69" s="79" t="s">
-        <v>419</v>
-      </c>
       <c r="H69" s="81" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30">
       <c r="A70" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C70" s="62">
         <v>4</v>
       </c>
       <c r="D70" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E70" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="F70" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="G70" s="63" t="s">
         <v>421</v>
       </c>
-      <c r="G70" s="63" t="s">
-        <v>422</v>
-      </c>
       <c r="H70" s="29" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30">
       <c r="A71" s="82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B71" s="80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C71" s="78">
         <v>4</v>
       </c>
       <c r="D71" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71" s="80" t="s">
+        <v>425</v>
+      </c>
+      <c r="F71" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="F71" s="80" t="s">
+      <c r="G71" s="79" t="s">
         <v>427</v>
       </c>
-      <c r="G71" s="79" t="s">
-        <v>428</v>
-      </c>
       <c r="H71" s="81" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="61" t="s">
-        <v>151</v>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72" s="65" t="s">
+        <v>150</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C72" s="62">
         <v>4</v>
       </c>
       <c r="D72" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E72" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="F72" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F72" s="26" t="s">
+      <c r="G72" s="63" t="s">
         <v>424</v>
       </c>
-      <c r="G72" s="63" t="s">
-        <v>425</v>
-      </c>
       <c r="H72" s="29" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30">
       <c r="A73" s="82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C73" s="78">
         <v>12</v>
       </c>
       <c r="D73" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E73" s="80" t="s">
+        <v>581</v>
+      </c>
+      <c r="F73" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="F73" s="80" t="s">
+      <c r="G73" s="79" t="s">
+        <v>434</v>
+      </c>
+      <c r="H73" s="81" t="s">
         <v>583</v>
       </c>
-      <c r="G73" s="79" t="s">
-        <v>435</v>
-      </c>
-      <c r="H73" s="81" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" ht="30">
       <c r="A74" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C74" s="90">
         <v>2</v>
       </c>
       <c r="D74" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E74" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="F74" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="F74" s="26" t="s">
-        <v>578</v>
-      </c>
       <c r="G74" s="63" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30">
       <c r="A75" s="82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B75" s="80" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C75" s="89">
         <v>2</v>
       </c>
       <c r="D75" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E75" s="84" t="s">
+        <v>464</v>
+      </c>
+      <c r="F75" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="F75" s="84" t="s">
+      <c r="G75" s="79" t="s">
         <v>466</v>
       </c>
-      <c r="G75" s="79" t="s">
-        <v>467</v>
-      </c>
       <c r="H75" s="81" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30">
       <c r="A76" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C76" s="90">
         <v>2</v>
       </c>
       <c r="D76" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E76" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="F76" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="F76" s="26" t="s">
+      <c r="G76" s="63" t="s">
         <v>469</v>
       </c>
-      <c r="G76" s="63" t="s">
+      <c r="H76" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="H76" s="29" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" ht="30">
       <c r="A77" s="82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B77" s="80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C77" s="89">
         <v>2</v>
       </c>
       <c r="D77" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E77" s="80" t="s">
+        <v>472</v>
+      </c>
+      <c r="F77" s="80" t="s">
         <v>473</v>
       </c>
-      <c r="F77" s="80" t="s">
+      <c r="G77" s="79" t="s">
         <v>474</v>
       </c>
-      <c r="G77" s="79" t="s">
-        <v>475</v>
-      </c>
       <c r="H77" s="81" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C78" s="90">
         <v>5</v>
       </c>
       <c r="D78" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E78" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F78" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="F78" s="26" t="s">
+      <c r="G78" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="G78" s="63" t="s">
+      <c r="H78" s="29" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30">
+      <c r="A79" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="80" t="s">
         <v>300</v>
-      </c>
-      <c r="H78" s="29" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="B79" s="80" t="s">
-        <v>301</v>
       </c>
       <c r="C79" s="89">
         <v>5</v>
       </c>
       <c r="D79" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E79" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="F79" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="F79" s="80" t="s">
+      <c r="G79" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="G79" s="79" t="s">
-        <v>319</v>
-      </c>
       <c r="H79" s="81" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C80" s="90">
         <v>5</v>
       </c>
       <c r="D80" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E80" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G80" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F80" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="G80" s="63" t="s">
-        <v>313</v>
-      </c>
       <c r="H80" s="29" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C81" s="89">
         <v>5</v>
       </c>
       <c r="D81" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E81" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="F81" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="F81" s="80" t="s">
+      <c r="G81" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="G81" s="79" t="s">
-        <v>310</v>
-      </c>
       <c r="H81" s="81" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C82" s="90">
         <v>5</v>
       </c>
       <c r="D82" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E82" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="F82" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="F82" s="26" t="s">
+      <c r="G82" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="G82" s="63" t="s">
-        <v>316</v>
-      </c>
       <c r="H82" s="29" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B83" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C83" s="89">
         <v>9</v>
       </c>
       <c r="D83" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E83" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="F83" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="F83" s="80" t="s">
-        <v>307</v>
-      </c>
       <c r="G83" s="79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H83" s="81" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C84" s="90">
         <v>5</v>
       </c>
       <c r="D84" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E84" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="F84" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="F84" s="26" t="s">
+      <c r="G84" s="63" t="s">
         <v>322</v>
       </c>
-      <c r="G84" s="63" t="s">
-        <v>323</v>
-      </c>
       <c r="H84" s="29" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B85" s="80" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C85" s="89">
         <v>8</v>
       </c>
       <c r="D85" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E85" s="80" t="s">
+        <v>323</v>
+      </c>
+      <c r="F85" s="80" t="s">
         <v>324</v>
       </c>
-      <c r="F85" s="80" t="s">
+      <c r="G85" s="79" t="s">
         <v>325</v>
       </c>
-      <c r="G85" s="79" t="s">
-        <v>326</v>
-      </c>
       <c r="H85" s="81" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C86" s="90">
         <v>8</v>
       </c>
       <c r="D86" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E86" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="F86" s="26" t="s">
+      <c r="G86" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="G86" s="63" t="s">
-        <v>329</v>
-      </c>
       <c r="H86" s="29" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B87" s="80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C87" s="89">
         <v>8</v>
       </c>
       <c r="D87" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E87" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="F87" s="80" t="s">
         <v>336</v>
       </c>
-      <c r="F87" s="80" t="s">
+      <c r="G87" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="G87" s="79" t="s">
-        <v>338</v>
-      </c>
       <c r="H87" s="81" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C88" s="90">
         <v>7</v>
       </c>
       <c r="D88" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E88" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="F88" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="F88" s="26" t="s">
+      <c r="G88" s="63" t="s">
         <v>340</v>
       </c>
-      <c r="G88" s="63" t="s">
+      <c r="H88" s="29" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="24">
+      <c r="A89" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="80" t="s">
         <v>341</v>
-      </c>
-      <c r="H88" s="29" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A89" s="82" t="s">
-        <v>168</v>
-      </c>
-      <c r="B89" s="80" t="s">
-        <v>342</v>
       </c>
       <c r="C89" s="89">
         <v>2</v>
       </c>
       <c r="D89" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E89" s="80" t="s">
+        <v>342</v>
+      </c>
+      <c r="F89" s="80" t="s">
+        <v>445</v>
+      </c>
+      <c r="G89" s="79" t="s">
         <v>343</v>
       </c>
-      <c r="F89" s="80" t="s">
-        <v>446</v>
-      </c>
-      <c r="G89" s="79" t="s">
-        <v>344</v>
-      </c>
       <c r="H89" s="81" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C90" s="90">
         <v>7</v>
       </c>
       <c r="D90" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E90" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="F90" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="F90" s="26" t="s">
+      <c r="G90" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="G90" s="63" t="s">
-        <v>356</v>
-      </c>
       <c r="H90" s="29" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30">
       <c r="A91" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B91" s="80" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C91" s="89">
         <v>5</v>
       </c>
       <c r="D91" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E91" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="F91" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="F91" s="80" t="s">
+      <c r="G91" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="G91" s="79" t="s">
-        <v>363</v>
-      </c>
       <c r="H91" s="81" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30">
       <c r="A92" s="61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C92" s="90">
         <v>7</v>
       </c>
       <c r="D92" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E92" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="F92" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="F92" s="26" t="s">
+      <c r="G92" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="G92" s="63" t="s">
+      <c r="H92" s="29" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="80" t="s">
         <v>377</v>
-      </c>
-      <c r="H92" s="29" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="B93" s="80" t="s">
-        <v>378</v>
       </c>
       <c r="C93" s="89">
         <v>8</v>
       </c>
       <c r="D93" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E93" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="F93" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="F93" s="80" t="s">
+      <c r="G93" s="79" t="s">
         <v>380</v>
       </c>
-      <c r="G93" s="79" t="s">
-        <v>381</v>
-      </c>
       <c r="H93" s="81" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30">
       <c r="A94" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C94" s="90">
         <v>5</v>
       </c>
       <c r="D94" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E94" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="F94" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="F94" s="26" t="s">
+      <c r="G94" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="G94" s="63" t="s">
-        <v>384</v>
-      </c>
       <c r="H94" s="29" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30">
       <c r="A95" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B95" s="80" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C95" s="89">
         <v>8</v>
       </c>
       <c r="D95" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E95" s="80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F95" s="80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G95" s="79">
         <v>1024</v>
       </c>
       <c r="H95" s="81" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30">
       <c r="A96" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C96" s="90">
         <v>10</v>
       </c>
       <c r="D96" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E96" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F96" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="F96" s="26" t="s">
+      <c r="G96" s="63" t="s">
         <v>411</v>
       </c>
-      <c r="G96" s="63" t="s">
-        <v>412</v>
-      </c>
       <c r="H96" s="29" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30">
       <c r="A97" s="82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" s="80" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C97" s="89">
         <v>5</v>
       </c>
       <c r="D97" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E97" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="F97" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="F97" s="80" t="s">
+      <c r="G97" s="79" t="s">
         <v>434</v>
       </c>
-      <c r="G97" s="79" t="s">
+      <c r="H97" s="81" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="26" t="s">
         <v>435</v>
-      </c>
-      <c r="H97" s="81" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>436</v>
       </c>
       <c r="C98" s="90">
         <v>11</v>
       </c>
       <c r="D98" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E98" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="F98" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="F98" s="26" t="s">
-        <v>581</v>
-      </c>
       <c r="G98" s="63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H98" s="29" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B99" s="80" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C99" s="89">
         <v>11</v>
       </c>
       <c r="D99" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E99" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="F99" s="80" t="s">
         <v>439</v>
       </c>
-      <c r="F99" s="80" t="s">
+      <c r="G99" s="79" t="s">
         <v>440</v>
       </c>
-      <c r="G99" s="79" t="s">
-        <v>441</v>
-      </c>
       <c r="H99" s="81" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="26" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>438</v>
       </c>
       <c r="C100" s="90">
         <v>11</v>
       </c>
       <c r="D100" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E100" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="F100" s="26" t="s">
+      <c r="G100" s="63" t="s">
         <v>444</v>
       </c>
-      <c r="G100" s="63" t="s">
-        <v>445</v>
-      </c>
       <c r="H100" s="29" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30">
       <c r="A101" s="82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B101" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C101" s="89">
         <v>5</v>
       </c>
       <c r="D101" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E101" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="F101" s="80" t="s">
         <v>484</v>
       </c>
-      <c r="F101" s="80" t="s">
+      <c r="G101" s="79" t="s">
         <v>485</v>
       </c>
-      <c r="G101" s="79" t="s">
-        <v>486</v>
-      </c>
       <c r="H101" s="81" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C102" s="90">
         <v>8</v>
       </c>
       <c r="D102" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E102" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="F102" s="64" t="s">
         <v>506</v>
       </c>
-      <c r="F102" s="64" t="s">
+      <c r="G102" s="63" t="s">
         <v>507</v>
       </c>
-      <c r="G102" s="63" t="s">
-        <v>508</v>
-      </c>
       <c r="H102" s="29" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B103" s="80" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C103" s="89">
         <v>6</v>
       </c>
       <c r="D103" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E103" s="84" t="s">
+        <v>531</v>
+      </c>
+      <c r="F103" s="84" t="s">
         <v>532</v>
       </c>
-      <c r="F103" s="84" t="s">
+      <c r="G103" s="79" t="s">
         <v>533</v>
       </c>
-      <c r="G103" s="79" t="s">
+      <c r="H103" s="81" t="s">
         <v>534</v>
       </c>
-      <c r="H103" s="81" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:8" ht="30">
       <c r="A104" s="61" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C104" s="90">
         <v>5</v>
       </c>
       <c r="D104" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E104" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="F104" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="F104" s="64" t="s">
+      <c r="G104" s="63" t="s">
         <v>565</v>
       </c>
-      <c r="G104" s="63" t="s">
+      <c r="H104" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="H104" s="29" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="82" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B105" s="80" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C105" s="89">
         <v>5</v>
       </c>
       <c r="D105" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E105" s="84" t="s">
+        <v>573</v>
+      </c>
+      <c r="F105" s="84" t="s">
         <v>574</v>
       </c>
-      <c r="F105" s="84" t="s">
-        <v>575</v>
-      </c>
       <c r="G105" s="79" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H105" s="81" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30">
       <c r="A106" s="61" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C106" s="90">
         <v>5</v>
       </c>
       <c r="D106" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E106" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F106" s="64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G106" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H106" s="29" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="82" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B107" s="80"/>
       <c r="C107" s="78"/>
@@ -7815,9 +7778,9 @@
       <c r="G107" s="79"/>
       <c r="H107" s="81"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="61" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="62"/>
@@ -7827,9 +7790,9 @@
       <c r="G108" s="63"/>
       <c r="H108" s="29"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="82" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B109" s="80"/>
       <c r="C109" s="78"/>
@@ -7839,9 +7802,9 @@
       <c r="G109" s="79"/>
       <c r="H109" s="81"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15.75" thickBot="1">
       <c r="A110" s="68" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B110" s="69"/>
       <c r="C110" s="70"/>
@@ -7851,105 +7814,105 @@
       <c r="G110" s="71"/>
       <c r="H110" s="30"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="45"/>
       <c r="B125" s="45"/>
       <c r="C125" s="42"/>
@@ -7958,7 +7921,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="40"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="45"/>
       <c r="B126" s="45"/>
       <c r="C126" s="42"/>
@@ -7967,7 +7930,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="40"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="45"/>
       <c r="B127" s="45"/>
       <c r="C127" s="42"/>
@@ -7976,7 +7939,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="40"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="45"/>
       <c r="B128" s="45"/>
       <c r="C128" s="42"/>
@@ -7985,7 +7948,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="40"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="45"/>
       <c r="B129" s="45"/>
       <c r="C129" s="42"/>
@@ -7994,7 +7957,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="40"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="45"/>
       <c r="B130" s="45"/>
       <c r="C130" s="42"/>
@@ -8003,7 +7966,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="40"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="45"/>
       <c r="B131" s="45"/>
       <c r="C131" s="42"/>
@@ -8012,7 +7975,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="40"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="45"/>
       <c r="B132" s="45"/>
       <c r="C132" s="42"/>
@@ -8021,7 +7984,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="40"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="45"/>
       <c r="B133" s="45"/>
       <c r="C133" s="42"/>
@@ -8030,7 +7993,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="40"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="45"/>
       <c r="B134" s="45"/>
       <c r="C134" s="42"/>
@@ -8039,7 +8002,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="40"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="45"/>
       <c r="B135" s="45"/>
       <c r="C135" s="42"/>
@@ -8048,7 +8011,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="40"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="45"/>
       <c r="B136" s="45"/>
       <c r="C136" s="42"/>
@@ -8057,7 +8020,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="40"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="45"/>
       <c r="B137" s="45"/>
       <c r="C137" s="42"/>
@@ -8066,7 +8029,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="40"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="45"/>
       <c r="B138" s="45"/>
       <c r="C138" s="42"/>
@@ -8075,7 +8038,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="40"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="45"/>
       <c r="B139" s="45"/>
       <c r="C139" s="42"/>
@@ -8084,7 +8047,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="40"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="45"/>
       <c r="B140" s="45"/>
       <c r="C140" s="42"/>
@@ -8093,7 +8056,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="40"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="45"/>
       <c r="B141" s="45"/>
       <c r="C141" s="42"/>
@@ -8102,7 +8065,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="40"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="45"/>
       <c r="B142" s="45"/>
       <c r="C142" s="42"/>
@@ -8111,7 +8074,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="40"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="45"/>
       <c r="B143" s="45"/>
       <c r="C143" s="42"/>
@@ -8120,7 +8083,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="40"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="45"/>
       <c r="B144" s="45"/>
       <c r="C144" s="42"/>
@@ -8129,7 +8092,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="40"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="45"/>
       <c r="B145" s="45"/>
       <c r="C145" s="42"/>
@@ -8138,7 +8101,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="40"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="45"/>
       <c r="B146" s="45"/>
       <c r="C146" s="42"/>
@@ -8147,7 +8110,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="40"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="45"/>
       <c r="B147" s="45"/>
       <c r="C147" s="42"/>
@@ -8156,7 +8119,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="40"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="45"/>
       <c r="B148" s="45"/>
       <c r="C148" s="42"/>
@@ -8165,7 +8128,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="40"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="45"/>
       <c r="B149" s="45"/>
       <c r="C149" s="42"/>
@@ -8174,7 +8137,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="40"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="45"/>
       <c r="B150" s="45"/>
       <c r="C150" s="42"/>
@@ -8183,7 +8146,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="40"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="45"/>
       <c r="B151" s="45"/>
       <c r="C151" s="42"/>
@@ -8192,7 +8155,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="40"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="45"/>
       <c r="B152" s="45"/>
       <c r="C152" s="42"/>
@@ -8201,7 +8164,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="40"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="45"/>
       <c r="B153" s="45"/>
       <c r="C153" s="42"/>
@@ -8210,7 +8173,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="40"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="45"/>
       <c r="B154" s="45"/>
       <c r="C154" s="42"/>
@@ -8219,7 +8182,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="40"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="45"/>
       <c r="B155" s="45"/>
       <c r="C155" s="42"/>
@@ -8228,7 +8191,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="40"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="45"/>
       <c r="B156" s="45"/>
       <c r="C156" s="42"/>
@@ -8237,7 +8200,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="40"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="45"/>
       <c r="B157" s="45"/>
       <c r="C157" s="42"/>
@@ -8246,7 +8209,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="40"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="45"/>
       <c r="B158" s="45"/>
       <c r="C158" s="42"/>
@@ -8255,7 +8218,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="40"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="45"/>
       <c r="B159" s="45"/>
       <c r="C159" s="42"/>
@@ -8264,7 +8227,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="40"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="45"/>
       <c r="B160" s="45"/>
       <c r="C160" s="42"/>
@@ -8273,7 +8236,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="40"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="45"/>
       <c r="B161" s="45"/>
       <c r="C161" s="42"/>
@@ -8282,7 +8245,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="40"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="45"/>
       <c r="B162" s="45"/>
       <c r="C162" s="42"/>
@@ -8291,7 +8254,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="40"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="45"/>
       <c r="B163" s="45"/>
       <c r="C163" s="42"/>
@@ -8300,7 +8263,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="40"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="45"/>
       <c r="B164" s="45"/>
       <c r="C164" s="42"/>
@@ -8309,7 +8272,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="40"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="45"/>
       <c r="B165" s="45"/>
       <c r="C165" s="42"/>
@@ -8318,7 +8281,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="40"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="45"/>
       <c r="B166" s="45"/>
       <c r="C166" s="42"/>
@@ -8327,7 +8290,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="40"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="45"/>
       <c r="B167" s="45"/>
       <c r="C167" s="42"/>
@@ -8336,7 +8299,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="40"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="45"/>
       <c r="B168" s="45"/>
       <c r="C168" s="42"/>
@@ -8345,7 +8308,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="40"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="45"/>
       <c r="B169" s="45"/>
       <c r="C169" s="42"/>
@@ -8354,7 +8317,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="40"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="45"/>
       <c r="B170" s="45"/>
       <c r="C170" s="42"/>
@@ -8363,7 +8326,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="40"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="45"/>
       <c r="B171" s="45"/>
       <c r="C171" s="42"/>
@@ -8372,7 +8335,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="40"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="45"/>
       <c r="B172" s="45"/>
       <c r="C172" s="42"/>
@@ -8381,7 +8344,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="40"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="45"/>
       <c r="B173" s="45"/>
       <c r="C173" s="42"/>
@@ -8390,7 +8353,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="40"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="45"/>
       <c r="B174" s="45"/>
       <c r="C174" s="42"/>
@@ -8399,7 +8362,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="40"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="45"/>
       <c r="B175" s="45"/>
       <c r="C175" s="42"/>
@@ -8408,7 +8371,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="40"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="45"/>
       <c r="B176" s="45"/>
       <c r="C176" s="42"/>
@@ -8417,7 +8380,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="40"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="45"/>
       <c r="B177" s="45"/>
       <c r="C177" s="42"/>
@@ -8426,7 +8389,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="40"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="45"/>
       <c r="B178" s="45"/>
       <c r="C178" s="42"/>
@@ -8435,7 +8398,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="40"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="45"/>
       <c r="B179" s="45"/>
       <c r="C179" s="42"/>
@@ -8444,7 +8407,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="40"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="45"/>
       <c r="B180" s="45"/>
       <c r="C180" s="42"/>
@@ -8453,7 +8416,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="40"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="45"/>
       <c r="B181" s="45"/>
       <c r="C181" s="42"/>
@@ -8462,7 +8425,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="40"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="45"/>
       <c r="B182" s="45"/>
       <c r="C182" s="42"/>
@@ -8471,7 +8434,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="40"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="45"/>
       <c r="B183" s="45"/>
       <c r="C183" s="42"/>
@@ -8480,7 +8443,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="40"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="45"/>
       <c r="B184" s="45"/>
       <c r="C184" s="42"/>
@@ -8489,7 +8452,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="40"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="45"/>
       <c r="B185" s="45"/>
       <c r="C185" s="42"/>
@@ -8498,7 +8461,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="40"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="45"/>
       <c r="B186" s="45"/>
       <c r="C186" s="42"/>
@@ -8507,7 +8470,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="40"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="45"/>
       <c r="B187" s="45"/>
       <c r="C187" s="42"/>
@@ -8516,7 +8479,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="40"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="45"/>
       <c r="B188" s="45"/>
       <c r="C188" s="42"/>
@@ -8525,7 +8488,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="40"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="45"/>
       <c r="B189" s="45"/>
       <c r="C189" s="42"/>
@@ -8534,7 +8497,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="40"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="45"/>
       <c r="B190" s="45"/>
       <c r="C190" s="42"/>
@@ -8543,7 +8506,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="40"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="45"/>
       <c r="B191" s="45"/>
       <c r="C191" s="42"/>
@@ -8552,7 +8515,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="40"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="45"/>
       <c r="B192" s="45"/>
       <c r="C192" s="42"/>
@@ -8561,7 +8524,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="40"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="45"/>
       <c r="B193" s="45"/>
       <c r="C193" s="42"/>
@@ -8570,7 +8533,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="40"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="45"/>
       <c r="B194" s="45"/>
       <c r="C194" s="42"/>
@@ -8579,7 +8542,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="40"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="45"/>
       <c r="B195" s="45"/>
       <c r="C195" s="42"/>
@@ -8588,7 +8551,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="40"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="45"/>
       <c r="B196" s="45"/>
       <c r="C196" s="42"/>
@@ -8597,7 +8560,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="40"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="45"/>
       <c r="B197" s="45"/>
       <c r="C197" s="42"/>
@@ -8606,7 +8569,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="40"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="45"/>
       <c r="B198" s="45"/>
       <c r="C198" s="42"/>
@@ -8615,7 +8578,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="40"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="45"/>
       <c r="B199" s="45"/>
       <c r="C199" s="42"/>
@@ -8624,7 +8587,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="40"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="45"/>
       <c r="B200" s="45"/>
       <c r="C200" s="42"/>
@@ -8633,7 +8596,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="40"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="45"/>
       <c r="B201" s="45"/>
       <c r="C201" s="42"/>
@@ -8642,7 +8605,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="40"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="45"/>
       <c r="B202" s="45"/>
       <c r="C202" s="42"/>
@@ -8651,7 +8614,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="40"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="45"/>
       <c r="B203" s="45"/>
       <c r="C203" s="42"/>
@@ -8660,7 +8623,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="40"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="45"/>
       <c r="B204" s="45"/>
       <c r="C204" s="42"/>
@@ -8669,7 +8632,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="40"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="45"/>
       <c r="B205" s="45"/>
       <c r="C205" s="42"/>
@@ -8678,7 +8641,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="40"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="45"/>
       <c r="B206" s="45"/>
       <c r="C206" s="42"/>
@@ -8687,7 +8650,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="40"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="45"/>
       <c r="B207" s="45"/>
       <c r="C207" s="42"/>
@@ -8696,7 +8659,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="40"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="45"/>
       <c r="B208" s="45"/>
       <c r="C208" s="42"/>
@@ -8705,7 +8668,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="40"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="45"/>
       <c r="B209" s="45"/>
       <c r="C209" s="42"/>
@@ -8714,7 +8677,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="40"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="45"/>
       <c r="B210" s="45"/>
       <c r="C210" s="42"/>
@@ -8723,7 +8686,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="40"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="45"/>
       <c r="B211" s="45"/>
       <c r="C211" s="42"/>
@@ -8732,7 +8695,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="40"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="45"/>
       <c r="B212" s="45"/>
       <c r="C212" s="42"/>
@@ -8741,7 +8704,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="40"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="45"/>
       <c r="B213" s="45"/>
       <c r="C213" s="42"/>
@@ -8750,7 +8713,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="40"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="45"/>
       <c r="B214" s="45"/>
       <c r="C214" s="42"/>
@@ -8759,7 +8722,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="40"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="45"/>
       <c r="B215" s="45"/>
       <c r="C215" s="42"/>
@@ -8768,7 +8731,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="40"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="45"/>
       <c r="B216" s="45"/>
       <c r="C216" s="42"/>
@@ -8777,7 +8740,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="40"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="45"/>
       <c r="B217" s="45"/>
       <c r="C217" s="42"/>
@@ -8786,7 +8749,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="40"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="45"/>
       <c r="B218" s="45"/>
       <c r="C218" s="42"/>
@@ -8795,7 +8758,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="40"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="45"/>
       <c r="B219" s="45"/>
       <c r="C219" s="42"/>
@@ -8804,7 +8767,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="40"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="45"/>
       <c r="B220" s="45"/>
       <c r="C220" s="42"/>
@@ -8813,7 +8776,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="40"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="45"/>
       <c r="B221" s="45"/>
       <c r="C221" s="42"/>
@@ -8822,7 +8785,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="40"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="45"/>
       <c r="B222" s="45"/>
       <c r="C222" s="42"/>
@@ -8831,7 +8794,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="40"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="45"/>
       <c r="B223" s="45"/>
       <c r="C223" s="42"/>
@@ -8840,7 +8803,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="40"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="45"/>
       <c r="B224" s="45"/>
       <c r="C224" s="42"/>
@@ -8849,7 +8812,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="40"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="45"/>
       <c r="B225" s="45"/>
       <c r="C225" s="42"/>
@@ -8858,7 +8821,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="40"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="45"/>
       <c r="B226" s="45"/>
       <c r="C226" s="42"/>
@@ -8867,7 +8830,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="40"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="45"/>
       <c r="B227" s="45"/>
       <c r="C227" s="42"/>
@@ -8876,7 +8839,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="40"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="45"/>
       <c r="B228" s="45"/>
       <c r="C228" s="42"/>
@@ -8885,7 +8848,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="40"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="45"/>
       <c r="B229" s="45"/>
       <c r="C229" s="42"/>
@@ -8894,7 +8857,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="40"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="45"/>
       <c r="B230" s="45"/>
       <c r="C230" s="42"/>
@@ -8903,7 +8866,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="40"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="45"/>
       <c r="B231" s="45"/>
       <c r="C231" s="42"/>
@@ -8912,7 +8875,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="40"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="45"/>
       <c r="B232" s="45"/>
       <c r="C232" s="42"/>
@@ -8921,7 +8884,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="40"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="45"/>
       <c r="B233" s="45"/>
       <c r="C233" s="42"/>
@@ -8930,7 +8893,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="40"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="45"/>
       <c r="B234" s="45"/>
       <c r="C234" s="42"/>
@@ -8939,7 +8902,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="40"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="45"/>
       <c r="B235" s="45"/>
       <c r="C235" s="42"/>
@@ -8948,7 +8911,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="40"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="45"/>
       <c r="B236" s="45"/>
       <c r="C236" s="42"/>
@@ -8957,7 +8920,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="40"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="45"/>
       <c r="B237" s="45"/>
       <c r="C237" s="42"/>
@@ -8966,7 +8929,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="40"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="45"/>
       <c r="B238" s="45"/>
       <c r="C238" s="42"/>
@@ -8975,7 +8938,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="40"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="45"/>
       <c r="B239" s="45"/>
       <c r="C239" s="42"/>
@@ -8984,7 +8947,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="40"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="45"/>
       <c r="B240" s="45"/>
       <c r="C240" s="42"/>
@@ -8993,7 +8956,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="40"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="45"/>
       <c r="B241" s="45"/>
       <c r="C241" s="42"/>
@@ -9002,7 +8965,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="40"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="45"/>
       <c r="B242" s="45"/>
       <c r="C242" s="42"/>
@@ -9011,7 +8974,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="40"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="45"/>
       <c r="B243" s="45"/>
       <c r="C243" s="42"/>
@@ -9020,7 +8983,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="40"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="45"/>
       <c r="B244" s="45"/>
       <c r="C244" s="42"/>
@@ -9029,7 +8992,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="40"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="45"/>
       <c r="B245" s="45"/>
       <c r="C245" s="42"/>
@@ -9038,7 +9001,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="40"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="45"/>
       <c r="B246" s="45"/>
       <c r="C246" s="42"/>
@@ -9047,7 +9010,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="40"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="45"/>
       <c r="B247" s="45"/>
       <c r="C247" s="42"/>
@@ -9056,7 +9019,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="40"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="45"/>
       <c r="B248" s="45"/>
       <c r="C248" s="42"/>
@@ -9065,7 +9028,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="40"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="45"/>
       <c r="B249" s="45"/>
       <c r="C249" s="42"/>
@@ -9074,7 +9037,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="40"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="45"/>
       <c r="B250" s="45"/>
       <c r="C250" s="42"/>
@@ -9083,7 +9046,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="40"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="45"/>
       <c r="B251" s="45"/>
       <c r="C251" s="42"/>
@@ -9092,7 +9055,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="40"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="45"/>
       <c r="B252" s="45"/>
       <c r="C252" s="42"/>
@@ -9101,7 +9064,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="40"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="45"/>
       <c r="B253" s="45"/>
       <c r="C253" s="42"/>
@@ -9110,7 +9073,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="40"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="45"/>
       <c r="B254" s="45"/>
       <c r="C254" s="42"/>
@@ -9119,7 +9082,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="40"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="45"/>
       <c r="B255" s="45"/>
       <c r="C255" s="42"/>
@@ -9128,7 +9091,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="40"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="45"/>
       <c r="B256" s="45"/>
       <c r="C256" s="42"/>
@@ -9137,7 +9100,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="40"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="45"/>
       <c r="B257" s="45"/>
       <c r="C257" s="42"/>
@@ -9146,7 +9109,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="40"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="45"/>
       <c r="B258" s="45"/>
       <c r="C258" s="42"/>
@@ -9155,7 +9118,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="40"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="45"/>
       <c r="B259" s="45"/>
       <c r="C259" s="42"/>
@@ -9164,7 +9127,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="40"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="45"/>
       <c r="B260" s="45"/>
       <c r="C260" s="42"/>
@@ -9173,7 +9136,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="40"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="45"/>
       <c r="B261" s="45"/>
       <c r="C261" s="42"/>
@@ -9182,7 +9145,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="40"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="45"/>
       <c r="B262" s="45"/>
       <c r="C262" s="42"/>
@@ -9191,7 +9154,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="40"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="45"/>
       <c r="B263" s="45"/>
       <c r="C263" s="42"/>
@@ -9200,7 +9163,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="40"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="45"/>
       <c r="B264" s="45"/>
       <c r="C264" s="42"/>
@@ -9209,7 +9172,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="40"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="45"/>
       <c r="B265" s="45"/>
       <c r="C265" s="42"/>
@@ -9218,7 +9181,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="40"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="45"/>
       <c r="B266" s="45"/>
       <c r="C266" s="42"/>
@@ -9227,7 +9190,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="40"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="45"/>
       <c r="B267" s="45"/>
       <c r="C267" s="42"/>
@@ -9236,7 +9199,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="40"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="45"/>
       <c r="B268" s="45"/>
       <c r="C268" s="42"/>
@@ -9245,7 +9208,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="40"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="45"/>
       <c r="B269" s="45"/>
       <c r="C269" s="42"/>
@@ -9254,7 +9217,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="40"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="45"/>
       <c r="B270" s="45"/>
       <c r="C270" s="42"/>
@@ -9263,7 +9226,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="40"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="45"/>
       <c r="B271" s="45"/>
       <c r="C271" s="42"/>
@@ -9272,7 +9235,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="40"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="45"/>
       <c r="B272" s="45"/>
       <c r="C272" s="42"/>
@@ -9281,7 +9244,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="40"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="45"/>
       <c r="B273" s="45"/>
       <c r="C273" s="42"/>
@@ -9290,7 +9253,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="40"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="45"/>
       <c r="B274" s="45"/>
       <c r="C274" s="42"/>
@@ -9299,7 +9262,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="40"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="45"/>
       <c r="B275" s="45"/>
       <c r="C275" s="42"/>
@@ -9308,7 +9271,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="40"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="45"/>
       <c r="B276" s="45"/>
       <c r="C276" s="42"/>
@@ -9317,7 +9280,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="40"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="45"/>
       <c r="B277" s="45"/>
       <c r="C277" s="42"/>
@@ -9326,7 +9289,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="40"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" s="45"/>
       <c r="B278" s="45"/>
       <c r="C278" s="42"/>
@@ -9335,7 +9298,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="40"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" s="45"/>
       <c r="B279" s="45"/>
       <c r="C279" s="42"/>
@@ -9344,7 +9307,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="40"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" s="45"/>
       <c r="B280" s="45"/>
       <c r="C280" s="42"/>
@@ -9353,7 +9316,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="40"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" s="45"/>
       <c r="B281" s="45"/>
       <c r="C281" s="42"/>
@@ -9362,7 +9325,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="40"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" s="45"/>
       <c r="B282" s="45"/>
       <c r="C282" s="42"/>
@@ -9371,7 +9334,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="40"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" s="45"/>
       <c r="B283" s="45"/>
       <c r="C283" s="42"/>
@@ -9380,7 +9343,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="40"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" s="45"/>
       <c r="B284" s="45"/>
       <c r="C284" s="42"/>
@@ -9389,7 +9352,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="40"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" s="45"/>
       <c r="B285" s="45"/>
       <c r="C285" s="42"/>
@@ -9398,7 +9361,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="40"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" s="45"/>
       <c r="B286" s="45"/>
       <c r="C286" s="42"/>
@@ -9407,7 +9370,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="40"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" s="45"/>
       <c r="B287" s="45"/>
       <c r="C287" s="42"/>
@@ -9416,7 +9379,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="40"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" s="45"/>
       <c r="B288" s="45"/>
       <c r="C288" s="42"/>
@@ -9425,7 +9388,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="40"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" s="45"/>
       <c r="B289" s="45"/>
       <c r="C289" s="42"/>
@@ -9434,7 +9397,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="40"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" s="45"/>
       <c r="B290" s="45"/>
       <c r="C290" s="42"/>
@@ -9443,7 +9406,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="40"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" s="45"/>
       <c r="B291" s="45"/>
       <c r="C291" s="42"/>
@@ -9452,7 +9415,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="40"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" s="45"/>
       <c r="B292" s="45"/>
       <c r="C292" s="42"/>
@@ -9461,7 +9424,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="40"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" s="45"/>
       <c r="B293" s="45"/>
       <c r="C293" s="42"/>
@@ -9470,7 +9433,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="40"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" s="45"/>
       <c r="B294" s="45"/>
       <c r="C294" s="42"/>
@@ -9479,7 +9442,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="40"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" s="45"/>
       <c r="B295" s="45"/>
       <c r="C295" s="42"/>
@@ -9488,7 +9451,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="40"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" s="45"/>
       <c r="B296" s="45"/>
       <c r="C296" s="42"/>
@@ -9497,7 +9460,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="40"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" s="45"/>
       <c r="B297" s="45"/>
       <c r="C297" s="42"/>
@@ -9506,7 +9469,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="40"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" s="45"/>
       <c r="B298" s="45"/>
       <c r="C298" s="42"/>
@@ -9515,7 +9478,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="40"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" s="45"/>
       <c r="B299" s="45"/>
       <c r="C299" s="42"/>
@@ -9524,7 +9487,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="40"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" s="45"/>
       <c r="B300" s="45"/>
       <c r="C300" s="42"/>
@@ -9533,7 +9496,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="40"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" s="45"/>
       <c r="B301" s="45"/>
       <c r="C301" s="42"/>
@@ -9542,7 +9505,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="40"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" s="45"/>
       <c r="B302" s="45"/>
       <c r="C302" s="42"/>
@@ -9551,7 +9514,7 @@
       <c r="F302" s="1"/>
       <c r="G302" s="40"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" s="45"/>
       <c r="B303" s="45"/>
       <c r="C303" s="42"/>
@@ -9560,7 +9523,7 @@
       <c r="F303" s="1"/>
       <c r="G303" s="40"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" s="45"/>
       <c r="B304" s="45"/>
       <c r="C304" s="42"/>
@@ -9569,7 +9532,7 @@
       <c r="F304" s="1"/>
       <c r="G304" s="40"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" s="45"/>
       <c r="B305" s="45"/>
       <c r="C305" s="42"/>
@@ -9578,7 +9541,7 @@
       <c r="F305" s="1"/>
       <c r="G305" s="40"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" s="45"/>
       <c r="B306" s="45"/>
       <c r="C306" s="42"/>
@@ -9587,7 +9550,7 @@
       <c r="F306" s="1"/>
       <c r="G306" s="40"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" s="45"/>
       <c r="B307" s="45"/>
       <c r="C307" s="42"/>
@@ -9596,7 +9559,7 @@
       <c r="F307" s="1"/>
       <c r="G307" s="40"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" s="45"/>
       <c r="B308" s="45"/>
       <c r="C308" s="42"/>
@@ -9605,7 +9568,7 @@
       <c r="F308" s="1"/>
       <c r="G308" s="40"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" s="45"/>
       <c r="B309" s="45"/>
       <c r="C309" s="42"/>
@@ -9614,7 +9577,7 @@
       <c r="F309" s="1"/>
       <c r="G309" s="40"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" s="45"/>
       <c r="B310" s="45"/>
       <c r="C310" s="42"/>
@@ -9623,7 +9586,7 @@
       <c r="F310" s="1"/>
       <c r="G310" s="40"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" s="45"/>
       <c r="B311" s="45"/>
       <c r="C311" s="42"/>
@@ -9632,7 +9595,7 @@
       <c r="F311" s="1"/>
       <c r="G311" s="40"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" s="45"/>
       <c r="B312" s="45"/>
       <c r="C312" s="42"/>
@@ -9641,7 +9604,7 @@
       <c r="F312" s="1"/>
       <c r="G312" s="40"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" s="45"/>
       <c r="B313" s="45"/>
       <c r="C313" s="42"/>
@@ -9650,7 +9613,7 @@
       <c r="F313" s="1"/>
       <c r="G313" s="40"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" s="45"/>
       <c r="B314" s="45"/>
       <c r="C314" s="42"/>
@@ -9659,7 +9622,7 @@
       <c r="F314" s="1"/>
       <c r="G314" s="40"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" s="45"/>
       <c r="B315" s="45"/>
       <c r="C315" s="42"/>
@@ -9668,7 +9631,7 @@
       <c r="F315" s="1"/>
       <c r="G315" s="40"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" s="45"/>
       <c r="B316" s="45"/>
       <c r="C316" s="42"/>
@@ -9677,7 +9640,7 @@
       <c r="F316" s="1"/>
       <c r="G316" s="40"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" s="45"/>
       <c r="B317" s="45"/>
       <c r="C317" s="42"/>
@@ -9691,31 +9654,32 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A21" r:id="rId4"/>
+    <hyperlink ref="A22" r:id="rId5"/>
+    <hyperlink ref="A23" r:id="rId6"/>
+    <hyperlink ref="A24" r:id="rId7"/>
+    <hyperlink ref="A25" r:id="rId8"/>
+    <hyperlink ref="A26" r:id="rId9"/>
+    <hyperlink ref="A72" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -9727,66 +9691,66 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="98"/>
+    <row r="1" spans="1:11" ht="49.9" customHeight="1">
+      <c r="A1" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="130"/>
       <c r="C2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="132"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="138"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>2</v>
@@ -9795,16 +9759,16 @@
         <v>3</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="I5" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -9817,7 +9781,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -9830,7 +9794,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -9843,7 +9807,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -9856,7 +9820,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -9869,7 +9833,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -9882,7 +9846,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -9895,7 +9859,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -9908,7 +9872,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9919,186 +9883,182 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="107" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="109"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="117"/>
-      <c r="G16" s="112" t="s">
+      <c r="F16" s="125"/>
+      <c r="G16" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="123"/>
+      <c r="I16" s="124"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="7">
         <v>1</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="116"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="117"/>
       <c r="K17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="7">
         <v>2</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="116"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="115"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="117"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="7">
         <v>3</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="115"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="7">
         <v>4</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="116"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="115"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="117"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="116"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="115"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="117"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="7">
         <v>6</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="116"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="115"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="117"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="7">
         <v>7</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="115"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="117"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="7">
         <v>8</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="116"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="115"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="117"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="7">
         <v>9</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="121"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="107"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="110"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="8">
         <v>10</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="125"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -10113,11 +10073,15 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10126,14 +10090,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -10145,64 +10109,64 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="98"/>
+    <row r="1" spans="1:17" ht="49.9" customHeight="1">
+      <c r="A1" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A2" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="130"/>
       <c r="C2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="100"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I2" s="132"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:17" ht="15.75">
+      <c r="A4" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="138"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>2</v>
@@ -10211,124 +10175,124 @@
         <v>3</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="I5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="34.5">
       <c r="A6" s="9">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="F6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="132" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="9">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="132" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K7" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="9">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="D8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="I8" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -10341,7 +10305,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -10354,7 +10318,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -10367,7 +10331,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -10380,7 +10344,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -10393,7 +10357,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10404,43 +10368,43 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="107" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="109"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15.75">
+      <c r="A15" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="126" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126" t="s">
+      <c r="F16" s="144"/>
+      <c r="G16" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="144"/>
+      <c r="I16" s="145"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="7">
         <v>1</v>
       </c>
@@ -10448,166 +10412,180 @@
         <v>7</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="128" t="s">
+      <c r="E17" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="141"/>
+      <c r="G17" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+    </row>
+    <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="7">
         <v>2</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="141"/>
+      <c r="G18" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="130"/>
-      <c r="I18" s="131"/>
-    </row>
-    <row r="19" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="H18" s="142"/>
+      <c r="I18" s="143"/>
+    </row>
+    <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="7">
         <v>3</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="128" t="s">
+      <c r="F19" s="141"/>
+      <c r="G19" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="128" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
       <c r="K19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="7">
         <v>4</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="116"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="115"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="117"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="116"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="117"/>
       <c r="K21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="7">
         <v>6</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="116"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="115"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="117"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="7">
         <v>7</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="115"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="117"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="7">
         <v>8</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="116"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="115"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="117"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="7">
         <v>9</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="121"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="107"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="110"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="8">
         <v>10</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="125"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -10624,20 +10602,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10646,87 +10610,87 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="J1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="146" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="21" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60">
+      <c r="A8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A9" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="C9" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45">
+      <c r="A10" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="C10" s="22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A5:C5"/>
@@ -10737,233 +10701,233 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="58.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="134" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="134"/>
+    <row r="2" spans="2:15" ht="15.75">
+      <c r="B2" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="147"/>
       <c r="O2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15" customHeight="1">
       <c r="B3" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="15.75" customHeight="1">
       <c r="B4" s="37">
         <v>1</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="37">
         <v>2</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="37">
         <v>3</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="37">
         <v>4</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="37">
         <v>5</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="37">
         <v>6</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="37">
         <v>7</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" customHeight="1">
       <c r="B11" s="37">
         <v>8</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" t="s">
         <v>239</v>
       </c>
-      <c r="D11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="37">
         <v>9</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="37">
         <v>10</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="37">
         <v>11</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="37">
         <v>12</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="37">
         <v>13</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="37">
         <v>14</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="37"/>
       <c r="C18" s="24"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="37"/>
       <c r="C19" s="24"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="37"/>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="37"/>
       <c r="C21" s="24"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" s="37"/>
       <c r="C22" s="24"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" s="37"/>
       <c r="C23" s="24"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" s="37"/>
       <c r="C24" s="24"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="B25" s="37"/>
       <c r="C25" s="24"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="B26" s="37"/>
       <c r="C26" s="24"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" s="38"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="C31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -10976,277 +10940,277 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="J2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="147" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="146" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="146"/>
+    </row>
+    <row r="5" spans="1:10" ht="96" customHeight="1">
+      <c r="A5" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="148"/>
+    </row>
+    <row r="6" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="148" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="133" t="s">
+      <c r="C6" s="148"/>
+    </row>
+    <row r="7" spans="1:10" ht="67.5" customHeight="1">
+      <c r="A7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="148" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="148"/>
+    </row>
+    <row r="8" spans="1:10" ht="72.75" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="148" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="133"/>
-    </row>
-    <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="135"/>
-    </row>
-    <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="135"/>
-    </row>
-    <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="135"/>
-    </row>
-    <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="135" t="s">
+      <c r="C8" s="148"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="B13" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="147"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="B14" s="34" t="s">
         <v>224</v>
-      </c>
-      <c r="C8" s="135"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="134" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="134"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>225</v>
       </c>
       <c r="C14" s="88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="37">
         <v>1</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="37">
         <v>2</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="37">
         <v>3</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="37">
         <v>4</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="37">
         <v>5</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="37">
         <v>6</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="37">
         <v>7</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="37">
         <v>8</v>
       </c>
       <c r="C22" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" t="s">
         <v>239</v>
       </c>
-      <c r="D22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" s="37">
         <v>9</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="37">
         <v>10</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="37">
         <v>11</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="37">
         <v>12</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" s="37">
         <v>13</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" s="37">
         <v>14</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" s="37"/>
       <c r="C29" s="24"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="B30" s="37"/>
       <c r="C30" s="24"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="B31" s="37"/>
       <c r="C31" s="24"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="B32" s="37"/>
       <c r="C32" s="24"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" s="37"/>
       <c r="C33" s="24"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" s="37"/>
       <c r="C34" s="24"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" s="37"/>
       <c r="C35" s="24"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36" s="37"/>
       <c r="C36" s="24"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37" s="37"/>
       <c r="C37" s="24"/>
     </row>
@@ -11266,131 +11230,131 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="64.28515625" customWidth="1"/>
     <col min="4" max="4" width="52.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="136" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:10" ht="15.75">
+      <c r="B2" s="149" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
+      <c r="J2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1">
+      <c r="B3" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="J2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
-        <v>227</v>
-      </c>
       <c r="C3" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="90">
       <c r="B4" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="75">
+      <c r="B5" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="42" customHeight="1">
+      <c r="B6" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="75">
+      <c r="B7" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="C7" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="75">
+      <c r="B8" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="84" customHeight="1">
+      <c r="B9" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="75">
+      <c r="B10" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="C10" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
+      <c r="B11" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="60" t="s">
+      <c r="D11" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
@@ -11402,24 +11366,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -11427,8 +11391,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -11438,8 +11402,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
